--- a/com.romaremedysolutions/RemedyMetadata/RemedySignUpMetadata.xlsx
+++ b/com.romaremedysolutions/RemedyMetadata/RemedySignUpMetadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23820" windowHeight="10110" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="23820" windowHeight="10110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -2287,6 +2287,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2371,6 +2372,126 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2383,127 +2504,6 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2829,41 +2829,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="113" t="s">
+      <c r="E1" s="103"/>
+      <c r="F1" s="114" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="107" t="s">
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="108"/>
+      <c r="L1" s="109"/>
     </row>
     <row r="2" spans="4:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="G2" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
       <c r="S2" s="26"/>
     </row>
     <row r="3" spans="4:19" ht="16.5" thickBot="1">
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="46" t="s">
         <v>5</v>
       </c>
@@ -2875,15 +2875,15 @@
       <c r="J3" s="50">
         <v>5.2</v>
       </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
       <c r="Q3" s="40"/>
       <c r="R3" s="41"/>
       <c r="S3" s="42"/>
     </row>
     <row r="4" spans="4:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D4" s="103"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="46" t="s">
         <v>3</v>
       </c>
@@ -2893,13 +2893,13 @@
       <c r="H4" s="50"/>
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="111"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="4:19" ht="16.5" thickBot="1">
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="47" t="s">
         <v>4</v>
       </c>
@@ -2909,8 +2909,8 @@
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="113"/>
       <c r="Q5" s="40"/>
       <c r="R5" s="41"/>
       <c r="S5" s="42"/>
@@ -2959,10 +2959,10 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="96" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="97"/>
       <c r="F11" s="85" t="s">
         <v>288</v>
       </c>
@@ -2978,8 +2978,8 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D12" s="91"/>
-      <c r="E12" s="97"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="86" t="s">
         <v>291</v>
       </c>
@@ -2995,8 +2995,8 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D13" s="91"/>
-      <c r="E13" s="97"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="86" t="s">
         <v>292</v>
       </c>
@@ -3012,8 +3012,8 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="86" t="s">
         <v>294</v>
       </c>
@@ -3029,10 +3029,10 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="90" t="s">
         <v>300</v>
       </c>
-      <c r="E15" s="90"/>
+      <c r="E15" s="91"/>
       <c r="F15" s="87"/>
       <c r="G15" s="15"/>
       <c r="H15" s="1"/>
@@ -3044,8 +3044,8 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="86" t="s">
         <v>287</v>
       </c>
@@ -3061,8 +3061,8 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="86" t="s">
         <v>299</v>
       </c>
@@ -3078,8 +3078,8 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D18" s="98"/>
-      <c r="E18" s="100"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="101"/>
       <c r="F18" s="86"/>
       <c r="G18" s="83"/>
       <c r="H18" s="1"/>
@@ -3091,10 +3091,10 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="90" t="s">
         <v>296</v>
       </c>
-      <c r="E19" s="90"/>
+      <c r="E19" s="91"/>
       <c r="F19" s="87" t="s">
         <v>278</v>
       </c>
@@ -3110,8 +3110,8 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="87" t="s">
         <v>279</v>
       </c>
@@ -3127,8 +3127,8 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="87" t="s">
         <v>281</v>
       </c>
@@ -3144,8 +3144,8 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="4:19" ht="16.5" thickBot="1">
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="88" t="s">
         <v>297</v>
       </c>
@@ -4569,8 +4569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4578,7 +4578,7 @@
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4596,10 +4596,10 @@
         <v>302</v>
       </c>
       <c r="E1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" t="s">
         <v>303</v>
-      </c>
-      <c r="F1" t="s">
-        <v>203</v>
       </c>
       <c r="G1" t="s">
         <v>205</v>
@@ -4612,7 +4612,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4623,7 +4623,7 @@
       <c r="C3" t="s">
         <v>206</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
       <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       <c r="C5" t="s">
         <v>209</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       <c r="C6" t="s">
         <v>210</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       <c r="C8" t="s">
         <v>68</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
       <c r="C10" t="s">
         <v>95</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       <c r="C11" t="s">
         <v>262</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4722,7 +4722,7 @@
       <c r="C12" t="s">
         <v>263</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
       <c r="C13" t="s">
         <v>264</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4744,7 +4744,7 @@
       <c r="C14" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
       <c r="C15" t="s">
         <v>266</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4766,183 +4766,183 @@
       <c r="C16" t="s">
         <v>267</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>246</v>
       </c>
       <c r="C17" t="s">
         <v>216</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>247</v>
       </c>
       <c r="C18" t="s">
         <v>217</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>248</v>
       </c>
       <c r="C19" t="s">
         <v>268</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>249</v>
       </c>
       <c r="C20" t="s">
         <v>268</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>250</v>
       </c>
       <c r="C21" t="s">
         <v>268</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>251</v>
       </c>
       <c r="C22" t="s">
         <v>268</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
         <v>252</v>
       </c>
       <c r="C23" t="s">
         <v>268</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
         <v>253</v>
       </c>
       <c r="C24" t="s">
         <v>268</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
         <v>254</v>
       </c>
       <c r="C25" t="s">
         <v>222</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>255</v>
       </c>
       <c r="C26" t="s">
         <v>268</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
         <v>256</v>
       </c>
       <c r="C27" t="s">
         <v>223</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:5">
       <c r="B28" t="s">
         <v>257</v>
       </c>
       <c r="C28" t="s">
         <v>227</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
         <v>258</v>
       </c>
       <c r="C29" t="s">
         <v>268</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:5">
       <c r="B30" t="s">
         <v>259</v>
       </c>
       <c r="C30" t="s">
         <v>268</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
         <v>260</v>
       </c>
       <c r="C31" t="s">
         <v>268</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:5">
       <c r="B32" t="s">
         <v>261</v>
       </c>
       <c r="C32" t="s">
         <v>276</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E32" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:R280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -5413,18 +5413,18 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" thickBot="1">
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="120"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="161"/>
       <c r="O8" s="18"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -5447,21 +5447,21 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
       <c r="O10" s="18"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -5472,15 +5472,15 @@
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="11" t="s">
         <v>10</v>
       </c>
@@ -5499,25 +5499,25 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="68"/>
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="124" t="s">
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="124" t="s">
+      <c r="H12" s="135"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="126"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="136"/>
       <c r="O12" s="20"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -5588,15 +5588,15 @@
       <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="141" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="11" t="s">
         <v>10</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>12</v>
       </c>
       <c r="O16" s="19"/>
-      <c r="P16" s="161" t="s">
+      <c r="P16" s="89" t="s">
         <v>304</v>
       </c>
       <c r="Q16" s="1"/>
@@ -5617,27 +5617,27 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="68"/>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="124" t="s">
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="124" t="s">
+      <c r="H17" s="135"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="126"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="136"/>
       <c r="O17" s="20"/>
-      <c r="P17" s="161"/>
+      <c r="P17" s="89"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
@@ -5665,7 +5665,7 @@
       <c r="M18" s="128"/>
       <c r="N18" s="129"/>
       <c r="O18" s="21"/>
-      <c r="P18" s="161"/>
+      <c r="P18" s="89"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
@@ -5691,13 +5691,13 @@
       <c r="M19" s="131"/>
       <c r="N19" s="132"/>
       <c r="O19" s="21"/>
-      <c r="P19" s="161"/>
+      <c r="P19" s="89"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1">
       <c r="O20" s="18"/>
-      <c r="P20" s="161"/>
+      <c r="P20" s="89"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
@@ -5706,15 +5706,15 @@
       <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="143"/>
       <c r="J21" s="11" t="s">
         <v>10</v>
       </c>
@@ -5727,33 +5727,33 @@
         <v>12</v>
       </c>
       <c r="O21" s="19"/>
-      <c r="P21" s="161"/>
+      <c r="P21" s="89"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="68"/>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="124" t="s">
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="125"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="124" t="s">
+      <c r="H22" s="135"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="126"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="136"/>
       <c r="O22" s="20"/>
-      <c r="P22" s="161"/>
+      <c r="P22" s="89"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
@@ -5781,7 +5781,7 @@
       <c r="M23" s="128"/>
       <c r="N23" s="129"/>
       <c r="O23" s="21"/>
-      <c r="P23" s="161"/>
+      <c r="P23" s="89"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
@@ -5807,13 +5807,13 @@
       <c r="M24" s="131"/>
       <c r="N24" s="132"/>
       <c r="O24" s="21"/>
-      <c r="P24" s="161"/>
+      <c r="P24" s="89"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1">
       <c r="O25" s="18"/>
-      <c r="P25" s="161"/>
+      <c r="P25" s="89"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
@@ -5822,15 +5822,15 @@
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="141" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="123"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="11" t="s">
         <v>10</v>
       </c>
@@ -5843,33 +5843,33 @@
         <v>12</v>
       </c>
       <c r="O26" s="18"/>
-      <c r="P26" s="161"/>
+      <c r="P26" s="89"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="68"/>
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="124" t="s">
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="125"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="124" t="s">
+      <c r="H27" s="135"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="126"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="136"/>
       <c r="O27" s="19"/>
-      <c r="P27" s="161"/>
+      <c r="P27" s="89"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
@@ -5897,7 +5897,7 @@
       <c r="M28" s="128"/>
       <c r="N28" s="129"/>
       <c r="O28" s="20"/>
-      <c r="P28" s="161"/>
+      <c r="P28" s="89"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
@@ -5923,13 +5923,13 @@
       <c r="M29" s="131"/>
       <c r="N29" s="132"/>
       <c r="O29" s="21"/>
-      <c r="P29" s="161"/>
+      <c r="P29" s="89"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" thickBot="1">
       <c r="O30" s="21"/>
-      <c r="P30" s="161"/>
+      <c r="P30" s="89"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
@@ -5938,15 +5938,15 @@
       <c r="B31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="141" t="s">
         <v>210</v>
       </c>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="123"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
       <c r="J31" s="11" t="s">
         <v>10</v>
       </c>
@@ -5959,33 +5959,33 @@
         <v>12</v>
       </c>
       <c r="O31" s="18"/>
-      <c r="P31" s="161"/>
+      <c r="P31" s="89"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="68"/>
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="124" t="s">
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="125"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="124" t="s">
+      <c r="H32" s="135"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="126"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="136"/>
       <c r="O32" s="19"/>
-      <c r="P32" s="161"/>
+      <c r="P32" s="89"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
@@ -6056,15 +6056,15 @@
       <c r="B36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="121" t="s">
+      <c r="C36" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="123"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="143"/>
       <c r="J36" s="11" t="s">
         <v>10</v>
       </c>
@@ -6085,25 +6085,25 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="68"/>
-      <c r="B37" s="133" t="s">
+      <c r="B37" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="124" t="s">
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="125"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="124" t="s">
+      <c r="H37" s="135"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="125"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
-      <c r="N37" s="126"/>
+      <c r="K37" s="135"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="135"/>
+      <c r="N37" s="136"/>
       <c r="O37" s="19"/>
       <c r="P37" s="1" t="s">
         <v>199</v>
@@ -6176,15 +6176,15 @@
       <c r="B41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="121" t="s">
+      <c r="C41" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="123"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="142"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="143"/>
       <c r="J41" s="11" t="s">
         <v>10</v>
       </c>
@@ -6203,25 +6203,25 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="68"/>
-      <c r="B42" s="133" t="s">
+      <c r="B42" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="124" t="s">
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="125"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="124" t="s">
+      <c r="H42" s="135"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="125"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="126"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="135"/>
+      <c r="N42" s="136"/>
       <c r="O42" s="19"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -6292,15 +6292,15 @@
       <c r="B46" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="121" t="s">
+      <c r="C46" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="123"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="143"/>
       <c r="J46" s="11" t="s">
         <v>10</v>
       </c>
@@ -6319,25 +6319,25 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="68"/>
-      <c r="B47" s="133" t="s">
+      <c r="B47" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="124" t="s">
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="125"/>
-      <c r="I47" s="136"/>
-      <c r="J47" s="124" t="s">
+      <c r="H47" s="135"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="125"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="125"/>
-      <c r="N47" s="126"/>
+      <c r="K47" s="135"/>
+      <c r="L47" s="135"/>
+      <c r="M47" s="135"/>
+      <c r="N47" s="136"/>
       <c r="O47" s="18"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -6406,15 +6406,15 @@
       <c r="B51" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="121" t="s">
+      <c r="C51" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="123"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="143"/>
       <c r="J51" s="11" t="s">
         <v>10</v>
       </c>
@@ -6433,25 +6433,25 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="68"/>
-      <c r="B52" s="133" t="s">
+      <c r="B52" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="124" t="s">
+      <c r="C52" s="139"/>
+      <c r="D52" s="139"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="125"/>
-      <c r="I52" s="136"/>
-      <c r="J52" s="124" t="s">
+      <c r="H52" s="135"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="125"/>
-      <c r="L52" s="125"/>
-      <c r="M52" s="125"/>
-      <c r="N52" s="126"/>
+      <c r="K52" s="135"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="135"/>
+      <c r="N52" s="136"/>
       <c r="O52" s="18"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -6535,15 +6535,15 @@
       <c r="B56" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="121" t="s">
+      <c r="C56" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="123"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="143"/>
       <c r="J56" s="11" t="s">
         <v>10</v>
       </c>
@@ -6562,25 +6562,25 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="68"/>
-      <c r="B57" s="133" t="s">
+      <c r="B57" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="134"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
-      <c r="F57" s="135"/>
-      <c r="G57" s="124" t="s">
+      <c r="C57" s="139"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="139"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="125"/>
-      <c r="I57" s="136"/>
-      <c r="J57" s="124" t="s">
+      <c r="H57" s="135"/>
+      <c r="I57" s="137"/>
+      <c r="J57" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="125"/>
-      <c r="L57" s="125"/>
-      <c r="M57" s="125"/>
-      <c r="N57" s="126"/>
+      <c r="K57" s="135"/>
+      <c r="L57" s="135"/>
+      <c r="M57" s="135"/>
+      <c r="N57" s="136"/>
       <c r="O57" s="20"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -6651,15 +6651,15 @@
       <c r="B61" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="121" t="s">
+      <c r="C61" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="123"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="142"/>
+      <c r="H61" s="142"/>
+      <c r="I61" s="143"/>
       <c r="J61" s="11" t="s">
         <v>10</v>
       </c>
@@ -6678,25 +6678,25 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="68"/>
-      <c r="B62" s="133" t="s">
+      <c r="B62" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="134"/>
-      <c r="D62" s="134"/>
-      <c r="E62" s="134"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="124" t="s">
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="125"/>
-      <c r="I62" s="136"/>
-      <c r="J62" s="124" t="s">
+      <c r="H62" s="135"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="125"/>
-      <c r="L62" s="125"/>
-      <c r="M62" s="125"/>
-      <c r="N62" s="126"/>
+      <c r="K62" s="135"/>
+      <c r="L62" s="135"/>
+      <c r="M62" s="135"/>
+      <c r="N62" s="136"/>
       <c r="O62" s="21"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -6767,15 +6767,15 @@
       <c r="B66" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C66" s="121" t="s">
+      <c r="C66" s="141" t="s">
         <v>225</v>
       </c>
-      <c r="D66" s="122"/>
-      <c r="E66" s="122"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="122"/>
-      <c r="H66" s="122"/>
-      <c r="I66" s="123"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="142"/>
+      <c r="H66" s="142"/>
+      <c r="I66" s="143"/>
       <c r="J66" s="11" t="s">
         <v>10</v>
       </c>
@@ -6794,25 +6794,25 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="68"/>
-      <c r="B67" s="133" t="s">
+      <c r="B67" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="134"/>
-      <c r="D67" s="134"/>
-      <c r="E67" s="134"/>
-      <c r="F67" s="135"/>
-      <c r="G67" s="124" t="s">
+      <c r="C67" s="139"/>
+      <c r="D67" s="139"/>
+      <c r="E67" s="139"/>
+      <c r="F67" s="140"/>
+      <c r="G67" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="125"/>
-      <c r="I67" s="136"/>
-      <c r="J67" s="124" t="s">
+      <c r="H67" s="135"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K67" s="125"/>
-      <c r="L67" s="125"/>
-      <c r="M67" s="125"/>
-      <c r="N67" s="126"/>
+      <c r="K67" s="135"/>
+      <c r="L67" s="135"/>
+      <c r="M67" s="135"/>
+      <c r="N67" s="136"/>
       <c r="O67" s="21"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -6898,21 +6898,21 @@
       <c r="R71" s="1"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B72" s="160" t="s">
+      <c r="B72" s="133" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="160"/>
-      <c r="D72" s="160"/>
-      <c r="E72" s="160"/>
-      <c r="F72" s="160"/>
-      <c r="G72" s="160"/>
-      <c r="H72" s="160"/>
-      <c r="I72" s="160"/>
-      <c r="J72" s="160"/>
-      <c r="K72" s="160"/>
-      <c r="L72" s="160"/>
-      <c r="M72" s="160"/>
-      <c r="N72" s="160"/>
+      <c r="C72" s="133"/>
+      <c r="D72" s="133"/>
+      <c r="E72" s="133"/>
+      <c r="F72" s="133"/>
+      <c r="G72" s="133"/>
+      <c r="H72" s="133"/>
+      <c r="I72" s="133"/>
+      <c r="J72" s="133"/>
+      <c r="K72" s="133"/>
+      <c r="L72" s="133"/>
+      <c r="M72" s="133"/>
+      <c r="N72" s="133"/>
       <c r="O72" s="18"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -7016,15 +7016,15 @@
       <c r="B88" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="121" t="s">
+      <c r="C88" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="D88" s="122"/>
-      <c r="E88" s="122"/>
-      <c r="F88" s="122"/>
-      <c r="G88" s="122"/>
-      <c r="H88" s="122"/>
-      <c r="I88" s="123"/>
+      <c r="D88" s="142"/>
+      <c r="E88" s="142"/>
+      <c r="F88" s="142"/>
+      <c r="G88" s="142"/>
+      <c r="H88" s="142"/>
+      <c r="I88" s="143"/>
       <c r="J88" s="11" t="s">
         <v>10</v>
       </c>
@@ -7043,25 +7043,25 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="67"/>
-      <c r="B89" s="133" t="s">
+      <c r="B89" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="134"/>
-      <c r="D89" s="134"/>
-      <c r="E89" s="134"/>
-      <c r="F89" s="135"/>
-      <c r="G89" s="124" t="s">
+      <c r="C89" s="139"/>
+      <c r="D89" s="139"/>
+      <c r="E89" s="139"/>
+      <c r="F89" s="140"/>
+      <c r="G89" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H89" s="125"/>
-      <c r="I89" s="136"/>
-      <c r="J89" s="124" t="s">
+      <c r="H89" s="135"/>
+      <c r="I89" s="137"/>
+      <c r="J89" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K89" s="125"/>
-      <c r="L89" s="125"/>
-      <c r="M89" s="125"/>
-      <c r="N89" s="126"/>
+      <c r="K89" s="135"/>
+      <c r="L89" s="135"/>
+      <c r="M89" s="135"/>
+      <c r="N89" s="136"/>
       <c r="O89" s="18"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -7132,15 +7132,15 @@
       <c r="B93" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C93" s="121" t="s">
+      <c r="C93" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="122"/>
-      <c r="E93" s="122"/>
-      <c r="F93" s="122"/>
-      <c r="G93" s="122"/>
-      <c r="H93" s="122"/>
-      <c r="I93" s="123"/>
+      <c r="D93" s="142"/>
+      <c r="E93" s="142"/>
+      <c r="F93" s="142"/>
+      <c r="G93" s="142"/>
+      <c r="H93" s="142"/>
+      <c r="I93" s="143"/>
       <c r="J93" s="11" t="s">
         <v>10</v>
       </c>
@@ -7159,25 +7159,25 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="68"/>
-      <c r="B94" s="133" t="s">
+      <c r="B94" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="134"/>
-      <c r="D94" s="134"/>
-      <c r="E94" s="134"/>
-      <c r="F94" s="135"/>
-      <c r="G94" s="124" t="s">
+      <c r="C94" s="139"/>
+      <c r="D94" s="139"/>
+      <c r="E94" s="139"/>
+      <c r="F94" s="140"/>
+      <c r="G94" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H94" s="125"/>
-      <c r="I94" s="136"/>
-      <c r="J94" s="124" t="s">
+      <c r="H94" s="135"/>
+      <c r="I94" s="137"/>
+      <c r="J94" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K94" s="125"/>
-      <c r="L94" s="125"/>
-      <c r="M94" s="125"/>
-      <c r="N94" s="126"/>
+      <c r="K94" s="135"/>
+      <c r="L94" s="135"/>
+      <c r="M94" s="135"/>
+      <c r="N94" s="136"/>
       <c r="O94" s="18"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -7248,15 +7248,15 @@
       <c r="B98" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="121" t="s">
+      <c r="C98" s="141" t="s">
         <v>191</v>
       </c>
-      <c r="D98" s="122"/>
-      <c r="E98" s="122"/>
-      <c r="F98" s="122"/>
-      <c r="G98" s="122"/>
-      <c r="H98" s="122"/>
-      <c r="I98" s="123"/>
+      <c r="D98" s="142"/>
+      <c r="E98" s="142"/>
+      <c r="F98" s="142"/>
+      <c r="G98" s="142"/>
+      <c r="H98" s="142"/>
+      <c r="I98" s="143"/>
       <c r="J98" s="11" t="s">
         <v>10</v>
       </c>
@@ -7275,25 +7275,25 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="68"/>
-      <c r="B99" s="133" t="s">
+      <c r="B99" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="134"/>
-      <c r="D99" s="134"/>
-      <c r="E99" s="134"/>
-      <c r="F99" s="135"/>
-      <c r="G99" s="124" t="s">
+      <c r="C99" s="139"/>
+      <c r="D99" s="139"/>
+      <c r="E99" s="139"/>
+      <c r="F99" s="140"/>
+      <c r="G99" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="125"/>
-      <c r="I99" s="136"/>
-      <c r="J99" s="124" t="s">
+      <c r="H99" s="135"/>
+      <c r="I99" s="137"/>
+      <c r="J99" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K99" s="125"/>
-      <c r="L99" s="125"/>
-      <c r="M99" s="125"/>
-      <c r="N99" s="126"/>
+      <c r="K99" s="135"/>
+      <c r="L99" s="135"/>
+      <c r="M99" s="135"/>
+      <c r="N99" s="136"/>
       <c r="O99" s="18"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -7364,15 +7364,15 @@
       <c r="B103" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="121" t="s">
+      <c r="C103" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="D103" s="122"/>
-      <c r="E103" s="122"/>
-      <c r="F103" s="122"/>
-      <c r="G103" s="122"/>
-      <c r="H103" s="122"/>
-      <c r="I103" s="123"/>
+      <c r="D103" s="142"/>
+      <c r="E103" s="142"/>
+      <c r="F103" s="142"/>
+      <c r="G103" s="142"/>
+      <c r="H103" s="142"/>
+      <c r="I103" s="143"/>
       <c r="J103" s="11" t="s">
         <v>10</v>
       </c>
@@ -7391,25 +7391,25 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="67"/>
-      <c r="B104" s="133" t="s">
+      <c r="B104" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="134"/>
-      <c r="D104" s="134"/>
-      <c r="E104" s="134"/>
-      <c r="F104" s="135"/>
-      <c r="G104" s="124" t="s">
+      <c r="C104" s="139"/>
+      <c r="D104" s="139"/>
+      <c r="E104" s="139"/>
+      <c r="F104" s="140"/>
+      <c r="G104" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H104" s="125"/>
-      <c r="I104" s="136"/>
-      <c r="J104" s="124" t="s">
+      <c r="H104" s="135"/>
+      <c r="I104" s="137"/>
+      <c r="J104" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K104" s="125"/>
-      <c r="L104" s="125"/>
-      <c r="M104" s="125"/>
-      <c r="N104" s="126"/>
+      <c r="K104" s="135"/>
+      <c r="L104" s="135"/>
+      <c r="M104" s="135"/>
+      <c r="N104" s="136"/>
       <c r="O104" s="18"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -7513,15 +7513,15 @@
       <c r="B109" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="121" t="s">
+      <c r="C109" s="141" t="s">
         <v>217</v>
       </c>
-      <c r="D109" s="122"/>
-      <c r="E109" s="122"/>
-      <c r="F109" s="122"/>
-      <c r="G109" s="122"/>
-      <c r="H109" s="122"/>
-      <c r="I109" s="123"/>
+      <c r="D109" s="142"/>
+      <c r="E109" s="142"/>
+      <c r="F109" s="142"/>
+      <c r="G109" s="142"/>
+      <c r="H109" s="142"/>
+      <c r="I109" s="143"/>
       <c r="J109" s="11" t="s">
         <v>10</v>
       </c>
@@ -7540,25 +7540,25 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="67"/>
-      <c r="B110" s="133" t="s">
+      <c r="B110" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C110" s="134"/>
-      <c r="D110" s="134"/>
-      <c r="E110" s="134"/>
-      <c r="F110" s="135"/>
-      <c r="G110" s="124" t="s">
+      <c r="C110" s="139"/>
+      <c r="D110" s="139"/>
+      <c r="E110" s="139"/>
+      <c r="F110" s="140"/>
+      <c r="G110" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H110" s="125"/>
-      <c r="I110" s="136"/>
-      <c r="J110" s="124" t="s">
+      <c r="H110" s="135"/>
+      <c r="I110" s="137"/>
+      <c r="J110" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K110" s="125"/>
-      <c r="L110" s="125"/>
-      <c r="M110" s="125"/>
-      <c r="N110" s="126"/>
+      <c r="K110" s="135"/>
+      <c r="L110" s="135"/>
+      <c r="M110" s="135"/>
+      <c r="N110" s="136"/>
       <c r="O110" s="21"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -7691,15 +7691,15 @@
       <c r="B116" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C116" s="121" t="s">
+      <c r="C116" s="141" t="s">
         <v>127</v>
       </c>
-      <c r="D116" s="122"/>
-      <c r="E116" s="122"/>
-      <c r="F116" s="122"/>
-      <c r="G116" s="122"/>
-      <c r="H116" s="122"/>
-      <c r="I116" s="123"/>
+      <c r="D116" s="142"/>
+      <c r="E116" s="142"/>
+      <c r="F116" s="142"/>
+      <c r="G116" s="142"/>
+      <c r="H116" s="142"/>
+      <c r="I116" s="143"/>
       <c r="J116" s="11" t="s">
         <v>10</v>
       </c>
@@ -7718,25 +7718,25 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="18"/>
-      <c r="B117" s="133" t="s">
+      <c r="B117" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="134"/>
-      <c r="D117" s="134"/>
-      <c r="E117" s="134"/>
-      <c r="F117" s="135"/>
-      <c r="G117" s="124" t="s">
+      <c r="C117" s="139"/>
+      <c r="D117" s="139"/>
+      <c r="E117" s="139"/>
+      <c r="F117" s="140"/>
+      <c r="G117" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H117" s="125"/>
-      <c r="I117" s="136"/>
-      <c r="J117" s="124" t="s">
+      <c r="H117" s="135"/>
+      <c r="I117" s="137"/>
+      <c r="J117" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K117" s="125"/>
-      <c r="L117" s="125"/>
-      <c r="M117" s="125"/>
-      <c r="N117" s="126"/>
+      <c r="K117" s="135"/>
+      <c r="L117" s="135"/>
+      <c r="M117" s="135"/>
+      <c r="N117" s="136"/>
       <c r="O117" s="21"/>
       <c r="P117" s="23"/>
       <c r="Q117" s="23"/>
@@ -7893,15 +7893,15 @@
       <c r="B124" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C124" s="121" t="s">
+      <c r="C124" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="D124" s="122"/>
-      <c r="E124" s="122"/>
-      <c r="F124" s="122"/>
-      <c r="G124" s="122"/>
-      <c r="H124" s="122"/>
-      <c r="I124" s="123"/>
+      <c r="D124" s="142"/>
+      <c r="E124" s="142"/>
+      <c r="F124" s="142"/>
+      <c r="G124" s="142"/>
+      <c r="H124" s="142"/>
+      <c r="I124" s="143"/>
       <c r="J124" s="11" t="s">
         <v>10</v>
       </c>
@@ -7920,25 +7920,25 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="18"/>
-      <c r="B125" s="133" t="s">
+      <c r="B125" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="134"/>
-      <c r="D125" s="134"/>
-      <c r="E125" s="134"/>
-      <c r="F125" s="135"/>
-      <c r="G125" s="124" t="s">
+      <c r="C125" s="139"/>
+      <c r="D125" s="139"/>
+      <c r="E125" s="139"/>
+      <c r="F125" s="140"/>
+      <c r="G125" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H125" s="125"/>
-      <c r="I125" s="136"/>
-      <c r="J125" s="124" t="s">
+      <c r="H125" s="135"/>
+      <c r="I125" s="137"/>
+      <c r="J125" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K125" s="125"/>
-      <c r="L125" s="125"/>
-      <c r="M125" s="125"/>
-      <c r="N125" s="126"/>
+      <c r="K125" s="135"/>
+      <c r="L125" s="135"/>
+      <c r="M125" s="135"/>
+      <c r="N125" s="136"/>
       <c r="O125" s="21"/>
       <c r="P125" s="23"/>
       <c r="Q125" s="23"/>
@@ -8122,25 +8122,25 @@
     </row>
     <row r="133" spans="1:18">
       <c r="A133" s="18"/>
-      <c r="B133" s="133" t="s">
+      <c r="B133" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C133" s="134"/>
-      <c r="D133" s="134"/>
-      <c r="E133" s="134"/>
-      <c r="F133" s="135"/>
-      <c r="G133" s="124" t="s">
+      <c r="C133" s="139"/>
+      <c r="D133" s="139"/>
+      <c r="E133" s="139"/>
+      <c r="F133" s="140"/>
+      <c r="G133" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H133" s="125"/>
-      <c r="I133" s="136"/>
-      <c r="J133" s="124" t="s">
+      <c r="H133" s="135"/>
+      <c r="I133" s="137"/>
+      <c r="J133" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K133" s="125"/>
-      <c r="L133" s="125"/>
-      <c r="M133" s="125"/>
-      <c r="N133" s="126"/>
+      <c r="K133" s="135"/>
+      <c r="L133" s="135"/>
+      <c r="M133" s="135"/>
+      <c r="N133" s="136"/>
       <c r="O133" s="21"/>
       <c r="P133" s="23"/>
       <c r="Q133" s="23"/>
@@ -8162,13 +8162,13 @@
       </c>
       <c r="H134" s="4"/>
       <c r="I134" s="5"/>
-      <c r="J134" s="137" t="s">
+      <c r="J134" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="K134" s="138"/>
-      <c r="L134" s="138"/>
-      <c r="M134" s="138"/>
-      <c r="N134" s="139"/>
+      <c r="K134" s="145"/>
+      <c r="L134" s="145"/>
+      <c r="M134" s="145"/>
+      <c r="N134" s="146"/>
       <c r="O134" s="21"/>
       <c r="P134" s="23"/>
       <c r="Q134" s="23"/>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="2"/>
-      <c r="J135" s="140"/>
+      <c r="J135" s="147"/>
       <c r="K135" s="128"/>
       <c r="L135" s="128"/>
       <c r="M135" s="128"/>
@@ -8214,7 +8214,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="2"/>
-      <c r="J136" s="140"/>
+      <c r="J136" s="147"/>
       <c r="K136" s="128"/>
       <c r="L136" s="128"/>
       <c r="M136" s="128"/>
@@ -8238,7 +8238,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="2"/>
-      <c r="J137" s="140"/>
+      <c r="J137" s="147"/>
       <c r="K137" s="128"/>
       <c r="L137" s="128"/>
       <c r="M137" s="128"/>
@@ -8262,7 +8262,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="2"/>
-      <c r="J138" s="140"/>
+      <c r="J138" s="147"/>
       <c r="K138" s="128"/>
       <c r="L138" s="128"/>
       <c r="M138" s="128"/>
@@ -8286,7 +8286,7 @@
       <c r="G139" s="61"/>
       <c r="H139" s="6"/>
       <c r="I139" s="14"/>
-      <c r="J139" s="141"/>
+      <c r="J139" s="148"/>
       <c r="K139" s="131"/>
       <c r="L139" s="131"/>
       <c r="M139" s="131"/>
@@ -8321,15 +8321,15 @@
       <c r="B141" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C141" s="121" t="s">
+      <c r="C141" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="D141" s="122"/>
-      <c r="E141" s="122"/>
-      <c r="F141" s="122"/>
-      <c r="G141" s="122"/>
-      <c r="H141" s="122"/>
-      <c r="I141" s="123"/>
+      <c r="D141" s="142"/>
+      <c r="E141" s="142"/>
+      <c r="F141" s="142"/>
+      <c r="G141" s="142"/>
+      <c r="H141" s="142"/>
+      <c r="I141" s="143"/>
       <c r="J141" s="11" t="s">
         <v>10</v>
       </c>
@@ -8348,25 +8348,25 @@
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="18"/>
-      <c r="B142" s="133" t="s">
+      <c r="B142" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C142" s="134"/>
-      <c r="D142" s="134"/>
-      <c r="E142" s="134"/>
-      <c r="F142" s="135"/>
-      <c r="G142" s="124" t="s">
+      <c r="C142" s="139"/>
+      <c r="D142" s="139"/>
+      <c r="E142" s="139"/>
+      <c r="F142" s="140"/>
+      <c r="G142" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H142" s="125"/>
-      <c r="I142" s="136"/>
-      <c r="J142" s="124" t="s">
+      <c r="H142" s="135"/>
+      <c r="I142" s="137"/>
+      <c r="J142" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K142" s="125"/>
-      <c r="L142" s="125"/>
-      <c r="M142" s="125"/>
-      <c r="N142" s="126"/>
+      <c r="K142" s="135"/>
+      <c r="L142" s="135"/>
+      <c r="M142" s="135"/>
+      <c r="N142" s="136"/>
       <c r="O142" s="21"/>
       <c r="P142" s="23"/>
       <c r="Q142" s="23"/>
@@ -8388,13 +8388,13 @@
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="5"/>
-      <c r="J143" s="137" t="s">
+      <c r="J143" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="K143" s="138"/>
-      <c r="L143" s="138"/>
-      <c r="M143" s="138"/>
-      <c r="N143" s="139"/>
+      <c r="K143" s="145"/>
+      <c r="L143" s="145"/>
+      <c r="M143" s="145"/>
+      <c r="N143" s="146"/>
       <c r="O143" s="21"/>
       <c r="P143" s="23"/>
       <c r="Q143" s="23"/>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="2"/>
-      <c r="J144" s="140"/>
+      <c r="J144" s="147"/>
       <c r="K144" s="128"/>
       <c r="L144" s="128"/>
       <c r="M144" s="128"/>
@@ -8440,7 +8440,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="2"/>
-      <c r="J145" s="140"/>
+      <c r="J145" s="147"/>
       <c r="K145" s="128"/>
       <c r="L145" s="128"/>
       <c r="M145" s="128"/>
@@ -8464,7 +8464,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="2"/>
-      <c r="J146" s="140"/>
+      <c r="J146" s="147"/>
       <c r="K146" s="128"/>
       <c r="L146" s="128"/>
       <c r="M146" s="128"/>
@@ -8488,7 +8488,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="2"/>
-      <c r="J147" s="140"/>
+      <c r="J147" s="147"/>
       <c r="K147" s="128"/>
       <c r="L147" s="128"/>
       <c r="M147" s="128"/>
@@ -8512,7 +8512,7 @@
       <c r="G148" s="61"/>
       <c r="H148" s="6"/>
       <c r="I148" s="14"/>
-      <c r="J148" s="141"/>
+      <c r="J148" s="148"/>
       <c r="K148" s="131"/>
       <c r="L148" s="131"/>
       <c r="M148" s="131"/>
@@ -8547,15 +8547,15 @@
       <c r="B150" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C150" s="121" t="s">
+      <c r="C150" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="D150" s="122"/>
-      <c r="E150" s="122"/>
-      <c r="F150" s="122"/>
-      <c r="G150" s="122"/>
-      <c r="H150" s="122"/>
-      <c r="I150" s="123"/>
+      <c r="D150" s="142"/>
+      <c r="E150" s="142"/>
+      <c r="F150" s="142"/>
+      <c r="G150" s="142"/>
+      <c r="H150" s="142"/>
+      <c r="I150" s="143"/>
       <c r="J150" s="11" t="s">
         <v>10</v>
       </c>
@@ -8574,25 +8574,25 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="18"/>
-      <c r="B151" s="133" t="s">
+      <c r="B151" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C151" s="134"/>
-      <c r="D151" s="134"/>
-      <c r="E151" s="134"/>
-      <c r="F151" s="135"/>
-      <c r="G151" s="124" t="s">
+      <c r="C151" s="139"/>
+      <c r="D151" s="139"/>
+      <c r="E151" s="139"/>
+      <c r="F151" s="140"/>
+      <c r="G151" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H151" s="125"/>
-      <c r="I151" s="136"/>
-      <c r="J151" s="124" t="s">
+      <c r="H151" s="135"/>
+      <c r="I151" s="137"/>
+      <c r="J151" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K151" s="125"/>
-      <c r="L151" s="125"/>
-      <c r="M151" s="125"/>
-      <c r="N151" s="126"/>
+      <c r="K151" s="135"/>
+      <c r="L151" s="135"/>
+      <c r="M151" s="135"/>
+      <c r="N151" s="136"/>
       <c r="O151" s="21"/>
       <c r="P151" s="23"/>
       <c r="Q151" s="23"/>
@@ -8614,13 +8614,13 @@
       </c>
       <c r="H152" s="4"/>
       <c r="I152" s="5"/>
-      <c r="J152" s="137" t="s">
+      <c r="J152" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="K152" s="138"/>
-      <c r="L152" s="138"/>
-      <c r="M152" s="138"/>
-      <c r="N152" s="139"/>
+      <c r="K152" s="145"/>
+      <c r="L152" s="145"/>
+      <c r="M152" s="145"/>
+      <c r="N152" s="146"/>
       <c r="O152" s="21"/>
       <c r="P152" s="23"/>
       <c r="Q152" s="23"/>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="2"/>
-      <c r="J153" s="140"/>
+      <c r="J153" s="147"/>
       <c r="K153" s="128"/>
       <c r="L153" s="128"/>
       <c r="M153" s="128"/>
@@ -8664,7 +8664,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="2"/>
-      <c r="J154" s="140"/>
+      <c r="J154" s="147"/>
       <c r="K154" s="128"/>
       <c r="L154" s="128"/>
       <c r="M154" s="128"/>
@@ -8687,7 +8687,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="2"/>
-      <c r="J155" s="140"/>
+      <c r="J155" s="147"/>
       <c r="K155" s="128"/>
       <c r="L155" s="128"/>
       <c r="M155" s="128"/>
@@ -8710,7 +8710,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="2"/>
-      <c r="J156" s="140"/>
+      <c r="J156" s="147"/>
       <c r="K156" s="128"/>
       <c r="L156" s="128"/>
       <c r="M156" s="128"/>
@@ -8733,7 +8733,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="2"/>
-      <c r="J157" s="140"/>
+      <c r="J157" s="147"/>
       <c r="K157" s="128"/>
       <c r="L157" s="128"/>
       <c r="M157" s="128"/>
@@ -8756,7 +8756,7 @@
       <c r="G158" s="61"/>
       <c r="H158" s="6"/>
       <c r="I158" s="14"/>
-      <c r="J158" s="141"/>
+      <c r="J158" s="148"/>
       <c r="K158" s="131"/>
       <c r="L158" s="131"/>
       <c r="M158" s="131"/>
@@ -8790,15 +8790,15 @@
       <c r="B160" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C160" s="121" t="s">
+      <c r="C160" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="D160" s="122"/>
-      <c r="E160" s="122"/>
-      <c r="F160" s="122"/>
-      <c r="G160" s="122"/>
-      <c r="H160" s="122"/>
-      <c r="I160" s="123"/>
+      <c r="D160" s="142"/>
+      <c r="E160" s="142"/>
+      <c r="F160" s="142"/>
+      <c r="G160" s="142"/>
+      <c r="H160" s="142"/>
+      <c r="I160" s="143"/>
       <c r="J160" s="11" t="s">
         <v>10</v>
       </c>
@@ -8817,25 +8817,25 @@
     </row>
     <row r="161" spans="1:18">
       <c r="A161" s="18"/>
-      <c r="B161" s="133" t="s">
+      <c r="B161" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="134"/>
-      <c r="D161" s="134"/>
-      <c r="E161" s="134"/>
-      <c r="F161" s="135"/>
-      <c r="G161" s="124" t="s">
+      <c r="C161" s="139"/>
+      <c r="D161" s="139"/>
+      <c r="E161" s="139"/>
+      <c r="F161" s="140"/>
+      <c r="G161" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H161" s="125"/>
-      <c r="I161" s="136"/>
-      <c r="J161" s="124" t="s">
+      <c r="H161" s="135"/>
+      <c r="I161" s="137"/>
+      <c r="J161" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K161" s="125"/>
-      <c r="L161" s="125"/>
-      <c r="M161" s="125"/>
-      <c r="N161" s="126"/>
+      <c r="K161" s="135"/>
+      <c r="L161" s="135"/>
+      <c r="M161" s="135"/>
+      <c r="N161" s="136"/>
       <c r="O161" s="21"/>
       <c r="P161" s="23"/>
       <c r="Q161" s="23"/>
@@ -8857,13 +8857,13 @@
       </c>
       <c r="H162" s="4"/>
       <c r="I162" s="5"/>
-      <c r="J162" s="137" t="s">
+      <c r="J162" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="K162" s="138"/>
-      <c r="L162" s="138"/>
-      <c r="M162" s="138"/>
-      <c r="N162" s="139"/>
+      <c r="K162" s="145"/>
+      <c r="L162" s="145"/>
+      <c r="M162" s="145"/>
+      <c r="N162" s="146"/>
       <c r="O162" s="21"/>
       <c r="P162" s="23"/>
       <c r="Q162" s="23"/>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="2"/>
-      <c r="J163" s="140"/>
+      <c r="J163" s="147"/>
       <c r="K163" s="128"/>
       <c r="L163" s="128"/>
       <c r="M163" s="128"/>
@@ -8907,7 +8907,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="2"/>
-      <c r="J164" s="140"/>
+      <c r="J164" s="147"/>
       <c r="K164" s="128"/>
       <c r="L164" s="128"/>
       <c r="M164" s="128"/>
@@ -8930,7 +8930,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="2"/>
-      <c r="J165" s="140"/>
+      <c r="J165" s="147"/>
       <c r="K165" s="128"/>
       <c r="L165" s="128"/>
       <c r="M165" s="128"/>
@@ -8953,7 +8953,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="2"/>
-      <c r="J166" s="140"/>
+      <c r="J166" s="147"/>
       <c r="K166" s="128"/>
       <c r="L166" s="128"/>
       <c r="M166" s="128"/>
@@ -8976,7 +8976,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="2"/>
-      <c r="J167" s="140"/>
+      <c r="J167" s="147"/>
       <c r="K167" s="128"/>
       <c r="L167" s="128"/>
       <c r="M167" s="128"/>
@@ -8999,7 +8999,7 @@
       <c r="G168" s="61"/>
       <c r="H168" s="6"/>
       <c r="I168" s="14"/>
-      <c r="J168" s="141"/>
+      <c r="J168" s="148"/>
       <c r="K168" s="131"/>
       <c r="L168" s="131"/>
       <c r="M168" s="131"/>
@@ -9033,15 +9033,15 @@
       <c r="B170" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C170" s="121" t="s">
+      <c r="C170" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="D170" s="122"/>
-      <c r="E170" s="122"/>
-      <c r="F170" s="122"/>
-      <c r="G170" s="122"/>
-      <c r="H170" s="122"/>
-      <c r="I170" s="123"/>
+      <c r="D170" s="142"/>
+      <c r="E170" s="142"/>
+      <c r="F170" s="142"/>
+      <c r="G170" s="142"/>
+      <c r="H170" s="142"/>
+      <c r="I170" s="143"/>
       <c r="J170" s="11" t="s">
         <v>10</v>
       </c>
@@ -9060,25 +9060,25 @@
     </row>
     <row r="171" spans="1:18">
       <c r="A171" s="18"/>
-      <c r="B171" s="133" t="s">
+      <c r="B171" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C171" s="134"/>
-      <c r="D171" s="134"/>
-      <c r="E171" s="134"/>
-      <c r="F171" s="135"/>
-      <c r="G171" s="124" t="s">
+      <c r="C171" s="139"/>
+      <c r="D171" s="139"/>
+      <c r="E171" s="139"/>
+      <c r="F171" s="140"/>
+      <c r="G171" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H171" s="125"/>
-      <c r="I171" s="136"/>
-      <c r="J171" s="124" t="s">
+      <c r="H171" s="135"/>
+      <c r="I171" s="137"/>
+      <c r="J171" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K171" s="125"/>
-      <c r="L171" s="125"/>
-      <c r="M171" s="125"/>
-      <c r="N171" s="126"/>
+      <c r="K171" s="135"/>
+      <c r="L171" s="135"/>
+      <c r="M171" s="135"/>
+      <c r="N171" s="136"/>
       <c r="O171" s="21"/>
       <c r="P171" s="23"/>
       <c r="Q171" s="23"/>
@@ -9100,13 +9100,13 @@
       </c>
       <c r="H172" s="4"/>
       <c r="I172" s="5"/>
-      <c r="J172" s="137" t="s">
+      <c r="J172" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="K172" s="138"/>
-      <c r="L172" s="138"/>
-      <c r="M172" s="138"/>
-      <c r="N172" s="139"/>
+      <c r="K172" s="145"/>
+      <c r="L172" s="145"/>
+      <c r="M172" s="145"/>
+      <c r="N172" s="146"/>
       <c r="O172" s="21"/>
       <c r="P172" s="23"/>
       <c r="Q172" s="23"/>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="2"/>
-      <c r="J173" s="140"/>
+      <c r="J173" s="147"/>
       <c r="K173" s="128"/>
       <c r="L173" s="128"/>
       <c r="M173" s="128"/>
@@ -9150,7 +9150,7 @@
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
       <c r="I174" s="14"/>
-      <c r="J174" s="141"/>
+      <c r="J174" s="148"/>
       <c r="K174" s="131"/>
       <c r="L174" s="131"/>
       <c r="M174" s="131"/>
@@ -9185,15 +9185,15 @@
       <c r="B176" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C176" s="121" t="s">
+      <c r="C176" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="D176" s="122"/>
-      <c r="E176" s="122"/>
-      <c r="F176" s="122"/>
-      <c r="G176" s="122"/>
-      <c r="H176" s="122"/>
-      <c r="I176" s="123"/>
+      <c r="D176" s="142"/>
+      <c r="E176" s="142"/>
+      <c r="F176" s="142"/>
+      <c r="G176" s="142"/>
+      <c r="H176" s="142"/>
+      <c r="I176" s="143"/>
       <c r="J176" s="11" t="s">
         <v>10</v>
       </c>
@@ -9212,25 +9212,25 @@
     </row>
     <row r="177" spans="1:18">
       <c r="A177" s="23"/>
-      <c r="B177" s="133" t="s">
+      <c r="B177" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="134"/>
-      <c r="D177" s="134"/>
-      <c r="E177" s="134"/>
-      <c r="F177" s="135"/>
-      <c r="G177" s="124" t="s">
+      <c r="C177" s="139"/>
+      <c r="D177" s="139"/>
+      <c r="E177" s="139"/>
+      <c r="F177" s="140"/>
+      <c r="G177" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H177" s="125"/>
-      <c r="I177" s="136"/>
-      <c r="J177" s="124" t="s">
+      <c r="H177" s="135"/>
+      <c r="I177" s="137"/>
+      <c r="J177" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K177" s="125"/>
-      <c r="L177" s="125"/>
-      <c r="M177" s="125"/>
-      <c r="N177" s="126"/>
+      <c r="K177" s="135"/>
+      <c r="L177" s="135"/>
+      <c r="M177" s="135"/>
+      <c r="N177" s="136"/>
       <c r="O177" s="20"/>
       <c r="P177" s="23"/>
       <c r="Q177" s="23"/>
@@ -9252,13 +9252,13 @@
       </c>
       <c r="H178" s="4"/>
       <c r="I178" s="5"/>
-      <c r="J178" s="137" t="s">
+      <c r="J178" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="K178" s="138"/>
-      <c r="L178" s="138"/>
-      <c r="M178" s="138"/>
-      <c r="N178" s="139"/>
+      <c r="K178" s="145"/>
+      <c r="L178" s="145"/>
+      <c r="M178" s="145"/>
+      <c r="N178" s="146"/>
       <c r="O178" s="20"/>
       <c r="P178" s="23"/>
       <c r="Q178" s="23"/>
@@ -9280,7 +9280,7 @@
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="2"/>
-      <c r="J179" s="140"/>
+      <c r="J179" s="147"/>
       <c r="K179" s="128"/>
       <c r="L179" s="128"/>
       <c r="M179" s="128"/>
@@ -9304,7 +9304,7 @@
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
       <c r="I180" s="14"/>
-      <c r="J180" s="141"/>
+      <c r="J180" s="148"/>
       <c r="K180" s="131"/>
       <c r="L180" s="131"/>
       <c r="M180" s="131"/>
@@ -9339,15 +9339,15 @@
       <c r="B182" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C182" s="121" t="s">
+      <c r="C182" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="D182" s="122"/>
-      <c r="E182" s="122"/>
-      <c r="F182" s="122"/>
-      <c r="G182" s="122"/>
-      <c r="H182" s="122"/>
-      <c r="I182" s="123"/>
+      <c r="D182" s="142"/>
+      <c r="E182" s="142"/>
+      <c r="F182" s="142"/>
+      <c r="G182" s="142"/>
+      <c r="H182" s="142"/>
+      <c r="I182" s="143"/>
       <c r="J182" s="11" t="s">
         <v>10</v>
       </c>
@@ -9366,25 +9366,25 @@
     </row>
     <row r="183" spans="1:18">
       <c r="A183" s="18"/>
-      <c r="B183" s="133" t="s">
+      <c r="B183" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C183" s="134"/>
-      <c r="D183" s="134"/>
-      <c r="E183" s="134"/>
-      <c r="F183" s="135"/>
-      <c r="G183" s="124" t="s">
+      <c r="C183" s="139"/>
+      <c r="D183" s="139"/>
+      <c r="E183" s="139"/>
+      <c r="F183" s="140"/>
+      <c r="G183" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H183" s="125"/>
-      <c r="I183" s="136"/>
-      <c r="J183" s="124" t="s">
+      <c r="H183" s="135"/>
+      <c r="I183" s="137"/>
+      <c r="J183" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K183" s="125"/>
-      <c r="L183" s="125"/>
-      <c r="M183" s="125"/>
-      <c r="N183" s="126"/>
+      <c r="K183" s="135"/>
+      <c r="L183" s="135"/>
+      <c r="M183" s="135"/>
+      <c r="N183" s="136"/>
       <c r="O183" s="21"/>
       <c r="P183" s="23"/>
       <c r="Q183" s="23"/>
@@ -9406,13 +9406,13 @@
       </c>
       <c r="H184" s="4"/>
       <c r="I184" s="5"/>
-      <c r="J184" s="137" t="s">
+      <c r="J184" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="K184" s="138"/>
-      <c r="L184" s="138"/>
-      <c r="M184" s="138"/>
-      <c r="N184" s="139"/>
+      <c r="K184" s="145"/>
+      <c r="L184" s="145"/>
+      <c r="M184" s="145"/>
+      <c r="N184" s="146"/>
       <c r="O184" s="21"/>
       <c r="P184" s="23"/>
       <c r="Q184" s="23"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="2"/>
-      <c r="J185" s="140"/>
+      <c r="J185" s="147"/>
       <c r="K185" s="128"/>
       <c r="L185" s="128"/>
       <c r="M185" s="128"/>
@@ -9458,7 +9458,7 @@
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
       <c r="I186" s="14"/>
-      <c r="J186" s="141"/>
+      <c r="J186" s="148"/>
       <c r="K186" s="131"/>
       <c r="L186" s="131"/>
       <c r="M186" s="131"/>
@@ -9493,15 +9493,15 @@
       <c r="B188" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C188" s="121" t="s">
+      <c r="C188" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="D188" s="122"/>
-      <c r="E188" s="122"/>
-      <c r="F188" s="122"/>
-      <c r="G188" s="122"/>
-      <c r="H188" s="122"/>
-      <c r="I188" s="123"/>
+      <c r="D188" s="142"/>
+      <c r="E188" s="142"/>
+      <c r="F188" s="142"/>
+      <c r="G188" s="142"/>
+      <c r="H188" s="142"/>
+      <c r="I188" s="143"/>
       <c r="J188" s="11" t="s">
         <v>10</v>
       </c>
@@ -9520,25 +9520,25 @@
     </row>
     <row r="189" spans="1:18">
       <c r="A189" s="68"/>
-      <c r="B189" s="133" t="s">
+      <c r="B189" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C189" s="134"/>
-      <c r="D189" s="134"/>
-      <c r="E189" s="134"/>
-      <c r="F189" s="135"/>
-      <c r="G189" s="124" t="s">
+      <c r="C189" s="139"/>
+      <c r="D189" s="139"/>
+      <c r="E189" s="139"/>
+      <c r="F189" s="140"/>
+      <c r="G189" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H189" s="125"/>
-      <c r="I189" s="136"/>
-      <c r="J189" s="124" t="s">
+      <c r="H189" s="135"/>
+      <c r="I189" s="137"/>
+      <c r="J189" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K189" s="125"/>
-      <c r="L189" s="125"/>
-      <c r="M189" s="125"/>
-      <c r="N189" s="126"/>
+      <c r="K189" s="135"/>
+      <c r="L189" s="135"/>
+      <c r="M189" s="135"/>
+      <c r="N189" s="136"/>
       <c r="O189" s="21"/>
       <c r="P189" s="23"/>
       <c r="Q189" s="23"/>
@@ -9560,13 +9560,13 @@
       </c>
       <c r="H190" s="4"/>
       <c r="I190" s="5"/>
-      <c r="J190" s="137" t="s">
+      <c r="J190" s="144" t="s">
         <v>222</v>
       </c>
-      <c r="K190" s="138"/>
-      <c r="L190" s="138"/>
-      <c r="M190" s="138"/>
-      <c r="N190" s="139"/>
+      <c r="K190" s="145"/>
+      <c r="L190" s="145"/>
+      <c r="M190" s="145"/>
+      <c r="N190" s="146"/>
       <c r="O190" s="21"/>
       <c r="P190" s="23"/>
       <c r="Q190" s="23"/>
@@ -9588,7 +9588,7 @@
       </c>
       <c r="H191" s="1"/>
       <c r="I191" s="2"/>
-      <c r="J191" s="140"/>
+      <c r="J191" s="147"/>
       <c r="K191" s="128"/>
       <c r="L191" s="128"/>
       <c r="M191" s="128"/>
@@ -9612,7 +9612,7 @@
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
       <c r="I192" s="14"/>
-      <c r="J192" s="141"/>
+      <c r="J192" s="148"/>
       <c r="K192" s="131"/>
       <c r="L192" s="131"/>
       <c r="M192" s="131"/>
@@ -9647,15 +9647,15 @@
       <c r="B194" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C194" s="121" t="s">
+      <c r="C194" s="141" t="s">
         <v>165</v>
       </c>
-      <c r="D194" s="122"/>
-      <c r="E194" s="122"/>
-      <c r="F194" s="122"/>
-      <c r="G194" s="122"/>
-      <c r="H194" s="122"/>
-      <c r="I194" s="123"/>
+      <c r="D194" s="142"/>
+      <c r="E194" s="142"/>
+      <c r="F194" s="142"/>
+      <c r="G194" s="142"/>
+      <c r="H194" s="142"/>
+      <c r="I194" s="143"/>
       <c r="J194" s="11" t="s">
         <v>10</v>
       </c>
@@ -9674,25 +9674,25 @@
     </row>
     <row r="195" spans="1:18">
       <c r="A195" s="18"/>
-      <c r="B195" s="133" t="s">
+      <c r="B195" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C195" s="134"/>
-      <c r="D195" s="134"/>
-      <c r="E195" s="134"/>
-      <c r="F195" s="135"/>
-      <c r="G195" s="124" t="s">
+      <c r="C195" s="139"/>
+      <c r="D195" s="139"/>
+      <c r="E195" s="139"/>
+      <c r="F195" s="140"/>
+      <c r="G195" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H195" s="125"/>
-      <c r="I195" s="136"/>
-      <c r="J195" s="124" t="s">
+      <c r="H195" s="135"/>
+      <c r="I195" s="137"/>
+      <c r="J195" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K195" s="125"/>
-      <c r="L195" s="125"/>
-      <c r="M195" s="125"/>
-      <c r="N195" s="126"/>
+      <c r="K195" s="135"/>
+      <c r="L195" s="135"/>
+      <c r="M195" s="135"/>
+      <c r="N195" s="136"/>
       <c r="O195" s="21"/>
       <c r="P195" s="23"/>
       <c r="Q195" s="23"/>
@@ -9714,13 +9714,13 @@
       </c>
       <c r="H196" s="4"/>
       <c r="I196" s="5"/>
-      <c r="J196" s="137" t="s">
+      <c r="J196" s="144" t="s">
         <v>166</v>
       </c>
-      <c r="K196" s="138"/>
-      <c r="L196" s="138"/>
-      <c r="M196" s="138"/>
-      <c r="N196" s="139"/>
+      <c r="K196" s="145"/>
+      <c r="L196" s="145"/>
+      <c r="M196" s="145"/>
+      <c r="N196" s="146"/>
       <c r="O196" s="21"/>
       <c r="P196" s="23"/>
       <c r="Q196" s="23"/>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="H197" s="1"/>
       <c r="I197" s="2"/>
-      <c r="J197" s="140"/>
+      <c r="J197" s="147"/>
       <c r="K197" s="128"/>
       <c r="L197" s="128"/>
       <c r="M197" s="128"/>
@@ -9762,7 +9762,7 @@
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
       <c r="I198" s="14"/>
-      <c r="J198" s="141"/>
+      <c r="J198" s="148"/>
       <c r="K198" s="131"/>
       <c r="L198" s="131"/>
       <c r="M198" s="131"/>
@@ -9797,15 +9797,15 @@
       <c r="B200" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C200" s="121" t="s">
+      <c r="C200" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="D200" s="122"/>
-      <c r="E200" s="122"/>
-      <c r="F200" s="122"/>
-      <c r="G200" s="122"/>
-      <c r="H200" s="122"/>
-      <c r="I200" s="123"/>
+      <c r="D200" s="142"/>
+      <c r="E200" s="142"/>
+      <c r="F200" s="142"/>
+      <c r="G200" s="142"/>
+      <c r="H200" s="142"/>
+      <c r="I200" s="143"/>
       <c r="J200" s="11" t="s">
         <v>10</v>
       </c>
@@ -9824,25 +9824,25 @@
     </row>
     <row r="201" spans="1:18">
       <c r="A201" s="18"/>
-      <c r="B201" s="133" t="s">
+      <c r="B201" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="134"/>
-      <c r="D201" s="134"/>
-      <c r="E201" s="134"/>
-      <c r="F201" s="135"/>
-      <c r="G201" s="124" t="s">
+      <c r="C201" s="139"/>
+      <c r="D201" s="139"/>
+      <c r="E201" s="139"/>
+      <c r="F201" s="140"/>
+      <c r="G201" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H201" s="125"/>
-      <c r="I201" s="136"/>
-      <c r="J201" s="124" t="s">
+      <c r="H201" s="135"/>
+      <c r="I201" s="137"/>
+      <c r="J201" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K201" s="125"/>
-      <c r="L201" s="125"/>
-      <c r="M201" s="125"/>
-      <c r="N201" s="126"/>
+      <c r="K201" s="135"/>
+      <c r="L201" s="135"/>
+      <c r="M201" s="135"/>
+      <c r="N201" s="136"/>
       <c r="O201" s="21"/>
       <c r="P201" s="23"/>
       <c r="Q201" s="23"/>
@@ -9864,13 +9864,13 @@
       </c>
       <c r="H202" s="4"/>
       <c r="I202" s="5"/>
-      <c r="J202" s="137" t="s">
+      <c r="J202" s="144" t="s">
         <v>167</v>
       </c>
-      <c r="K202" s="138"/>
-      <c r="L202" s="138"/>
-      <c r="M202" s="138"/>
-      <c r="N202" s="139"/>
+      <c r="K202" s="145"/>
+      <c r="L202" s="145"/>
+      <c r="M202" s="145"/>
+      <c r="N202" s="146"/>
       <c r="O202" s="21"/>
       <c r="P202" s="23"/>
       <c r="Q202" s="23"/>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="H203" s="1"/>
       <c r="I203" s="2"/>
-      <c r="J203" s="140"/>
+      <c r="J203" s="147"/>
       <c r="K203" s="128"/>
       <c r="L203" s="128"/>
       <c r="M203" s="128"/>
@@ -9910,7 +9910,7 @@
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
       <c r="I204" s="14"/>
-      <c r="J204" s="141"/>
+      <c r="J204" s="148"/>
       <c r="K204" s="131"/>
       <c r="L204" s="131"/>
       <c r="M204" s="131"/>
@@ -9931,15 +9931,15 @@
       <c r="B206" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C206" s="121" t="s">
+      <c r="C206" s="141" t="s">
         <v>168</v>
       </c>
-      <c r="D206" s="122"/>
-      <c r="E206" s="122"/>
-      <c r="F206" s="122"/>
-      <c r="G206" s="122"/>
-      <c r="H206" s="122"/>
-      <c r="I206" s="123"/>
+      <c r="D206" s="142"/>
+      <c r="E206" s="142"/>
+      <c r="F206" s="142"/>
+      <c r="G206" s="142"/>
+      <c r="H206" s="142"/>
+      <c r="I206" s="143"/>
       <c r="J206" s="11" t="s">
         <v>10</v>
       </c>
@@ -9958,25 +9958,25 @@
     </row>
     <row r="207" spans="1:18">
       <c r="A207" s="68"/>
-      <c r="B207" s="133" t="s">
+      <c r="B207" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C207" s="134"/>
-      <c r="D207" s="134"/>
-      <c r="E207" s="134"/>
-      <c r="F207" s="135"/>
-      <c r="G207" s="124" t="s">
+      <c r="C207" s="139"/>
+      <c r="D207" s="139"/>
+      <c r="E207" s="139"/>
+      <c r="F207" s="140"/>
+      <c r="G207" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H207" s="125"/>
-      <c r="I207" s="136"/>
-      <c r="J207" s="124" t="s">
+      <c r="H207" s="135"/>
+      <c r="I207" s="137"/>
+      <c r="J207" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K207" s="125"/>
-      <c r="L207" s="125"/>
-      <c r="M207" s="125"/>
-      <c r="N207" s="126"/>
+      <c r="K207" s="135"/>
+      <c r="L207" s="135"/>
+      <c r="M207" s="135"/>
+      <c r="N207" s="136"/>
       <c r="O207" s="21"/>
       <c r="P207" s="18"/>
       <c r="Q207" s="18"/>
@@ -9998,13 +9998,13 @@
       </c>
       <c r="H208" s="4"/>
       <c r="I208" s="5"/>
-      <c r="J208" s="137" t="s">
+      <c r="J208" s="144" t="s">
         <v>223</v>
       </c>
-      <c r="K208" s="138"/>
-      <c r="L208" s="138"/>
-      <c r="M208" s="138"/>
-      <c r="N208" s="139"/>
+      <c r="K208" s="145"/>
+      <c r="L208" s="145"/>
+      <c r="M208" s="145"/>
+      <c r="N208" s="146"/>
       <c r="O208" s="21"/>
       <c r="P208" s="18"/>
       <c r="Q208" s="18"/>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="2"/>
-      <c r="J209" s="140"/>
+      <c r="J209" s="147"/>
       <c r="K209" s="128"/>
       <c r="L209" s="128"/>
       <c r="M209" s="128"/>
@@ -10046,7 +10046,7 @@
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
       <c r="I210" s="14"/>
-      <c r="J210" s="141"/>
+      <c r="J210" s="148"/>
       <c r="K210" s="131"/>
       <c r="L210" s="131"/>
       <c r="M210" s="131"/>
@@ -10067,15 +10067,15 @@
       <c r="B212" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C212" s="121" t="s">
+      <c r="C212" s="141" t="s">
         <v>169</v>
       </c>
-      <c r="D212" s="122"/>
-      <c r="E212" s="122"/>
-      <c r="F212" s="122"/>
-      <c r="G212" s="122"/>
-      <c r="H212" s="122"/>
-      <c r="I212" s="123"/>
+      <c r="D212" s="142"/>
+      <c r="E212" s="142"/>
+      <c r="F212" s="142"/>
+      <c r="G212" s="142"/>
+      <c r="H212" s="142"/>
+      <c r="I212" s="143"/>
       <c r="J212" s="11" t="s">
         <v>10</v>
       </c>
@@ -10094,25 +10094,25 @@
     </row>
     <row r="213" spans="1:18">
       <c r="A213" s="68"/>
-      <c r="B213" s="133" t="s">
+      <c r="B213" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C213" s="134"/>
-      <c r="D213" s="134"/>
-      <c r="E213" s="134"/>
-      <c r="F213" s="135"/>
-      <c r="G213" s="124" t="s">
+      <c r="C213" s="139"/>
+      <c r="D213" s="139"/>
+      <c r="E213" s="139"/>
+      <c r="F213" s="140"/>
+      <c r="G213" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H213" s="125"/>
-      <c r="I213" s="136"/>
-      <c r="J213" s="124" t="s">
+      <c r="H213" s="135"/>
+      <c r="I213" s="137"/>
+      <c r="J213" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K213" s="125"/>
-      <c r="L213" s="125"/>
-      <c r="M213" s="125"/>
-      <c r="N213" s="126"/>
+      <c r="K213" s="135"/>
+      <c r="L213" s="135"/>
+      <c r="M213" s="135"/>
+      <c r="N213" s="136"/>
       <c r="O213" s="20"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
@@ -10134,13 +10134,13 @@
       </c>
       <c r="H214" s="4"/>
       <c r="I214" s="5"/>
-      <c r="J214" s="138" t="s">
+      <c r="J214" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="K214" s="138"/>
-      <c r="L214" s="138"/>
-      <c r="M214" s="138"/>
-      <c r="N214" s="139"/>
+      <c r="K214" s="145"/>
+      <c r="L214" s="145"/>
+      <c r="M214" s="145"/>
+      <c r="N214" s="146"/>
       <c r="O214" s="20"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
@@ -10374,15 +10374,15 @@
       <c r="B225" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C225" s="121" t="s">
+      <c r="C225" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="D225" s="122"/>
-      <c r="E225" s="122"/>
-      <c r="F225" s="122"/>
-      <c r="G225" s="122"/>
-      <c r="H225" s="122"/>
-      <c r="I225" s="123"/>
+      <c r="D225" s="142"/>
+      <c r="E225" s="142"/>
+      <c r="F225" s="142"/>
+      <c r="G225" s="142"/>
+      <c r="H225" s="142"/>
+      <c r="I225" s="143"/>
       <c r="J225" s="11" t="s">
         <v>10</v>
       </c>
@@ -10400,25 +10400,25 @@
       <c r="R225" s="17"/>
     </row>
     <row r="226" spans="1:18">
-      <c r="B226" s="133" t="s">
+      <c r="B226" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C226" s="134"/>
-      <c r="D226" s="134"/>
-      <c r="E226" s="134"/>
-      <c r="F226" s="135"/>
-      <c r="G226" s="124" t="s">
+      <c r="C226" s="139"/>
+      <c r="D226" s="139"/>
+      <c r="E226" s="139"/>
+      <c r="F226" s="140"/>
+      <c r="G226" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H226" s="125"/>
-      <c r="I226" s="136"/>
-      <c r="J226" s="124" t="s">
+      <c r="H226" s="135"/>
+      <c r="I226" s="137"/>
+      <c r="J226" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K226" s="125"/>
-      <c r="L226" s="125"/>
-      <c r="M226" s="125"/>
-      <c r="N226" s="126"/>
+      <c r="K226" s="135"/>
+      <c r="L226" s="135"/>
+      <c r="M226" s="135"/>
+      <c r="N226" s="136"/>
       <c r="O226" s="20"/>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
@@ -10439,13 +10439,13 @@
       </c>
       <c r="H227" s="4"/>
       <c r="I227" s="5"/>
-      <c r="J227" s="138" t="s">
+      <c r="J227" s="145" t="s">
         <v>194</v>
       </c>
-      <c r="K227" s="138"/>
-      <c r="L227" s="138"/>
-      <c r="M227" s="138"/>
-      <c r="N227" s="139"/>
+      <c r="K227" s="145"/>
+      <c r="L227" s="145"/>
+      <c r="M227" s="145"/>
+      <c r="N227" s="146"/>
       <c r="O227" s="20"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
@@ -10696,15 +10696,15 @@
       <c r="B239" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C239" s="121" t="s">
+      <c r="C239" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="D239" s="122"/>
-      <c r="E239" s="122"/>
-      <c r="F239" s="122"/>
-      <c r="G239" s="122"/>
-      <c r="H239" s="122"/>
-      <c r="I239" s="123"/>
+      <c r="D239" s="142"/>
+      <c r="E239" s="142"/>
+      <c r="F239" s="142"/>
+      <c r="G239" s="142"/>
+      <c r="H239" s="142"/>
+      <c r="I239" s="143"/>
       <c r="J239" s="11" t="s">
         <v>10</v>
       </c>
@@ -10723,25 +10723,25 @@
     </row>
     <row r="240" spans="1:18">
       <c r="A240" s="23"/>
-      <c r="B240" s="133" t="s">
+      <c r="B240" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C240" s="134"/>
-      <c r="D240" s="134"/>
-      <c r="E240" s="134"/>
-      <c r="F240" s="135"/>
-      <c r="G240" s="124" t="s">
+      <c r="C240" s="139"/>
+      <c r="D240" s="139"/>
+      <c r="E240" s="139"/>
+      <c r="F240" s="140"/>
+      <c r="G240" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H240" s="125"/>
-      <c r="I240" s="136"/>
-      <c r="J240" s="124" t="s">
+      <c r="H240" s="135"/>
+      <c r="I240" s="137"/>
+      <c r="J240" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K240" s="125"/>
-      <c r="L240" s="125"/>
-      <c r="M240" s="125"/>
-      <c r="N240" s="126"/>
+      <c r="K240" s="135"/>
+      <c r="L240" s="135"/>
+      <c r="M240" s="135"/>
+      <c r="N240" s="136"/>
       <c r="O240" s="20"/>
       <c r="P240" s="23"/>
       <c r="Q240" s="23"/>
@@ -10763,13 +10763,13 @@
       </c>
       <c r="H241" s="4"/>
       <c r="I241" s="5"/>
-      <c r="J241" s="138" t="s">
+      <c r="J241" s="145" t="s">
         <v>183</v>
       </c>
-      <c r="K241" s="138"/>
-      <c r="L241" s="138"/>
-      <c r="M241" s="138"/>
-      <c r="N241" s="139"/>
+      <c r="K241" s="145"/>
+      <c r="L241" s="145"/>
+      <c r="M241" s="145"/>
+      <c r="N241" s="146"/>
       <c r="O241" s="20"/>
       <c r="P241" s="23"/>
       <c r="Q241" s="23"/>
@@ -11200,15 +11200,15 @@
       <c r="B262" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C262" s="121" t="s">
+      <c r="C262" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="D262" s="122"/>
-      <c r="E262" s="122"/>
-      <c r="F262" s="122"/>
-      <c r="G262" s="122"/>
-      <c r="H262" s="122"/>
-      <c r="I262" s="123"/>
+      <c r="D262" s="142"/>
+      <c r="E262" s="142"/>
+      <c r="F262" s="142"/>
+      <c r="G262" s="142"/>
+      <c r="H262" s="142"/>
+      <c r="I262" s="143"/>
       <c r="J262" s="11" t="s">
         <v>10</v>
       </c>
@@ -11226,25 +11226,25 @@
       <c r="R262" s="17"/>
     </row>
     <row r="263" spans="2:18">
-      <c r="B263" s="133" t="s">
+      <c r="B263" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C263" s="134"/>
-      <c r="D263" s="134"/>
-      <c r="E263" s="134"/>
-      <c r="F263" s="135"/>
-      <c r="G263" s="124" t="s">
+      <c r="C263" s="139"/>
+      <c r="D263" s="139"/>
+      <c r="E263" s="139"/>
+      <c r="F263" s="140"/>
+      <c r="G263" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H263" s="125"/>
-      <c r="I263" s="136"/>
-      <c r="J263" s="124" t="s">
+      <c r="H263" s="135"/>
+      <c r="I263" s="137"/>
+      <c r="J263" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K263" s="125"/>
-      <c r="L263" s="125"/>
-      <c r="M263" s="125"/>
-      <c r="N263" s="126"/>
+      <c r="K263" s="135"/>
+      <c r="L263" s="135"/>
+      <c r="M263" s="135"/>
+      <c r="N263" s="136"/>
       <c r="O263" s="19"/>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
@@ -11265,13 +11265,13 @@
       </c>
       <c r="H264" s="4"/>
       <c r="I264" s="5"/>
-      <c r="J264" s="142" t="s">
+      <c r="J264" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="K264" s="143"/>
-      <c r="L264" s="143"/>
-      <c r="M264" s="143"/>
-      <c r="N264" s="144"/>
+      <c r="K264" s="150"/>
+      <c r="L264" s="150"/>
+      <c r="M264" s="150"/>
+      <c r="N264" s="151"/>
       <c r="O264" s="19"/>
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
@@ -11290,11 +11290,11 @@
       <c r="G265" s="15"/>
       <c r="H265" s="1"/>
       <c r="I265" s="2"/>
-      <c r="J265" s="145"/>
-      <c r="K265" s="146"/>
-      <c r="L265" s="146"/>
-      <c r="M265" s="146"/>
-      <c r="N265" s="147"/>
+      <c r="J265" s="152"/>
+      <c r="K265" s="153"/>
+      <c r="L265" s="153"/>
+      <c r="M265" s="153"/>
+      <c r="N265" s="154"/>
       <c r="O265" s="19"/>
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
@@ -11315,11 +11315,11 @@
       </c>
       <c r="H266" s="6"/>
       <c r="I266" s="14"/>
-      <c r="J266" s="148"/>
-      <c r="K266" s="149"/>
-      <c r="L266" s="149"/>
-      <c r="M266" s="149"/>
-      <c r="N266" s="150"/>
+      <c r="J266" s="155"/>
+      <c r="K266" s="156"/>
+      <c r="L266" s="156"/>
+      <c r="M266" s="156"/>
+      <c r="N266" s="157"/>
       <c r="O266" s="19"/>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
@@ -11348,15 +11348,15 @@
       <c r="B268" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C268" s="121" t="s">
+      <c r="C268" s="141" t="s">
         <v>117</v>
       </c>
-      <c r="D268" s="122"/>
-      <c r="E268" s="122"/>
-      <c r="F268" s="122"/>
-      <c r="G268" s="122"/>
-      <c r="H268" s="122"/>
-      <c r="I268" s="123"/>
+      <c r="D268" s="142"/>
+      <c r="E268" s="142"/>
+      <c r="F268" s="142"/>
+      <c r="G268" s="142"/>
+      <c r="H268" s="142"/>
+      <c r="I268" s="143"/>
       <c r="J268" s="11" t="s">
         <v>10</v>
       </c>
@@ -11374,25 +11374,25 @@
       <c r="R268" s="17"/>
     </row>
     <row r="269" spans="2:18">
-      <c r="B269" s="133" t="s">
+      <c r="B269" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C269" s="134"/>
-      <c r="D269" s="134"/>
-      <c r="E269" s="134"/>
-      <c r="F269" s="135"/>
-      <c r="G269" s="124" t="s">
+      <c r="C269" s="139"/>
+      <c r="D269" s="139"/>
+      <c r="E269" s="139"/>
+      <c r="F269" s="140"/>
+      <c r="G269" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H269" s="125"/>
-      <c r="I269" s="136"/>
-      <c r="J269" s="124" t="s">
+      <c r="H269" s="135"/>
+      <c r="I269" s="137"/>
+      <c r="J269" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K269" s="125"/>
-      <c r="L269" s="125"/>
-      <c r="M269" s="125"/>
-      <c r="N269" s="126"/>
+      <c r="K269" s="135"/>
+      <c r="L269" s="135"/>
+      <c r="M269" s="135"/>
+      <c r="N269" s="136"/>
       <c r="O269" s="19"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
@@ -11413,13 +11413,13 @@
       </c>
       <c r="H270" s="4"/>
       <c r="I270" s="5"/>
-      <c r="J270" s="151" t="s">
+      <c r="J270" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="K270" s="152"/>
-      <c r="L270" s="152"/>
-      <c r="M270" s="152"/>
-      <c r="N270" s="153"/>
+      <c r="K270" s="119"/>
+      <c r="L270" s="119"/>
+      <c r="M270" s="119"/>
+      <c r="N270" s="120"/>
       <c r="O270" s="19"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
@@ -11438,11 +11438,11 @@
       <c r="G271" s="15"/>
       <c r="H271" s="1"/>
       <c r="I271" s="2"/>
-      <c r="J271" s="154"/>
-      <c r="K271" s="155"/>
-      <c r="L271" s="155"/>
-      <c r="M271" s="155"/>
-      <c r="N271" s="156"/>
+      <c r="J271" s="121"/>
+      <c r="K271" s="122"/>
+      <c r="L271" s="122"/>
+      <c r="M271" s="122"/>
+      <c r="N271" s="123"/>
       <c r="O271" s="19"/>
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
@@ -11461,11 +11461,11 @@
       <c r="G272" s="15"/>
       <c r="H272" s="1"/>
       <c r="I272" s="2"/>
-      <c r="J272" s="154"/>
-      <c r="K272" s="155"/>
-      <c r="L272" s="155"/>
-      <c r="M272" s="155"/>
-      <c r="N272" s="156"/>
+      <c r="J272" s="121"/>
+      <c r="K272" s="122"/>
+      <c r="L272" s="122"/>
+      <c r="M272" s="122"/>
+      <c r="N272" s="123"/>
       <c r="O272" s="19"/>
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
@@ -11486,11 +11486,11 @@
       </c>
       <c r="H273" s="6"/>
       <c r="I273" s="14"/>
-      <c r="J273" s="157"/>
-      <c r="K273" s="158"/>
-      <c r="L273" s="158"/>
-      <c r="M273" s="158"/>
-      <c r="N273" s="159"/>
+      <c r="J273" s="124"/>
+      <c r="K273" s="125"/>
+      <c r="L273" s="125"/>
+      <c r="M273" s="125"/>
+      <c r="N273" s="126"/>
       <c r="O273" s="19"/>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
@@ -11553,6 +11553,159 @@
     </row>
   </sheetData>
   <mergeCells count="177">
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="J28:N29"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J18:N19"/>
+    <mergeCell ref="J13:N14"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:N52"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J48:N49"/>
+    <mergeCell ref="J43:N44"/>
+    <mergeCell ref="J33:N34"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="J38:N39"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="J63:N64"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J58:N59"/>
+    <mergeCell ref="J68:N69"/>
+    <mergeCell ref="J90:N91"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="C103:I103"/>
+    <mergeCell ref="C88:I88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="J95:N96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="J100:N101"/>
+    <mergeCell ref="J105:N106"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="J177:N177"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="J142:N142"/>
+    <mergeCell ref="J134:N139"/>
+    <mergeCell ref="C109:I109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="J111:N114"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="J133:N133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="C124:I124"/>
+    <mergeCell ref="C176:I176"/>
+    <mergeCell ref="J172:N174"/>
+    <mergeCell ref="J126:N130"/>
+    <mergeCell ref="J125:N125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="J143:N148"/>
+    <mergeCell ref="C141:I141"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="J178:N180"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="G195:I195"/>
+    <mergeCell ref="J195:N195"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="G189:I189"/>
+    <mergeCell ref="J189:N189"/>
+    <mergeCell ref="J190:N192"/>
+    <mergeCell ref="C194:I194"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C188:I188"/>
+    <mergeCell ref="J196:N198"/>
+    <mergeCell ref="C150:I150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="J151:N151"/>
+    <mergeCell ref="J152:N158"/>
+    <mergeCell ref="C160:I160"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="J162:N168"/>
+    <mergeCell ref="C170:I170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="G171:I171"/>
+    <mergeCell ref="J171:N171"/>
+    <mergeCell ref="G161:I161"/>
+    <mergeCell ref="G183:I183"/>
+    <mergeCell ref="J183:N183"/>
+    <mergeCell ref="J184:N186"/>
+    <mergeCell ref="C268:I268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="G269:I269"/>
+    <mergeCell ref="J269:N269"/>
+    <mergeCell ref="J264:N266"/>
+    <mergeCell ref="J213:N213"/>
+    <mergeCell ref="J214:N216"/>
+    <mergeCell ref="J227:N228"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="G263:I263"/>
+    <mergeCell ref="J263:N263"/>
+    <mergeCell ref="C262:I262"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="C239:I239"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="G240:I240"/>
+    <mergeCell ref="J240:N240"/>
+    <mergeCell ref="J241:N242"/>
     <mergeCell ref="J270:N273"/>
     <mergeCell ref="J23:N24"/>
     <mergeCell ref="J53:N54"/>
@@ -11577,159 +11730,6 @@
     <mergeCell ref="C212:I212"/>
     <mergeCell ref="B213:F213"/>
     <mergeCell ref="G213:I213"/>
-    <mergeCell ref="C268:I268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="G269:I269"/>
-    <mergeCell ref="J269:N269"/>
-    <mergeCell ref="J264:N266"/>
-    <mergeCell ref="J213:N213"/>
-    <mergeCell ref="J214:N216"/>
-    <mergeCell ref="J227:N228"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="G263:I263"/>
-    <mergeCell ref="J263:N263"/>
-    <mergeCell ref="C262:I262"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="C239:I239"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="G240:I240"/>
-    <mergeCell ref="J240:N240"/>
-    <mergeCell ref="J241:N242"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="G189:I189"/>
-    <mergeCell ref="J189:N189"/>
-    <mergeCell ref="J190:N192"/>
-    <mergeCell ref="C194:I194"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C188:I188"/>
-    <mergeCell ref="J196:N198"/>
-    <mergeCell ref="C150:I150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="J151:N151"/>
-    <mergeCell ref="J152:N158"/>
-    <mergeCell ref="C160:I160"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="J162:N168"/>
-    <mergeCell ref="C170:I170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="G171:I171"/>
-    <mergeCell ref="J171:N171"/>
-    <mergeCell ref="G161:I161"/>
-    <mergeCell ref="G183:I183"/>
-    <mergeCell ref="J183:N183"/>
-    <mergeCell ref="J184:N186"/>
-    <mergeCell ref="J126:N130"/>
-    <mergeCell ref="J125:N125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="J143:N148"/>
-    <mergeCell ref="C141:I141"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="G207:I207"/>
-    <mergeCell ref="J105:N106"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="J177:N177"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="J142:N142"/>
-    <mergeCell ref="J134:N139"/>
-    <mergeCell ref="C109:I109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="J111:N114"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="J133:N133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="C124:I124"/>
-    <mergeCell ref="J178:N180"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="G195:I195"/>
-    <mergeCell ref="J195:N195"/>
-    <mergeCell ref="C176:I176"/>
-    <mergeCell ref="J172:N174"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="J104:N104"/>
-    <mergeCell ref="J95:N96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="J100:N101"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="J58:N59"/>
-    <mergeCell ref="J68:N69"/>
-    <mergeCell ref="J90:N91"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="C103:I103"/>
-    <mergeCell ref="C88:I88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J48:N49"/>
-    <mergeCell ref="J43:N44"/>
-    <mergeCell ref="J33:N34"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="J38:N39"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="C61:I61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="C66:I66"/>
-    <mergeCell ref="J63:N64"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:N52"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="J28:N29"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J18:N19"/>
-    <mergeCell ref="J13:N14"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G34" r:id="rId1" display="Http://www.facebook.com"/>

--- a/com.romaremedysolutions/RemedyMetadata/RemedySignUpMetadata.xlsx
+++ b/com.romaremedysolutions/RemedyMetadata/RemedySignUpMetadata.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23820" windowHeight="10110" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="23820" windowHeight="10110" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Testing_Data" sheetId="2" r:id="rId2"/>
     <sheet name="WebElements" sheetId="3" r:id="rId3"/>
     <sheet name="Test Cases and Use Cases" sheetId="5" r:id="rId4"/>
+    <sheet name="Traceability Matrix" sheetId="6" r:id="rId5"/>
+    <sheet name="Testing Metadata Updated" sheetId="7" r:id="rId6"/>
+    <sheet name="Smoke Test Traceability Matrix" sheetId="8" r:id="rId7"/>
+    <sheet name="NewDataaaa" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="340">
   <si>
     <t>Any printed document is an uncontrolled copy.</t>
   </si>
@@ -607,9 +611,6 @@
     <t>TC-01.190</t>
   </si>
   <si>
-    <t>Leave Email Name Field Blank</t>
-  </si>
-  <si>
     <t>Error message "Please enter Email Address" comes up above Reset and Submit buttons.</t>
   </si>
   <si>
@@ -1157,12 +1158,120 @@
   <si>
     <t>do paramaterezation</t>
   </si>
+  <si>
+    <t>Remedy Traceability Matrix</t>
+  </si>
+  <si>
+    <t>Agreement on terms validation</t>
+  </si>
+  <si>
+    <t>First Name - required field and accepts: Alphabetic (upper/lower), comma, hyphen, single quote, [min:3, max30]</t>
+  </si>
+  <si>
+    <t>eave Email Name Field Blank</t>
+  </si>
+  <si>
+    <t>id_g_radio_01 and/or "id_g_radio_02" are "option radio buttons" element</t>
+  </si>
+  <si>
+    <t>Temperature element does not match the actual users temperature</t>
+  </si>
+  <si>
+    <t>Back button redirect to main page (Sign Up)</t>
+  </si>
+  <si>
+    <t>confirmation page contains: First Name, Last Name, Email Address, Phone values, as well as optional if filled</t>
+  </si>
+  <si>
+    <t>TC-01.032</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Requierment Description</t>
+  </si>
+  <si>
+    <t>Requierment ID</t>
+  </si>
+  <si>
+    <t>driver.getTitle()</t>
+  </si>
+  <si>
+    <t>homeidftitlePageFactory</t>
+  </si>
+  <si>
+    <t>homeidquotesPageFactory</t>
+  </si>
+  <si>
+    <t>homeidfnamePageFactory</t>
+  </si>
+  <si>
+    <t>homeidgradio01PageFactory</t>
+  </si>
+  <si>
+    <t>homeidstatePageFactory</t>
+  </si>
+  <si>
+    <t>homeidcheckboxPageFactory</t>
+  </si>
+  <si>
+    <t>homeidimgfacebookPageFactory</t>
+  </si>
+  <si>
+    <t>homeidresetbuttonPageFactory</t>
+  </si>
+  <si>
+    <t>hometimestampPageFactory</t>
+  </si>
+  <si>
+    <t>homecopyrightPageFactory</t>
+  </si>
+  <si>
+    <t>homeosbrowserPageFactory</t>
+  </si>
+  <si>
+    <t>homeidcurrentlocationPageFactory</t>
+  </si>
+  <si>
+    <t>homexpathCurrentWeatherDynamicIconPageFactory</t>
+  </si>
+  <si>
+    <t>homeidtemperaturePageFactory</t>
+  </si>
+  <si>
+    <t>Remedy Smoke Test Traceability Matrix</t>
+  </si>
+  <si>
+    <t>Laste Updated</t>
+  </si>
+  <si>
+    <t>Updated by</t>
+  </si>
+  <si>
+    <t>Metadata is present</t>
+  </si>
+  <si>
+    <t>Website is reachable</t>
+  </si>
+  <si>
+    <t>Smoke Test case Number</t>
+  </si>
+  <si>
+    <t>TC.01.001</t>
+  </si>
+  <si>
+    <t>TC.01.002</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1357,6 +1466,48 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1426,7 +1577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2089,6 +2240,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2097,7 +2257,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2200,9 +2360,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2288,6 +2445,38 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2372,32 +2561,35 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2417,21 +2609,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2441,14 +2618,8 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2492,16 +2663,34 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2829,41 +3018,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="127" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="128"/>
+      <c r="F1" s="139" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="114" t="s">
-        <v>285</v>
-      </c>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="108" t="s">
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="109"/>
+      <c r="L1" s="134"/>
     </row>
     <row r="2" spans="4:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
       <c r="F2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="116" t="s">
+      <c r="G2" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="136"/>
       <c r="S2" s="26"/>
     </row>
     <row r="3" spans="4:19" ht="16.5" thickBot="1">
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
       <c r="F3" s="46" t="s">
         <v>5</v>
       </c>
@@ -2875,42 +3064,42 @@
       <c r="J3" s="50">
         <v>5.2</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="136"/>
       <c r="Q3" s="40"/>
       <c r="R3" s="41"/>
       <c r="S3" s="42"/>
     </row>
     <row r="4" spans="4:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H4" s="50"/>
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="111"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="4:19" ht="16.5" thickBot="1">
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
       <c r="F5" s="47" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="113"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="138"/>
       <c r="Q5" s="40"/>
       <c r="R5" s="41"/>
       <c r="S5" s="42"/>
@@ -2925,238 +3114,238 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="76"/>
       <c r="N9" s="18"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="4:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="73" t="s">
+      <c r="E10" s="73"/>
+      <c r="F10" s="72" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="79"/>
+      <c r="L10" s="78"/>
       <c r="N10" s="18"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D11" s="96" t="s">
-        <v>286</v>
-      </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="85" t="s">
+      <c r="D11" s="121" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="122"/>
+      <c r="F11" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="79" t="s">
         <v>288</v>
-      </c>
-      <c r="G11" s="80" t="s">
-        <v>289</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="64"/>
+      <c r="L11" s="63"/>
       <c r="N11" s="18"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D12" s="92"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="86" t="s">
-        <v>291</v>
-      </c>
-      <c r="G12" s="81" t="s">
+      <c r="D12" s="117"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="85" t="s">
         <v>290</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>289</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="64"/>
+      <c r="L12" s="63"/>
       <c r="N12" s="18"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D13" s="92"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="86" t="s">
+      <c r="D13" s="117"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="G13" s="80" t="s">
         <v>292</v>
-      </c>
-      <c r="G13" s="81" t="s">
-        <v>293</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="64"/>
+      <c r="L13" s="63"/>
       <c r="N13" s="18"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="86" t="s">
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="85" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="81" t="s">
         <v>294</v>
-      </c>
-      <c r="G14" s="82" t="s">
-        <v>295</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="64"/>
+      <c r="L14" s="63"/>
       <c r="N14" s="18"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D15" s="90" t="s">
-        <v>300</v>
-      </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="87"/>
+      <c r="D15" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="116"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="15"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="64"/>
+      <c r="L15" s="63"/>
       <c r="N15" s="18"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="86" t="s">
-        <v>287</v>
-      </c>
-      <c r="G16" s="83" t="s">
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" s="82" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="64"/>
+      <c r="L16" s="63"/>
       <c r="N16" s="18"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D17" s="92"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="86" t="s">
-        <v>299</v>
-      </c>
-      <c r="G17" s="83">
+      <c r="D17" s="117"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="85" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" s="82">
         <v>32</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="64"/>
+      <c r="L17" s="63"/>
       <c r="N17" s="18"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D18" s="99"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="83"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="82"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="64"/>
+      <c r="L18" s="63"/>
       <c r="N18" s="18"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D19" s="90" t="s">
-        <v>296</v>
-      </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="87" t="s">
-        <v>278</v>
+      <c r="D19" s="115" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="86" t="s">
+        <v>277</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="64"/>
+      <c r="L19" s="63"/>
       <c r="N19" s="18"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="87" t="s">
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>280</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="64"/>
+      <c r="L20" s="63"/>
       <c r="N20" s="18"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D21" s="92"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="87" t="s">
-        <v>281</v>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="86" t="s">
+        <v>280</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="64"/>
+      <c r="L21" s="63"/>
       <c r="N21" s="18"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="4:19" ht="16.5" thickBot="1">
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="88" t="s">
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="G22" s="83" t="s">
         <v>297</v>
-      </c>
-      <c r="G22" s="84" t="s">
-        <v>298</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="65"/>
+      <c r="L22" s="64"/>
       <c r="N22" s="18"/>
       <c r="O22" s="39"/>
       <c r="P22" s="40"/>
@@ -4569,8 +4758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4578,372 +4767,430 @@
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" t="s">
         <v>202</v>
       </c>
-      <c r="C1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>302</v>
       </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" t="s">
-        <v>303</v>
-      </c>
       <c r="G1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" t="s">
         <v>206</v>
-      </c>
-      <c r="E3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
+      <c r="D4" t="s">
+        <v>318</v>
+      </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="D5" t="s">
+        <v>319</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
       </c>
+      <c r="D7" t="s">
+        <v>321</v>
+      </c>
       <c r="E7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
       </c>
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
         <v>89</v>
       </c>
+      <c r="D9" t="s">
+        <v>323</v>
+      </c>
       <c r="E9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
         <v>95</v>
       </c>
+      <c r="D10" t="s">
+        <v>323</v>
+      </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>325</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="D12" t="s">
+        <v>326</v>
       </c>
       <c r="E12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="D13" t="s">
+        <v>327</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="D14" t="s">
+        <v>328</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="D15" t="s">
+        <v>329</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="D16" t="s">
+        <v>330</v>
       </c>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="D18" t="s">
+        <v>330</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="D25" t="s">
+        <v>328</v>
       </c>
       <c r="E25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="D27" t="s">
+        <v>327</v>
       </c>
       <c r="E27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="D28" t="s">
+        <v>324</v>
       </c>
       <c r="E28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E32" t="s">
         <v>276</v>
-      </c>
-      <c r="E32" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4955,9 +5202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4974,7 +5219,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>24</v>
@@ -4986,15 +5231,15 @@
         <v>26</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -5005,7 +5250,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>71</v>
@@ -5293,11 +5538,11 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="70" t="s">
-        <v>200</v>
+      <c r="B23" s="69" t="s">
+        <v>199</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>29</v>
@@ -5308,8 +5553,8 @@
       <c r="E23" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="72" t="s">
-        <v>215</v>
+      <c r="F23" s="71" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5357,7 +5602,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
         <v>91</v>
@@ -5369,15 +5614,15 @@
         <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
@@ -5386,7 +5631,7 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5396,11 +5641,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A7:R280"/>
+  <dimension ref="A7:S280"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -5413,74 +5656,74 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" thickBot="1">
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="161"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="146"/>
       <c r="O8" s="18"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="18.75">
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
       <c r="O9" s="18"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
       <c r="O10" s="18"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A11" s="68"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="143"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="149"/>
       <c r="J11" s="11" t="s">
         <v>10</v>
       </c>
@@ -5495,36 +5738,40 @@
       <c r="O11" s="19"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="68"/>
-      <c r="B12" s="138" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="134" t="s">
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="134" t="s">
+      <c r="H12" s="151"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="136"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="152"/>
       <c r="O12" s="20"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="R12" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="68"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="8">
         <v>1</v>
       </c>
@@ -5539,20 +5786,22 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="127" t="s">
-        <v>185</v>
-      </c>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="129"/>
+      <c r="J13" s="153" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="155"/>
       <c r="O13" s="21"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A14" s="68"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="9">
         <v>2</v>
       </c>
@@ -5562,20 +5811,22 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="132"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="158"/>
       <c r="O14" s="21"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1">
       <c r="O15" s="18"/>
@@ -5584,19 +5835,19 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A16" s="68"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="141" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="143"/>
+      <c r="C16" s="147" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="149"/>
       <c r="J16" s="11" t="s">
         <v>10</v>
       </c>
@@ -5609,40 +5860,40 @@
         <v>12</v>
       </c>
       <c r="O16" s="19"/>
-      <c r="P16" s="89" t="s">
-        <v>304</v>
+      <c r="P16" s="88" t="s">
+        <v>303</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="68"/>
-      <c r="B17" s="138" t="s">
+    <row r="17" spans="1:19">
+      <c r="A17" s="67"/>
+      <c r="B17" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="134" t="s">
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="135"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="134" t="s">
+      <c r="H17" s="151"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="136"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="152"/>
       <c r="O17" s="20"/>
-      <c r="P17" s="89"/>
+      <c r="P17" s="88"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="68"/>
+    <row r="18" spans="1:19">
+      <c r="A18" s="67"/>
       <c r="B18" s="8">
         <v>1</v>
       </c>
@@ -5657,20 +5908,20 @@
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="127" t="s">
+      <c r="J18" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="129"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="155"/>
       <c r="O18" s="21"/>
-      <c r="P18" s="89"/>
+      <c r="P18" s="88"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A19" s="68"/>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A19" s="67"/>
       <c r="B19" s="9">
         <v>2</v>
       </c>
@@ -5680,41 +5931,41 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="132"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="158"/>
       <c r="O19" s="21"/>
-      <c r="P19" s="89"/>
+      <c r="P19" s="88"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1">
+    <row r="20" spans="1:19" ht="15.75" thickBot="1">
       <c r="O20" s="18"/>
-      <c r="P20" s="89"/>
+      <c r="P20" s="88"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A21" s="68"/>
+    <row r="21" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A21" s="67"/>
       <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="143"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="149"/>
       <c r="J21" s="11" t="s">
         <v>10</v>
       </c>
@@ -5727,38 +5978,38 @@
         <v>12</v>
       </c>
       <c r="O21" s="19"/>
-      <c r="P21" s="89"/>
+      <c r="P21" s="88"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="68"/>
-      <c r="B22" s="138" t="s">
+    <row r="22" spans="1:19">
+      <c r="A22" s="67"/>
+      <c r="B22" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="134" t="s">
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="135"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="134" t="s">
+      <c r="H22" s="151"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="136"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="152"/>
       <c r="O22" s="20"/>
-      <c r="P22" s="89"/>
+      <c r="P22" s="88"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="68"/>
+    <row r="23" spans="1:19">
+      <c r="A23" s="67"/>
       <c r="B23" s="8">
         <v>1</v>
       </c>
@@ -5773,20 +6024,20 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="127" t="s">
+      <c r="J23" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="129"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="155"/>
       <c r="O23" s="21"/>
-      <c r="P23" s="89"/>
+      <c r="P23" s="88"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A24" s="68"/>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A24" s="67"/>
       <c r="B24" s="9">
         <v>2</v>
       </c>
@@ -5796,41 +6047,41 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="132"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="158"/>
       <c r="O24" s="21"/>
-      <c r="P24" s="89"/>
+      <c r="P24" s="88"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" thickBot="1">
+    <row r="25" spans="1:19" ht="15.75" thickBot="1">
       <c r="O25" s="18"/>
-      <c r="P25" s="89"/>
+      <c r="P25" s="88"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A26" s="68"/>
+    <row r="26" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A26" s="67"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="141" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="143"/>
+      <c r="C26" s="147" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="11" t="s">
         <v>10</v>
       </c>
@@ -5843,38 +6094,38 @@
         <v>12</v>
       </c>
       <c r="O26" s="18"/>
-      <c r="P26" s="89"/>
+      <c r="P26" s="88"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="68"/>
-      <c r="B27" s="138" t="s">
+    <row r="27" spans="1:19">
+      <c r="A27" s="67"/>
+      <c r="B27" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="134" t="s">
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="135"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="134" t="s">
+      <c r="H27" s="151"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="136"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="152"/>
       <c r="O27" s="19"/>
-      <c r="P27" s="89"/>
+      <c r="P27" s="88"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="68"/>
+    <row r="28" spans="1:19">
+      <c r="A28" s="67"/>
       <c r="B28" s="8">
         <v>1</v>
       </c>
@@ -5889,20 +6140,20 @@
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="127" t="s">
+      <c r="J28" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="129"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="155"/>
       <c r="O28" s="20"/>
-      <c r="P28" s="89"/>
+      <c r="P28" s="88"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A29" s="68"/>
+    <row r="29" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A29" s="67"/>
       <c r="B29" s="9">
         <v>2</v>
       </c>
@@ -5912,41 +6163,41 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="132"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="158"/>
       <c r="O29" s="21"/>
-      <c r="P29" s="89"/>
+      <c r="P29" s="88"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1">
       <c r="O30" s="21"/>
-      <c r="P30" s="89"/>
+      <c r="P30" s="88"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A31" s="68"/>
+    <row r="31" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A31" s="67"/>
       <c r="B31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="141" t="s">
-        <v>210</v>
-      </c>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="143"/>
+      <c r="C31" s="147" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="149"/>
       <c r="J31" s="11" t="s">
         <v>10</v>
       </c>
@@ -5959,38 +6210,44 @@
         <v>12</v>
       </c>
       <c r="O31" s="18"/>
-      <c r="P31" s="89"/>
+      <c r="P31" s="88"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="68"/>
-      <c r="B32" s="138" t="s">
+      <c r="S31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="67"/>
+      <c r="B32" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="134" t="s">
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="135"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="134" t="s">
+      <c r="H32" s="151"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="136"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="152"/>
       <c r="O32" s="19"/>
-      <c r="P32" s="89"/>
+      <c r="P32" s="88"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="68"/>
+      <c r="S32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="67"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
@@ -6005,20 +6262,23 @@
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="127" t="s">
+      <c r="J33" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="129"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="155"/>
       <c r="O33" s="20"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A34" s="68"/>
+      <c r="S33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A34" s="67"/>
       <c r="B34" s="9">
         <v>2</v>
       </c>
@@ -6028,43 +6288,49 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="61" t="s">
+      <c r="G34" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="131"/>
-      <c r="L34" s="131"/>
-      <c r="M34" s="131"/>
-      <c r="N34" s="132"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="158"/>
       <c r="O34" s="21"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1">
+      <c r="S34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" thickBot="1">
       <c r="O35" s="21"/>
       <c r="P35" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A36" s="68"/>
+      <c r="S35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A36" s="67"/>
       <c r="B36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="141" t="s">
+      <c r="C36" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="143"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="149"/>
       <c r="J36" s="11" t="s">
         <v>10</v>
       </c>
@@ -6078,41 +6344,44 @@
       </c>
       <c r="O36" s="18"/>
       <c r="P36" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="68"/>
-      <c r="B37" s="138" t="s">
+      <c r="S36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="67"/>
+      <c r="B37" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="134" t="s">
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="135"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="134" t="s">
+      <c r="H37" s="151"/>
+      <c r="I37" s="162"/>
+      <c r="J37" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="135"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="135"/>
-      <c r="N37" s="136"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
+      <c r="N37" s="152"/>
       <c r="O37" s="19"/>
       <c r="P37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="68"/>
+    <row r="38" spans="1:19">
+      <c r="A38" s="67"/>
       <c r="B38" s="8">
         <v>1</v>
       </c>
@@ -6127,20 +6396,20 @@
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="127" t="s">
+      <c r="J38" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="129"/>
+      <c r="K38" s="154"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
+      <c r="N38" s="155"/>
       <c r="O38" s="20"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A39" s="68"/>
+    <row r="39" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A39" s="67"/>
       <c r="B39" s="9">
         <v>2</v>
       </c>
@@ -6150,41 +6419,41 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="61" t="s">
+      <c r="G39" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="132"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="157"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="158"/>
       <c r="O39" s="21"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75" thickBot="1">
+    <row r="40" spans="1:19" ht="15.75" thickBot="1">
       <c r="O40" s="21"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A41" s="68"/>
+    <row r="41" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A41" s="67"/>
       <c r="B41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="141" t="s">
+      <c r="C41" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="143"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="149"/>
       <c r="J41" s="11" t="s">
         <v>10</v>
       </c>
@@ -6201,34 +6470,34 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="68"/>
-      <c r="B42" s="138" t="s">
+    <row r="42" spans="1:19">
+      <c r="A42" s="67"/>
+      <c r="B42" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="134" t="s">
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="135"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="134" t="s">
+      <c r="H42" s="151"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="135"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="135"/>
-      <c r="N42" s="136"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="152"/>
       <c r="O42" s="19"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="68"/>
+    <row r="43" spans="1:19">
+      <c r="A43" s="67"/>
       <c r="B43" s="8">
         <v>1</v>
       </c>
@@ -6243,20 +6512,20 @@
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="127" t="s">
+      <c r="J43" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="129"/>
+      <c r="K43" s="154"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
+      <c r="N43" s="155"/>
       <c r="O43" s="20"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A44" s="68"/>
+    <row r="44" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A44" s="67"/>
       <c r="B44" s="9">
         <v>2</v>
       </c>
@@ -6266,41 +6535,41 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="61" t="s">
+      <c r="G44" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="14"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="131"/>
-      <c r="L44" s="131"/>
-      <c r="M44" s="131"/>
-      <c r="N44" s="132"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="157"/>
+      <c r="M44" s="157"/>
+      <c r="N44" s="158"/>
       <c r="O44" s="21"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1">
+    <row r="45" spans="1:19" ht="15.75" thickBot="1">
       <c r="O45" s="21"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A46" s="68"/>
+    <row r="46" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A46" s="67"/>
       <c r="B46" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="141" t="s">
+      <c r="C46" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="143"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="149"/>
       <c r="J46" s="11" t="s">
         <v>10</v>
       </c>
@@ -6317,34 +6586,34 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="68"/>
-      <c r="B47" s="138" t="s">
+    <row r="47" spans="1:19">
+      <c r="A47" s="67"/>
+      <c r="B47" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="134" t="s">
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="135"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="134" t="s">
+      <c r="H47" s="151"/>
+      <c r="I47" s="162"/>
+      <c r="J47" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="135"/>
-      <c r="L47" s="135"/>
-      <c r="M47" s="135"/>
-      <c r="N47" s="136"/>
+      <c r="K47" s="151"/>
+      <c r="L47" s="151"/>
+      <c r="M47" s="151"/>
+      <c r="N47" s="152"/>
       <c r="O47" s="18"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="68"/>
+    <row r="48" spans="1:19">
+      <c r="A48" s="67"/>
       <c r="B48" s="8">
         <v>1</v>
       </c>
@@ -6357,20 +6626,20 @@
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="127" t="s">
+      <c r="J48" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="K48" s="128"/>
-      <c r="L48" s="128"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="129"/>
+      <c r="K48" s="154"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
+      <c r="N48" s="155"/>
       <c r="O48" s="18"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A49" s="68"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="9">
         <v>2</v>
       </c>
@@ -6380,16 +6649,16 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="61" t="s">
+      <c r="G49" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="14"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="131"/>
-      <c r="L49" s="131"/>
-      <c r="M49" s="131"/>
-      <c r="N49" s="132"/>
+      <c r="J49" s="156"/>
+      <c r="K49" s="157"/>
+      <c r="L49" s="157"/>
+      <c r="M49" s="157"/>
+      <c r="N49" s="158"/>
       <c r="O49" s="18"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -6402,19 +6671,19 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A51" s="68"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="141" t="s">
+      <c r="C51" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="143"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="149"/>
       <c r="J51" s="11" t="s">
         <v>10</v>
       </c>
@@ -6432,33 +6701,33 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="68"/>
-      <c r="B52" s="138" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="139"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="134" t="s">
+      <c r="C52" s="160"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="135"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="134" t="s">
+      <c r="H52" s="151"/>
+      <c r="I52" s="162"/>
+      <c r="J52" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="135"/>
-      <c r="L52" s="135"/>
-      <c r="M52" s="135"/>
-      <c r="N52" s="136"/>
+      <c r="K52" s="151"/>
+      <c r="L52" s="151"/>
+      <c r="M52" s="151"/>
+      <c r="N52" s="152"/>
       <c r="O52" s="18"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="68"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="8">
         <v>1</v>
       </c>
@@ -6473,20 +6742,20 @@
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="127" t="s">
+      <c r="J53" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="K53" s="128"/>
-      <c r="L53" s="128"/>
-      <c r="M53" s="128"/>
-      <c r="N53" s="129"/>
+      <c r="K53" s="154"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
+      <c r="N53" s="155"/>
       <c r="O53" s="18"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
     <row r="54" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A54" s="68"/>
+      <c r="A54" s="67"/>
       <c r="B54" s="9">
         <v>2</v>
       </c>
@@ -6496,16 +6765,16 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="61" t="s">
+      <c r="G54" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="14"/>
-      <c r="J54" s="130"/>
-      <c r="K54" s="131"/>
-      <c r="L54" s="131"/>
-      <c r="M54" s="131"/>
-      <c r="N54" s="132"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="157"/>
+      <c r="M54" s="157"/>
+      <c r="N54" s="158"/>
       <c r="O54" s="18"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -6520,30 +6789,30 @@
       <c r="G55" s="53"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
       <c r="O55" s="18"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A56" s="68"/>
+      <c r="A56" s="67"/>
       <c r="B56" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="141" t="s">
-        <v>212</v>
-      </c>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="142"/>
-      <c r="I56" s="143"/>
+      <c r="C56" s="147" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="148"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="149"/>
       <c r="J56" s="11" t="s">
         <v>10</v>
       </c>
@@ -6561,33 +6830,33 @@
       <c r="R56" s="17"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="68"/>
-      <c r="B57" s="138" t="s">
+      <c r="A57" s="67"/>
+      <c r="B57" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="139"/>
-      <c r="D57" s="139"/>
-      <c r="E57" s="139"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="134" t="s">
+      <c r="C57" s="160"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="135"/>
-      <c r="I57" s="137"/>
-      <c r="J57" s="134" t="s">
+      <c r="H57" s="151"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="135"/>
-      <c r="L57" s="135"/>
-      <c r="M57" s="135"/>
-      <c r="N57" s="136"/>
+      <c r="K57" s="151"/>
+      <c r="L57" s="151"/>
+      <c r="M57" s="151"/>
+      <c r="N57" s="152"/>
       <c r="O57" s="20"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="17"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="68"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="8">
         <v>1</v>
       </c>
@@ -6602,20 +6871,20 @@
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="127" t="s">
-        <v>211</v>
-      </c>
-      <c r="K58" s="128"/>
-      <c r="L58" s="128"/>
-      <c r="M58" s="128"/>
-      <c r="N58" s="129"/>
+      <c r="J58" s="153" t="s">
+        <v>210</v>
+      </c>
+      <c r="K58" s="154"/>
+      <c r="L58" s="154"/>
+      <c r="M58" s="154"/>
+      <c r="N58" s="155"/>
       <c r="O58" s="20"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="17"/>
     </row>
     <row r="59" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A59" s="68"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="9">
         <v>2</v>
       </c>
@@ -6625,16 +6894,16 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="61" t="s">
+      <c r="G59" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="14"/>
-      <c r="J59" s="130"/>
-      <c r="K59" s="131"/>
-      <c r="L59" s="131"/>
-      <c r="M59" s="131"/>
-      <c r="N59" s="132"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="157"/>
+      <c r="L59" s="157"/>
+      <c r="M59" s="157"/>
+      <c r="N59" s="158"/>
       <c r="O59" s="20"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -6647,19 +6916,19 @@
       <c r="R60" s="17"/>
     </row>
     <row r="61" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A61" s="68"/>
+      <c r="A61" s="67"/>
       <c r="B61" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="141" t="s">
+      <c r="C61" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="142"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="142"/>
-      <c r="G61" s="142"/>
-      <c r="H61" s="142"/>
-      <c r="I61" s="143"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="149"/>
       <c r="J61" s="11" t="s">
         <v>10</v>
       </c>
@@ -6677,33 +6946,33 @@
       <c r="R61" s="17"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="68"/>
-      <c r="B62" s="138" t="s">
+      <c r="A62" s="67"/>
+      <c r="B62" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="139"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="134" t="s">
+      <c r="C62" s="160"/>
+      <c r="D62" s="160"/>
+      <c r="E62" s="160"/>
+      <c r="F62" s="161"/>
+      <c r="G62" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="135"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="134" t="s">
+      <c r="H62" s="151"/>
+      <c r="I62" s="162"/>
+      <c r="J62" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="135"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
-      <c r="N62" s="136"/>
+      <c r="K62" s="151"/>
+      <c r="L62" s="151"/>
+      <c r="M62" s="151"/>
+      <c r="N62" s="152"/>
       <c r="O62" s="21"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="17"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="68"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="8">
         <v>1</v>
       </c>
@@ -6718,20 +6987,20 @@
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="127" t="s">
+      <c r="J63" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="K63" s="128"/>
-      <c r="L63" s="128"/>
-      <c r="M63" s="128"/>
-      <c r="N63" s="129"/>
+      <c r="K63" s="154"/>
+      <c r="L63" s="154"/>
+      <c r="M63" s="154"/>
+      <c r="N63" s="155"/>
       <c r="O63" s="21"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="17"/>
     </row>
     <row r="64" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A64" s="68"/>
+      <c r="A64" s="67"/>
       <c r="B64" s="9">
         <v>2</v>
       </c>
@@ -6741,16 +7010,16 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="61" t="s">
+      <c r="G64" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="130"/>
-      <c r="K64" s="131"/>
-      <c r="L64" s="131"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="132"/>
+      <c r="J64" s="156"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="157"/>
+      <c r="M64" s="157"/>
+      <c r="N64" s="158"/>
       <c r="O64" s="21"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -6763,19 +7032,19 @@
       <c r="R65" s="17"/>
     </row>
     <row r="66" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A66" s="68"/>
+      <c r="A66" s="67"/>
       <c r="B66" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C66" s="141" t="s">
-        <v>225</v>
-      </c>
-      <c r="D66" s="142"/>
-      <c r="E66" s="142"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="142"/>
-      <c r="H66" s="142"/>
-      <c r="I66" s="143"/>
+        <v>212</v>
+      </c>
+      <c r="C66" s="147" t="s">
+        <v>224</v>
+      </c>
+      <c r="D66" s="148"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="148"/>
+      <c r="G66" s="148"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="149"/>
       <c r="J66" s="11" t="s">
         <v>10</v>
       </c>
@@ -6793,33 +7062,33 @@
       <c r="R66" s="17"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="68"/>
-      <c r="B67" s="138" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="139"/>
-      <c r="D67" s="139"/>
-      <c r="E67" s="139"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="134" t="s">
+      <c r="C67" s="160"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="161"/>
+      <c r="G67" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="135"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="134" t="s">
+      <c r="H67" s="151"/>
+      <c r="I67" s="162"/>
+      <c r="J67" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K67" s="135"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
-      <c r="N67" s="136"/>
+      <c r="K67" s="151"/>
+      <c r="L67" s="151"/>
+      <c r="M67" s="151"/>
+      <c r="N67" s="152"/>
       <c r="O67" s="21"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="17"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="68"/>
+      <c r="A68" s="67"/>
       <c r="B68" s="8">
         <v>1</v>
       </c>
@@ -6834,20 +7103,20 @@
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="127" t="s">
-        <v>224</v>
-      </c>
-      <c r="K68" s="128"/>
-      <c r="L68" s="128"/>
-      <c r="M68" s="128"/>
-      <c r="N68" s="129"/>
+      <c r="J68" s="153" t="s">
+        <v>223</v>
+      </c>
+      <c r="K68" s="154"/>
+      <c r="L68" s="154"/>
+      <c r="M68" s="154"/>
+      <c r="N68" s="155"/>
       <c r="O68" s="21"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="17"/>
     </row>
     <row r="69" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A69" s="68"/>
+      <c r="A69" s="67"/>
       <c r="B69" s="9">
         <v>2</v>
       </c>
@@ -6857,16 +7126,16 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="61" t="s">
+      <c r="G69" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="14"/>
-      <c r="J69" s="130"/>
-      <c r="K69" s="131"/>
-      <c r="L69" s="131"/>
-      <c r="M69" s="131"/>
-      <c r="N69" s="132"/>
+      <c r="J69" s="156"/>
+      <c r="K69" s="157"/>
+      <c r="L69" s="157"/>
+      <c r="M69" s="157"/>
+      <c r="N69" s="158"/>
       <c r="O69" s="20"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -6881,11 +7150,11 @@
       <c r="G70" s="53"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="63"/>
-      <c r="M70" s="63"/>
-      <c r="N70" s="63"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="62"/>
+      <c r="L70" s="62"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="62"/>
       <c r="O70" s="18"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -6898,21 +7167,21 @@
       <c r="R71" s="1"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B72" s="133" t="s">
+      <c r="B72" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="133"/>
-      <c r="D72" s="133"/>
-      <c r="E72" s="133"/>
-      <c r="F72" s="133"/>
-      <c r="G72" s="133"/>
-      <c r="H72" s="133"/>
-      <c r="I72" s="133"/>
-      <c r="J72" s="133"/>
-      <c r="K72" s="133"/>
-      <c r="L72" s="133"/>
-      <c r="M72" s="133"/>
-      <c r="N72" s="133"/>
+      <c r="C72" s="186"/>
+      <c r="D72" s="186"/>
+      <c r="E72" s="186"/>
+      <c r="F72" s="186"/>
+      <c r="G72" s="186"/>
+      <c r="H72" s="186"/>
+      <c r="I72" s="186"/>
+      <c r="J72" s="186"/>
+      <c r="K72" s="186"/>
+      <c r="L72" s="186"/>
+      <c r="M72" s="186"/>
+      <c r="N72" s="186"/>
       <c r="O72" s="18"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -6979,20 +7248,18 @@
       <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" ht="18.75">
-      <c r="I83" s="71"/>
+      <c r="I83" s="70"/>
       <c r="O83" s="18"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
     </row>
     <row r="84" spans="1:18">
       <c r="O84" s="18"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
     </row>
     <row r="85" spans="1:18" ht="18.75">
-      <c r="I85" s="71"/>
+      <c r="I85" s="70"/>
       <c r="O85" s="18"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -7005,26 +7272,25 @@
       <c r="R86" s="1"/>
     </row>
     <row r="87" spans="1:18" ht="19.5" thickBot="1">
-      <c r="I87" s="71"/>
+      <c r="I87" s="70"/>
       <c r="O87" s="18"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
     </row>
     <row r="88" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A88" s="67"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="D88" s="142"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="142"/>
-      <c r="G88" s="142"/>
-      <c r="H88" s="142"/>
-      <c r="I88" s="143"/>
+      <c r="C88" s="147" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" s="148"/>
+      <c r="E88" s="148"/>
+      <c r="F88" s="148"/>
+      <c r="G88" s="148"/>
+      <c r="H88" s="148"/>
+      <c r="I88" s="149"/>
       <c r="J88" s="11" t="s">
         <v>10</v>
       </c>
@@ -7039,36 +7305,34 @@
       <c r="O88" s="18"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
-      <c r="R88" s="23"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="67"/>
-      <c r="B89" s="138" t="s">
+      <c r="A89" s="66"/>
+      <c r="B89" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="139"/>
-      <c r="D89" s="139"/>
-      <c r="E89" s="139"/>
-      <c r="F89" s="140"/>
-      <c r="G89" s="134" t="s">
+      <c r="C89" s="160"/>
+      <c r="D89" s="160"/>
+      <c r="E89" s="160"/>
+      <c r="F89" s="161"/>
+      <c r="G89" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H89" s="135"/>
-      <c r="I89" s="137"/>
-      <c r="J89" s="134" t="s">
+      <c r="H89" s="151"/>
+      <c r="I89" s="162"/>
+      <c r="J89" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K89" s="135"/>
-      <c r="L89" s="135"/>
-      <c r="M89" s="135"/>
-      <c r="N89" s="136"/>
+      <c r="K89" s="151"/>
+      <c r="L89" s="151"/>
+      <c r="M89" s="151"/>
+      <c r="N89" s="152"/>
       <c r="O89" s="18"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="67"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="8">
         <v>1</v>
       </c>
@@ -7083,20 +7347,19 @@
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="127" t="s">
+      <c r="J90" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="K90" s="128"/>
-      <c r="L90" s="128"/>
-      <c r="M90" s="128"/>
-      <c r="N90" s="129"/>
+      <c r="K90" s="154"/>
+      <c r="L90" s="154"/>
+      <c r="M90" s="154"/>
+      <c r="N90" s="155"/>
       <c r="O90" s="18"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-      <c r="R90" s="23"/>
     </row>
     <row r="91" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A91" s="67"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="9">
         <v>2</v>
       </c>
@@ -7106,41 +7369,39 @@
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="61" t="s">
+      <c r="G91" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="14"/>
-      <c r="J91" s="130"/>
-      <c r="K91" s="131"/>
-      <c r="L91" s="131"/>
-      <c r="M91" s="131"/>
-      <c r="N91" s="132"/>
+      <c r="J91" s="156"/>
+      <c r="K91" s="157"/>
+      <c r="L91" s="157"/>
+      <c r="M91" s="157"/>
+      <c r="N91" s="158"/>
       <c r="O91" s="18"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
     </row>
     <row r="92" spans="1:18" ht="15.75" thickBot="1">
       <c r="O92" s="18"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="23"/>
     </row>
     <row r="93" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A93" s="68"/>
+      <c r="A93" s="67"/>
       <c r="B93" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C93" s="141" t="s">
+      <c r="C93" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="142"/>
-      <c r="E93" s="142"/>
-      <c r="F93" s="142"/>
-      <c r="G93" s="142"/>
-      <c r="H93" s="142"/>
-      <c r="I93" s="143"/>
+      <c r="D93" s="148"/>
+      <c r="E93" s="148"/>
+      <c r="F93" s="148"/>
+      <c r="G93" s="148"/>
+      <c r="H93" s="148"/>
+      <c r="I93" s="149"/>
       <c r="J93" s="11" t="s">
         <v>10</v>
       </c>
@@ -7155,36 +7416,34 @@
       <c r="O93" s="18"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="68"/>
-      <c r="B94" s="138" t="s">
+      <c r="A94" s="67"/>
+      <c r="B94" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="139"/>
-      <c r="D94" s="139"/>
-      <c r="E94" s="139"/>
-      <c r="F94" s="140"/>
-      <c r="G94" s="134" t="s">
+      <c r="C94" s="160"/>
+      <c r="D94" s="160"/>
+      <c r="E94" s="160"/>
+      <c r="F94" s="161"/>
+      <c r="G94" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H94" s="135"/>
-      <c r="I94" s="137"/>
-      <c r="J94" s="134" t="s">
+      <c r="H94" s="151"/>
+      <c r="I94" s="162"/>
+      <c r="J94" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K94" s="135"/>
-      <c r="L94" s="135"/>
-      <c r="M94" s="135"/>
-      <c r="N94" s="136"/>
+      <c r="K94" s="151"/>
+      <c r="L94" s="151"/>
+      <c r="M94" s="151"/>
+      <c r="N94" s="152"/>
       <c r="O94" s="18"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="23"/>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="68"/>
+      <c r="A95" s="67"/>
       <c r="B95" s="8">
         <v>1</v>
       </c>
@@ -7199,20 +7458,19 @@
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="127" t="s">
+      <c r="J95" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="K95" s="128"/>
-      <c r="L95" s="128"/>
-      <c r="M95" s="128"/>
-      <c r="N95" s="129"/>
+      <c r="K95" s="154"/>
+      <c r="L95" s="154"/>
+      <c r="M95" s="154"/>
+      <c r="N95" s="155"/>
       <c r="O95" s="18"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
     </row>
     <row r="96" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A96" s="68"/>
+      <c r="A96" s="67"/>
       <c r="B96" s="9">
         <v>2</v>
       </c>
@@ -7222,41 +7480,39 @@
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="61" t="s">
+      <c r="G96" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="14"/>
-      <c r="J96" s="130"/>
-      <c r="K96" s="131"/>
-      <c r="L96" s="131"/>
-      <c r="M96" s="131"/>
-      <c r="N96" s="132"/>
+      <c r="J96" s="156"/>
+      <c r="K96" s="157"/>
+      <c r="L96" s="157"/>
+      <c r="M96" s="157"/>
+      <c r="N96" s="158"/>
       <c r="O96" s="18"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-      <c r="R96" s="23"/>
     </row>
     <row r="97" spans="1:18" ht="15.75" thickBot="1">
       <c r="O97" s="18"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
     </row>
     <row r="98" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A98" s="68"/>
+      <c r="A98" s="67"/>
       <c r="B98" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="D98" s="142"/>
-      <c r="E98" s="142"/>
-      <c r="F98" s="142"/>
-      <c r="G98" s="142"/>
-      <c r="H98" s="142"/>
-      <c r="I98" s="143"/>
+      <c r="C98" s="147" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="148"/>
+      <c r="E98" s="148"/>
+      <c r="F98" s="148"/>
+      <c r="G98" s="148"/>
+      <c r="H98" s="148"/>
+      <c r="I98" s="149"/>
       <c r="J98" s="11" t="s">
         <v>10</v>
       </c>
@@ -7271,36 +7527,34 @@
       <c r="O98" s="18"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
-      <c r="R98" s="23"/>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="68"/>
-      <c r="B99" s="138" t="s">
+      <c r="A99" s="67"/>
+      <c r="B99" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="139"/>
-      <c r="D99" s="139"/>
-      <c r="E99" s="139"/>
-      <c r="F99" s="140"/>
-      <c r="G99" s="134" t="s">
+      <c r="C99" s="160"/>
+      <c r="D99" s="160"/>
+      <c r="E99" s="160"/>
+      <c r="F99" s="161"/>
+      <c r="G99" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="135"/>
-      <c r="I99" s="137"/>
-      <c r="J99" s="134" t="s">
+      <c r="H99" s="151"/>
+      <c r="I99" s="162"/>
+      <c r="J99" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K99" s="135"/>
-      <c r="L99" s="135"/>
-      <c r="M99" s="135"/>
-      <c r="N99" s="136"/>
+      <c r="K99" s="151"/>
+      <c r="L99" s="151"/>
+      <c r="M99" s="151"/>
+      <c r="N99" s="152"/>
       <c r="O99" s="18"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="68"/>
+      <c r="A100" s="67"/>
       <c r="B100" s="8">
         <v>1</v>
       </c>
@@ -7315,20 +7569,19 @@
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="127" t="s">
+      <c r="J100" s="153" t="s">
         <v>103</v>
       </c>
-      <c r="K100" s="128"/>
-      <c r="L100" s="128"/>
-      <c r="M100" s="128"/>
-      <c r="N100" s="129"/>
+      <c r="K100" s="154"/>
+      <c r="L100" s="154"/>
+      <c r="M100" s="154"/>
+      <c r="N100" s="155"/>
       <c r="O100" s="18"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
-      <c r="R100" s="23"/>
     </row>
     <row r="101" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A101" s="68"/>
+      <c r="A101" s="67"/>
       <c r="B101" s="9">
         <v>2</v>
       </c>
@@ -7338,41 +7591,39 @@
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="61" t="s">
+      <c r="G101" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="14"/>
-      <c r="J101" s="130"/>
-      <c r="K101" s="131"/>
-      <c r="L101" s="131"/>
-      <c r="M101" s="131"/>
-      <c r="N101" s="132"/>
+      <c r="J101" s="156"/>
+      <c r="K101" s="157"/>
+      <c r="L101" s="157"/>
+      <c r="M101" s="157"/>
+      <c r="N101" s="158"/>
       <c r="O101" s="18"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
     </row>
     <row r="102" spans="1:18" ht="15.75" thickBot="1">
       <c r="O102" s="18"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-      <c r="R102" s="23"/>
     </row>
     <row r="103" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A103" s="67"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="141" t="s">
-        <v>216</v>
-      </c>
-      <c r="D103" s="142"/>
-      <c r="E103" s="142"/>
-      <c r="F103" s="142"/>
-      <c r="G103" s="142"/>
-      <c r="H103" s="142"/>
-      <c r="I103" s="143"/>
+      <c r="C103" s="147" t="s">
+        <v>215</v>
+      </c>
+      <c r="D103" s="148"/>
+      <c r="E103" s="148"/>
+      <c r="F103" s="148"/>
+      <c r="G103" s="148"/>
+      <c r="H103" s="148"/>
+      <c r="I103" s="149"/>
       <c r="J103" s="11" t="s">
         <v>10</v>
       </c>
@@ -7387,36 +7638,34 @@
       <c r="O103" s="18"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="67"/>
-      <c r="B104" s="138" t="s">
+      <c r="A104" s="66"/>
+      <c r="B104" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="139"/>
-      <c r="D104" s="139"/>
-      <c r="E104" s="139"/>
-      <c r="F104" s="140"/>
-      <c r="G104" s="134" t="s">
+      <c r="C104" s="160"/>
+      <c r="D104" s="160"/>
+      <c r="E104" s="160"/>
+      <c r="F104" s="161"/>
+      <c r="G104" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H104" s="135"/>
-      <c r="I104" s="137"/>
-      <c r="J104" s="134" t="s">
+      <c r="H104" s="151"/>
+      <c r="I104" s="162"/>
+      <c r="J104" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K104" s="135"/>
-      <c r="L104" s="135"/>
-      <c r="M104" s="135"/>
-      <c r="N104" s="136"/>
+      <c r="K104" s="151"/>
+      <c r="L104" s="151"/>
+      <c r="M104" s="151"/>
+      <c r="N104" s="152"/>
       <c r="O104" s="18"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-      <c r="R104" s="23"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="67"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="8">
         <v>1</v>
       </c>
@@ -7431,20 +7680,19 @@
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="5"/>
-      <c r="J105" s="127" t="s">
-        <v>208</v>
-      </c>
-      <c r="K105" s="128"/>
-      <c r="L105" s="128"/>
-      <c r="M105" s="128"/>
-      <c r="N105" s="129"/>
+      <c r="J105" s="153" t="s">
+        <v>207</v>
+      </c>
+      <c r="K105" s="154"/>
+      <c r="L105" s="154"/>
+      <c r="M105" s="154"/>
+      <c r="N105" s="155"/>
       <c r="O105" s="18"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
     </row>
     <row r="106" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A106" s="67"/>
+      <c r="A106" s="66"/>
       <c r="B106" s="9">
         <v>2</v>
       </c>
@@ -7454,20 +7702,19 @@
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="61" t="s">
+      <c r="G106" s="60" t="s">
         <v>45</v>
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="14"/>
-      <c r="J106" s="130"/>
-      <c r="K106" s="131"/>
-      <c r="L106" s="131"/>
-      <c r="M106" s="131"/>
-      <c r="N106" s="132"/>
+      <c r="J106" s="156"/>
+      <c r="K106" s="157"/>
+      <c r="L106" s="157"/>
+      <c r="M106" s="157"/>
+      <c r="N106" s="158"/>
       <c r="O106" s="18"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
-      <c r="R106" s="23"/>
     </row>
     <row r="107" spans="1:18" ht="15.75">
       <c r="A107" s="18"/>
@@ -7479,15 +7726,14 @@
       <c r="G107" s="27"/>
       <c r="H107" s="23"/>
       <c r="I107" s="23"/>
-      <c r="J107" s="63"/>
-      <c r="K107" s="63"/>
-      <c r="L107" s="63"/>
-      <c r="M107" s="63"/>
-      <c r="N107" s="63"/>
+      <c r="J107" s="62"/>
+      <c r="K107" s="62"/>
+      <c r="L107" s="62"/>
+      <c r="M107" s="62"/>
+      <c r="N107" s="62"/>
       <c r="O107" s="18"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
     </row>
     <row r="108" spans="1:18" ht="16.5" thickBot="1">
       <c r="B108" s="1"/>
@@ -7498,30 +7744,29 @@
       <c r="G108" s="53"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="63"/>
-      <c r="K108" s="63"/>
-      <c r="L108" s="63"/>
-      <c r="M108" s="63"/>
-      <c r="N108" s="63"/>
+      <c r="J108" s="62"/>
+      <c r="K108" s="62"/>
+      <c r="L108" s="62"/>
+      <c r="M108" s="62"/>
+      <c r="N108" s="62"/>
       <c r="O108" s="21"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
     </row>
     <row r="109" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A109" s="67"/>
+      <c r="A109" s="66"/>
       <c r="B109" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="141" t="s">
-        <v>217</v>
-      </c>
-      <c r="D109" s="142"/>
-      <c r="E109" s="142"/>
-      <c r="F109" s="142"/>
-      <c r="G109" s="142"/>
-      <c r="H109" s="142"/>
-      <c r="I109" s="143"/>
+      <c r="C109" s="147" t="s">
+        <v>216</v>
+      </c>
+      <c r="D109" s="148"/>
+      <c r="E109" s="148"/>
+      <c r="F109" s="148"/>
+      <c r="G109" s="148"/>
+      <c r="H109" s="148"/>
+      <c r="I109" s="149"/>
       <c r="J109" s="11" t="s">
         <v>10</v>
       </c>
@@ -7536,36 +7781,34 @@
       <c r="O109" s="21"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
-      <c r="R109" s="23"/>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="67"/>
-      <c r="B110" s="138" t="s">
+      <c r="A110" s="66"/>
+      <c r="B110" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C110" s="139"/>
-      <c r="D110" s="139"/>
-      <c r="E110" s="139"/>
-      <c r="F110" s="140"/>
-      <c r="G110" s="134" t="s">
+      <c r="C110" s="160"/>
+      <c r="D110" s="160"/>
+      <c r="E110" s="160"/>
+      <c r="F110" s="161"/>
+      <c r="G110" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H110" s="135"/>
-      <c r="I110" s="137"/>
-      <c r="J110" s="134" t="s">
+      <c r="H110" s="151"/>
+      <c r="I110" s="162"/>
+      <c r="J110" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K110" s="135"/>
-      <c r="L110" s="135"/>
-      <c r="M110" s="135"/>
-      <c r="N110" s="136"/>
+      <c r="K110" s="151"/>
+      <c r="L110" s="151"/>
+      <c r="M110" s="151"/>
+      <c r="N110" s="152"/>
       <c r="O110" s="21"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="67"/>
+      <c r="A111" s="66"/>
       <c r="B111" s="8">
         <v>1</v>
       </c>
@@ -7580,20 +7823,19 @@
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="5"/>
-      <c r="J111" s="127" t="s">
-        <v>217</v>
-      </c>
-      <c r="K111" s="128"/>
-      <c r="L111" s="128"/>
-      <c r="M111" s="128"/>
-      <c r="N111" s="129"/>
+      <c r="J111" s="153" t="s">
+        <v>216</v>
+      </c>
+      <c r="K111" s="154"/>
+      <c r="L111" s="154"/>
+      <c r="M111" s="154"/>
+      <c r="N111" s="155"/>
       <c r="O111" s="21"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
-      <c r="R111" s="23"/>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="67"/>
+      <c r="A112" s="66"/>
       <c r="B112" s="16">
         <v>2</v>
       </c>
@@ -7608,18 +7850,18 @@
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="2"/>
-      <c r="J112" s="127"/>
-      <c r="K112" s="128"/>
-      <c r="L112" s="128"/>
-      <c r="M112" s="128"/>
-      <c r="N112" s="129"/>
+      <c r="J112" s="153"/>
+      <c r="K112" s="154"/>
+      <c r="L112" s="154"/>
+      <c r="M112" s="154"/>
+      <c r="N112" s="155"/>
       <c r="O112" s="21"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="17"/>
     </row>
     <row r="113" spans="1:18">
-      <c r="A113" s="67"/>
+      <c r="A113" s="66"/>
       <c r="B113" s="16">
         <v>3</v>
       </c>
@@ -7632,18 +7874,18 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="2"/>
-      <c r="J113" s="127"/>
-      <c r="K113" s="128"/>
-      <c r="L113" s="128"/>
-      <c r="M113" s="128"/>
-      <c r="N113" s="129"/>
+      <c r="J113" s="153"/>
+      <c r="K113" s="154"/>
+      <c r="L113" s="154"/>
+      <c r="M113" s="154"/>
+      <c r="N113" s="155"/>
       <c r="O113" s="21"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="17"/>
     </row>
     <row r="114" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A114" s="67"/>
+      <c r="A114" s="66"/>
       <c r="B114" s="9">
         <v>4</v>
       </c>
@@ -7653,14 +7895,14 @@
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="61"/>
+      <c r="G114" s="60"/>
       <c r="H114" s="6"/>
       <c r="I114" s="14"/>
-      <c r="J114" s="130"/>
-      <c r="K114" s="131"/>
-      <c r="L114" s="131"/>
-      <c r="M114" s="131"/>
-      <c r="N114" s="132"/>
+      <c r="J114" s="156"/>
+      <c r="K114" s="157"/>
+      <c r="L114" s="157"/>
+      <c r="M114" s="157"/>
+      <c r="N114" s="158"/>
       <c r="O114" s="21"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
@@ -7676,11 +7918,11 @@
       <c r="G115" s="27"/>
       <c r="H115" s="23"/>
       <c r="I115" s="23"/>
-      <c r="J115" s="63"/>
-      <c r="K115" s="63"/>
-      <c r="L115" s="63"/>
-      <c r="M115" s="63"/>
-      <c r="N115" s="63"/>
+      <c r="J115" s="62"/>
+      <c r="K115" s="62"/>
+      <c r="L115" s="62"/>
+      <c r="M115" s="62"/>
+      <c r="N115" s="62"/>
       <c r="O115" s="21"/>
       <c r="P115" s="23"/>
       <c r="Q115" s="23"/>
@@ -7691,15 +7933,15 @@
       <c r="B116" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C116" s="141" t="s">
+      <c r="C116" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="D116" s="142"/>
-      <c r="E116" s="142"/>
-      <c r="F116" s="142"/>
-      <c r="G116" s="142"/>
-      <c r="H116" s="142"/>
-      <c r="I116" s="143"/>
+      <c r="D116" s="148"/>
+      <c r="E116" s="148"/>
+      <c r="F116" s="148"/>
+      <c r="G116" s="148"/>
+      <c r="H116" s="148"/>
+      <c r="I116" s="149"/>
       <c r="J116" s="11" t="s">
         <v>10</v>
       </c>
@@ -7718,25 +7960,25 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="18"/>
-      <c r="B117" s="138" t="s">
+      <c r="B117" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="139"/>
-      <c r="D117" s="139"/>
-      <c r="E117" s="139"/>
-      <c r="F117" s="140"/>
-      <c r="G117" s="134" t="s">
+      <c r="C117" s="160"/>
+      <c r="D117" s="160"/>
+      <c r="E117" s="160"/>
+      <c r="F117" s="161"/>
+      <c r="G117" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H117" s="135"/>
-      <c r="I117" s="137"/>
-      <c r="J117" s="134" t="s">
+      <c r="H117" s="151"/>
+      <c r="I117" s="162"/>
+      <c r="J117" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K117" s="135"/>
-      <c r="L117" s="135"/>
-      <c r="M117" s="135"/>
-      <c r="N117" s="136"/>
+      <c r="K117" s="151"/>
+      <c r="L117" s="151"/>
+      <c r="M117" s="151"/>
+      <c r="N117" s="152"/>
       <c r="O117" s="21"/>
       <c r="P117" s="23"/>
       <c r="Q117" s="23"/>
@@ -7758,13 +8000,13 @@
       </c>
       <c r="H118" s="4"/>
       <c r="I118" s="5"/>
-      <c r="J118" s="127" t="s">
+      <c r="J118" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="K118" s="128"/>
-      <c r="L118" s="128"/>
-      <c r="M118" s="128"/>
-      <c r="N118" s="129"/>
+      <c r="K118" s="154"/>
+      <c r="L118" s="154"/>
+      <c r="M118" s="154"/>
+      <c r="N118" s="155"/>
       <c r="O118" s="21"/>
       <c r="P118" s="23"/>
       <c r="Q118" s="23"/>
@@ -7786,11 +8028,11 @@
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="2"/>
-      <c r="J119" s="127"/>
-      <c r="K119" s="128"/>
-      <c r="L119" s="128"/>
-      <c r="M119" s="128"/>
-      <c r="N119" s="129"/>
+      <c r="J119" s="153"/>
+      <c r="K119" s="154"/>
+      <c r="L119" s="154"/>
+      <c r="M119" s="154"/>
+      <c r="N119" s="155"/>
       <c r="O119" s="21"/>
       <c r="P119" s="23"/>
       <c r="Q119" s="23"/>
@@ -7810,11 +8052,11 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="2"/>
-      <c r="J120" s="127"/>
-      <c r="K120" s="128"/>
-      <c r="L120" s="128"/>
-      <c r="M120" s="128"/>
-      <c r="N120" s="129"/>
+      <c r="J120" s="153"/>
+      <c r="K120" s="154"/>
+      <c r="L120" s="154"/>
+      <c r="M120" s="154"/>
+      <c r="N120" s="155"/>
       <c r="O120" s="21"/>
       <c r="P120" s="23"/>
       <c r="Q120" s="23"/>
@@ -7834,11 +8076,11 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="2"/>
-      <c r="J121" s="127"/>
-      <c r="K121" s="128"/>
-      <c r="L121" s="128"/>
-      <c r="M121" s="128"/>
-      <c r="N121" s="129"/>
+      <c r="J121" s="153"/>
+      <c r="K121" s="154"/>
+      <c r="L121" s="154"/>
+      <c r="M121" s="154"/>
+      <c r="N121" s="155"/>
       <c r="O121" s="21"/>
       <c r="P121" s="23"/>
       <c r="Q121" s="23"/>
@@ -7855,14 +8097,14 @@
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
-      <c r="G122" s="61"/>
+      <c r="G122" s="60"/>
       <c r="H122" s="6"/>
       <c r="I122" s="14"/>
-      <c r="J122" s="130"/>
-      <c r="K122" s="131"/>
-      <c r="L122" s="131"/>
-      <c r="M122" s="131"/>
-      <c r="N122" s="132"/>
+      <c r="J122" s="156"/>
+      <c r="K122" s="157"/>
+      <c r="L122" s="157"/>
+      <c r="M122" s="157"/>
+      <c r="N122" s="158"/>
       <c r="O122" s="21"/>
       <c r="P122" s="23"/>
       <c r="Q122" s="23"/>
@@ -7878,11 +8120,11 @@
       <c r="G123" s="27"/>
       <c r="H123" s="23"/>
       <c r="I123" s="23"/>
-      <c r="J123" s="63"/>
-      <c r="K123" s="63"/>
-      <c r="L123" s="63"/>
-      <c r="M123" s="63"/>
-      <c r="N123" s="63"/>
+      <c r="J123" s="62"/>
+      <c r="K123" s="62"/>
+      <c r="L123" s="62"/>
+      <c r="M123" s="62"/>
+      <c r="N123" s="62"/>
       <c r="O123" s="21"/>
       <c r="P123" s="23"/>
       <c r="Q123" s="23"/>
@@ -7893,15 +8135,15 @@
       <c r="B124" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C124" s="141" t="s">
+      <c r="C124" s="147" t="s">
         <v>128</v>
       </c>
-      <c r="D124" s="142"/>
-      <c r="E124" s="142"/>
-      <c r="F124" s="142"/>
-      <c r="G124" s="142"/>
-      <c r="H124" s="142"/>
-      <c r="I124" s="143"/>
+      <c r="D124" s="148"/>
+      <c r="E124" s="148"/>
+      <c r="F124" s="148"/>
+      <c r="G124" s="148"/>
+      <c r="H124" s="148"/>
+      <c r="I124" s="149"/>
       <c r="J124" s="11" t="s">
         <v>10</v>
       </c>
@@ -7920,25 +8162,25 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="18"/>
-      <c r="B125" s="138" t="s">
+      <c r="B125" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="139"/>
-      <c r="D125" s="139"/>
-      <c r="E125" s="139"/>
-      <c r="F125" s="140"/>
-      <c r="G125" s="134" t="s">
+      <c r="C125" s="160"/>
+      <c r="D125" s="160"/>
+      <c r="E125" s="160"/>
+      <c r="F125" s="161"/>
+      <c r="G125" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H125" s="135"/>
-      <c r="I125" s="137"/>
-      <c r="J125" s="134" t="s">
+      <c r="H125" s="151"/>
+      <c r="I125" s="162"/>
+      <c r="J125" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K125" s="135"/>
-      <c r="L125" s="135"/>
-      <c r="M125" s="135"/>
-      <c r="N125" s="136"/>
+      <c r="K125" s="151"/>
+      <c r="L125" s="151"/>
+      <c r="M125" s="151"/>
+      <c r="N125" s="152"/>
       <c r="O125" s="21"/>
       <c r="P125" s="23"/>
       <c r="Q125" s="23"/>
@@ -7960,13 +8202,13 @@
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="5"/>
-      <c r="J126" s="127" t="s">
+      <c r="J126" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="K126" s="128"/>
-      <c r="L126" s="128"/>
-      <c r="M126" s="128"/>
-      <c r="N126" s="129"/>
+      <c r="K126" s="154"/>
+      <c r="L126" s="154"/>
+      <c r="M126" s="154"/>
+      <c r="N126" s="155"/>
       <c r="O126" s="21"/>
       <c r="P126" s="23"/>
       <c r="Q126" s="23"/>
@@ -7988,11 +8230,11 @@
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="2"/>
-      <c r="J127" s="127"/>
-      <c r="K127" s="128"/>
-      <c r="L127" s="128"/>
-      <c r="M127" s="128"/>
-      <c r="N127" s="129"/>
+      <c r="J127" s="153"/>
+      <c r="K127" s="154"/>
+      <c r="L127" s="154"/>
+      <c r="M127" s="154"/>
+      <c r="N127" s="155"/>
       <c r="O127" s="21"/>
       <c r="P127" s="23"/>
       <c r="Q127" s="23"/>
@@ -8012,11 +8254,11 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="2"/>
-      <c r="J128" s="127"/>
-      <c r="K128" s="128"/>
-      <c r="L128" s="128"/>
-      <c r="M128" s="128"/>
-      <c r="N128" s="129"/>
+      <c r="J128" s="153"/>
+      <c r="K128" s="154"/>
+      <c r="L128" s="154"/>
+      <c r="M128" s="154"/>
+      <c r="N128" s="155"/>
       <c r="O128" s="21"/>
       <c r="P128" s="23"/>
       <c r="Q128" s="23"/>
@@ -8036,11 +8278,11 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="2"/>
-      <c r="J129" s="127"/>
-      <c r="K129" s="128"/>
-      <c r="L129" s="128"/>
-      <c r="M129" s="128"/>
-      <c r="N129" s="129"/>
+      <c r="J129" s="153"/>
+      <c r="K129" s="154"/>
+      <c r="L129" s="154"/>
+      <c r="M129" s="154"/>
+      <c r="N129" s="155"/>
       <c r="O129" s="21"/>
       <c r="P129" s="23"/>
       <c r="Q129" s="23"/>
@@ -8057,14 +8299,14 @@
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
-      <c r="G130" s="61"/>
+      <c r="G130" s="60"/>
       <c r="H130" s="6"/>
       <c r="I130" s="14"/>
-      <c r="J130" s="130"/>
-      <c r="K130" s="131"/>
-      <c r="L130" s="131"/>
-      <c r="M130" s="131"/>
-      <c r="N130" s="132"/>
+      <c r="J130" s="156"/>
+      <c r="K130" s="157"/>
+      <c r="L130" s="157"/>
+      <c r="M130" s="157"/>
+      <c r="N130" s="158"/>
       <c r="O130" s="21"/>
       <c r="P130" s="23"/>
       <c r="Q130" s="23"/>
@@ -8080,11 +8322,11 @@
       <c r="G131" s="27"/>
       <c r="H131" s="23"/>
       <c r="I131" s="23"/>
-      <c r="J131" s="63"/>
-      <c r="K131" s="63"/>
-      <c r="L131" s="63"/>
-      <c r="M131" s="63"/>
-      <c r="N131" s="63"/>
+      <c r="J131" s="62"/>
+      <c r="K131" s="62"/>
+      <c r="L131" s="62"/>
+      <c r="M131" s="62"/>
+      <c r="N131" s="62"/>
       <c r="O131" s="21"/>
       <c r="P131" s="23"/>
       <c r="Q131" s="23"/>
@@ -8095,15 +8337,15 @@
       <c r="B132" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C132" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D132" s="55"/>
-      <c r="E132" s="55"/>
-      <c r="F132" s="55"/>
-      <c r="G132" s="55"/>
-      <c r="H132" s="55"/>
-      <c r="I132" s="56"/>
+      <c r="C132" s="89" t="s">
+        <v>307</v>
+      </c>
+      <c r="D132" s="54"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="54"/>
+      <c r="H132" s="54"/>
+      <c r="I132" s="55"/>
       <c r="J132" s="11" t="s">
         <v>10</v>
       </c>
@@ -8122,25 +8364,25 @@
     </row>
     <row r="133" spans="1:18">
       <c r="A133" s="18"/>
-      <c r="B133" s="138" t="s">
+      <c r="B133" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C133" s="139"/>
-      <c r="D133" s="139"/>
-      <c r="E133" s="139"/>
-      <c r="F133" s="140"/>
-      <c r="G133" s="134" t="s">
+      <c r="C133" s="160"/>
+      <c r="D133" s="160"/>
+      <c r="E133" s="160"/>
+      <c r="F133" s="161"/>
+      <c r="G133" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H133" s="135"/>
-      <c r="I133" s="137"/>
-      <c r="J133" s="134" t="s">
+      <c r="H133" s="151"/>
+      <c r="I133" s="162"/>
+      <c r="J133" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K133" s="135"/>
-      <c r="L133" s="135"/>
-      <c r="M133" s="135"/>
-      <c r="N133" s="136"/>
+      <c r="K133" s="151"/>
+      <c r="L133" s="151"/>
+      <c r="M133" s="151"/>
+      <c r="N133" s="152"/>
       <c r="O133" s="21"/>
       <c r="P133" s="23"/>
       <c r="Q133" s="23"/>
@@ -8162,13 +8404,13 @@
       </c>
       <c r="H134" s="4"/>
       <c r="I134" s="5"/>
-      <c r="J134" s="144" t="s">
-        <v>140</v>
-      </c>
-      <c r="K134" s="145"/>
-      <c r="L134" s="145"/>
-      <c r="M134" s="145"/>
-      <c r="N134" s="146"/>
+      <c r="J134" s="163" t="s">
+        <v>139</v>
+      </c>
+      <c r="K134" s="164"/>
+      <c r="L134" s="164"/>
+      <c r="M134" s="164"/>
+      <c r="N134" s="165"/>
       <c r="O134" s="21"/>
       <c r="P134" s="23"/>
       <c r="Q134" s="23"/>
@@ -8190,11 +8432,11 @@
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="2"/>
-      <c r="J135" s="147"/>
-      <c r="K135" s="128"/>
-      <c r="L135" s="128"/>
-      <c r="M135" s="128"/>
-      <c r="N135" s="129"/>
+      <c r="J135" s="166"/>
+      <c r="K135" s="154"/>
+      <c r="L135" s="154"/>
+      <c r="M135" s="154"/>
+      <c r="N135" s="155"/>
       <c r="O135" s="21"/>
       <c r="P135" s="23"/>
       <c r="Q135" s="23"/>
@@ -8214,11 +8456,11 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="2"/>
-      <c r="J136" s="147"/>
-      <c r="K136" s="128"/>
-      <c r="L136" s="128"/>
-      <c r="M136" s="128"/>
-      <c r="N136" s="129"/>
+      <c r="J136" s="166"/>
+      <c r="K136" s="154"/>
+      <c r="L136" s="154"/>
+      <c r="M136" s="154"/>
+      <c r="N136" s="155"/>
       <c r="O136" s="21"/>
       <c r="P136" s="23"/>
       <c r="Q136" s="23"/>
@@ -8238,11 +8480,11 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="2"/>
-      <c r="J137" s="147"/>
-      <c r="K137" s="128"/>
-      <c r="L137" s="128"/>
-      <c r="M137" s="128"/>
-      <c r="N137" s="129"/>
+      <c r="J137" s="166"/>
+      <c r="K137" s="154"/>
+      <c r="L137" s="154"/>
+      <c r="M137" s="154"/>
+      <c r="N137" s="155"/>
       <c r="O137" s="21"/>
       <c r="P137" s="23"/>
       <c r="Q137" s="23"/>
@@ -8262,11 +8504,11 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="2"/>
-      <c r="J138" s="147"/>
-      <c r="K138" s="128"/>
-      <c r="L138" s="128"/>
-      <c r="M138" s="128"/>
-      <c r="N138" s="129"/>
+      <c r="J138" s="166"/>
+      <c r="K138" s="154"/>
+      <c r="L138" s="154"/>
+      <c r="M138" s="154"/>
+      <c r="N138" s="155"/>
       <c r="O138" s="21"/>
       <c r="P138" s="23"/>
       <c r="Q138" s="23"/>
@@ -8283,14 +8525,14 @@
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
-      <c r="G139" s="61"/>
+      <c r="G139" s="60"/>
       <c r="H139" s="6"/>
       <c r="I139" s="14"/>
-      <c r="J139" s="148"/>
-      <c r="K139" s="131"/>
-      <c r="L139" s="131"/>
-      <c r="M139" s="131"/>
-      <c r="N139" s="132"/>
+      <c r="J139" s="167"/>
+      <c r="K139" s="157"/>
+      <c r="L139" s="157"/>
+      <c r="M139" s="157"/>
+      <c r="N139" s="158"/>
       <c r="O139" s="21"/>
       <c r="P139" s="23"/>
       <c r="Q139" s="23"/>
@@ -8319,17 +8561,17 @@
     <row r="141" spans="1:18" ht="16.5" thickBot="1">
       <c r="A141" s="18"/>
       <c r="B141" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C141" s="141" t="s">
-        <v>141</v>
-      </c>
-      <c r="D141" s="142"/>
-      <c r="E141" s="142"/>
-      <c r="F141" s="142"/>
-      <c r="G141" s="142"/>
-      <c r="H141" s="142"/>
-      <c r="I141" s="143"/>
+        <v>142</v>
+      </c>
+      <c r="C141" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" s="148"/>
+      <c r="E141" s="148"/>
+      <c r="F141" s="148"/>
+      <c r="G141" s="148"/>
+      <c r="H141" s="148"/>
+      <c r="I141" s="149"/>
       <c r="J141" s="11" t="s">
         <v>10</v>
       </c>
@@ -8344,33 +8586,31 @@
       <c r="O141" s="21"/>
       <c r="P141" s="23"/>
       <c r="Q141" s="23"/>
-      <c r="R141" s="24"/>
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="18"/>
-      <c r="B142" s="138" t="s">
+      <c r="B142" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C142" s="139"/>
-      <c r="D142" s="139"/>
-      <c r="E142" s="139"/>
-      <c r="F142" s="140"/>
-      <c r="G142" s="134" t="s">
+      <c r="C142" s="160"/>
+      <c r="D142" s="160"/>
+      <c r="E142" s="160"/>
+      <c r="F142" s="161"/>
+      <c r="G142" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H142" s="135"/>
-      <c r="I142" s="137"/>
-      <c r="J142" s="134" t="s">
+      <c r="H142" s="151"/>
+      <c r="I142" s="162"/>
+      <c r="J142" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K142" s="135"/>
-      <c r="L142" s="135"/>
-      <c r="M142" s="135"/>
-      <c r="N142" s="136"/>
+      <c r="K142" s="151"/>
+      <c r="L142" s="151"/>
+      <c r="M142" s="151"/>
+      <c r="N142" s="152"/>
       <c r="O142" s="21"/>
       <c r="P142" s="23"/>
       <c r="Q142" s="23"/>
-      <c r="R142" s="24"/>
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="18"/>
@@ -8388,17 +8628,16 @@
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="5"/>
-      <c r="J143" s="144" t="s">
-        <v>142</v>
-      </c>
-      <c r="K143" s="145"/>
-      <c r="L143" s="145"/>
-      <c r="M143" s="145"/>
-      <c r="N143" s="146"/>
+      <c r="J143" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="K143" s="164"/>
+      <c r="L143" s="164"/>
+      <c r="M143" s="164"/>
+      <c r="N143" s="165"/>
       <c r="O143" s="21"/>
       <c r="P143" s="23"/>
       <c r="Q143" s="23"/>
-      <c r="R143" s="24"/>
     </row>
     <row r="144" spans="1:18">
       <c r="A144" s="18"/>
@@ -8416,15 +8655,14 @@
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="2"/>
-      <c r="J144" s="147"/>
-      <c r="K144" s="128"/>
-      <c r="L144" s="128"/>
-      <c r="M144" s="128"/>
-      <c r="N144" s="129"/>
+      <c r="J144" s="166"/>
+      <c r="K144" s="154"/>
+      <c r="L144" s="154"/>
+      <c r="M144" s="154"/>
+      <c r="N144" s="155"/>
       <c r="O144" s="21"/>
       <c r="P144" s="23"/>
       <c r="Q144" s="23"/>
-      <c r="R144" s="24"/>
     </row>
     <row r="145" spans="1:18">
       <c r="A145" s="18"/>
@@ -8440,15 +8678,14 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="2"/>
-      <c r="J145" s="147"/>
-      <c r="K145" s="128"/>
-      <c r="L145" s="128"/>
-      <c r="M145" s="128"/>
-      <c r="N145" s="129"/>
+      <c r="J145" s="166"/>
+      <c r="K145" s="154"/>
+      <c r="L145" s="154"/>
+      <c r="M145" s="154"/>
+      <c r="N145" s="155"/>
       <c r="O145" s="21"/>
       <c r="P145" s="23"/>
       <c r="Q145" s="23"/>
-      <c r="R145" s="24"/>
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="18"/>
@@ -8456,7 +8693,7 @@
         <v>4</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -8464,15 +8701,14 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="2"/>
-      <c r="J146" s="147"/>
-      <c r="K146" s="128"/>
-      <c r="L146" s="128"/>
-      <c r="M146" s="128"/>
-      <c r="N146" s="129"/>
+      <c r="J146" s="166"/>
+      <c r="K146" s="154"/>
+      <c r="L146" s="154"/>
+      <c r="M146" s="154"/>
+      <c r="N146" s="155"/>
       <c r="O146" s="21"/>
       <c r="P146" s="23"/>
       <c r="Q146" s="23"/>
-      <c r="R146" s="24"/>
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="18"/>
@@ -8488,15 +8724,14 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="2"/>
-      <c r="J147" s="147"/>
-      <c r="K147" s="128"/>
-      <c r="L147" s="128"/>
-      <c r="M147" s="128"/>
-      <c r="N147" s="129"/>
+      <c r="J147" s="166"/>
+      <c r="K147" s="154"/>
+      <c r="L147" s="154"/>
+      <c r="M147" s="154"/>
+      <c r="N147" s="155"/>
       <c r="O147" s="21"/>
       <c r="P147" s="23"/>
       <c r="Q147" s="23"/>
-      <c r="R147" s="24"/>
     </row>
     <row r="148" spans="1:18" ht="15.75" thickBot="1">
       <c r="A148" s="18"/>
@@ -8509,53 +8744,51 @@
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
-      <c r="G148" s="61"/>
+      <c r="G148" s="60"/>
       <c r="H148" s="6"/>
       <c r="I148" s="14"/>
-      <c r="J148" s="148"/>
-      <c r="K148" s="131"/>
-      <c r="L148" s="131"/>
-      <c r="M148" s="131"/>
-      <c r="N148" s="132"/>
+      <c r="J148" s="167"/>
+      <c r="K148" s="157"/>
+      <c r="L148" s="157"/>
+      <c r="M148" s="157"/>
+      <c r="N148" s="158"/>
       <c r="O148" s="21"/>
       <c r="P148" s="23"/>
       <c r="Q148" s="23"/>
-      <c r="R148" s="24"/>
     </row>
     <row r="149" spans="1:18" ht="16.5" thickBot="1">
       <c r="A149" s="18"/>
-      <c r="B149" s="58"/>
-      <c r="C149" s="58"/>
-      <c r="D149" s="58"/>
-      <c r="E149" s="58"/>
-      <c r="F149" s="58"/>
-      <c r="G149" s="58"/>
-      <c r="H149" s="58"/>
-      <c r="I149" s="58"/>
-      <c r="J149" s="57"/>
-      <c r="K149" s="57"/>
-      <c r="L149" s="57"/>
-      <c r="M149" s="57"/>
-      <c r="N149" s="57"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="57"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="57"/>
+      <c r="J149" s="56"/>
+      <c r="K149" s="56"/>
+      <c r="L149" s="56"/>
+      <c r="M149" s="56"/>
+      <c r="N149" s="56"/>
       <c r="O149" s="21"/>
       <c r="P149" s="23"/>
       <c r="Q149" s="23"/>
-      <c r="R149" s="24"/>
     </row>
     <row r="150" spans="1:18" ht="16.5" thickBot="1">
       <c r="A150" s="18"/>
       <c r="B150" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C150" s="141" t="s">
-        <v>149</v>
-      </c>
-      <c r="D150" s="142"/>
-      <c r="E150" s="142"/>
-      <c r="F150" s="142"/>
-      <c r="G150" s="142"/>
-      <c r="H150" s="142"/>
-      <c r="I150" s="143"/>
+        <v>143</v>
+      </c>
+      <c r="C150" s="147" t="s">
+        <v>148</v>
+      </c>
+      <c r="D150" s="148"/>
+      <c r="E150" s="148"/>
+      <c r="F150" s="148"/>
+      <c r="G150" s="148"/>
+      <c r="H150" s="148"/>
+      <c r="I150" s="149"/>
       <c r="J150" s="11" t="s">
         <v>10</v>
       </c>
@@ -8570,33 +8803,31 @@
       <c r="O150" s="21"/>
       <c r="P150" s="23"/>
       <c r="Q150" s="23"/>
-      <c r="R150" s="24"/>
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="18"/>
-      <c r="B151" s="138" t="s">
+      <c r="B151" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C151" s="139"/>
-      <c r="D151" s="139"/>
-      <c r="E151" s="139"/>
-      <c r="F151" s="140"/>
-      <c r="G151" s="134" t="s">
+      <c r="C151" s="160"/>
+      <c r="D151" s="160"/>
+      <c r="E151" s="160"/>
+      <c r="F151" s="161"/>
+      <c r="G151" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H151" s="135"/>
-      <c r="I151" s="137"/>
-      <c r="J151" s="134" t="s">
+      <c r="H151" s="151"/>
+      <c r="I151" s="162"/>
+      <c r="J151" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K151" s="135"/>
-      <c r="L151" s="135"/>
-      <c r="M151" s="135"/>
-      <c r="N151" s="136"/>
+      <c r="K151" s="151"/>
+      <c r="L151" s="151"/>
+      <c r="M151" s="151"/>
+      <c r="N151" s="152"/>
       <c r="O151" s="21"/>
       <c r="P151" s="23"/>
       <c r="Q151" s="23"/>
-      <c r="R151" s="24"/>
     </row>
     <row r="152" spans="1:18">
       <c r="A152" s="18"/>
@@ -8614,17 +8845,16 @@
       </c>
       <c r="H152" s="4"/>
       <c r="I152" s="5"/>
-      <c r="J152" s="144" t="s">
-        <v>146</v>
-      </c>
-      <c r="K152" s="145"/>
-      <c r="L152" s="145"/>
-      <c r="M152" s="145"/>
-      <c r="N152" s="146"/>
+      <c r="J152" s="163" t="s">
+        <v>145</v>
+      </c>
+      <c r="K152" s="164"/>
+      <c r="L152" s="164"/>
+      <c r="M152" s="164"/>
+      <c r="N152" s="165"/>
       <c r="O152" s="21"/>
       <c r="P152" s="23"/>
       <c r="Q152" s="23"/>
-      <c r="R152" s="24"/>
     </row>
     <row r="153" spans="1:18">
       <c r="B153" s="16">
@@ -8641,15 +8871,14 @@
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="2"/>
-      <c r="J153" s="147"/>
-      <c r="K153" s="128"/>
-      <c r="L153" s="128"/>
-      <c r="M153" s="128"/>
-      <c r="N153" s="129"/>
+      <c r="J153" s="166"/>
+      <c r="K153" s="154"/>
+      <c r="L153" s="154"/>
+      <c r="M153" s="154"/>
+      <c r="N153" s="155"/>
       <c r="O153" s="21"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-      <c r="R153" s="17"/>
     </row>
     <row r="154" spans="1:18">
       <c r="B154" s="16">
@@ -8664,15 +8893,14 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="2"/>
-      <c r="J154" s="147"/>
-      <c r="K154" s="128"/>
-      <c r="L154" s="128"/>
-      <c r="M154" s="128"/>
-      <c r="N154" s="129"/>
+      <c r="J154" s="166"/>
+      <c r="K154" s="154"/>
+      <c r="L154" s="154"/>
+      <c r="M154" s="154"/>
+      <c r="N154" s="155"/>
       <c r="O154" s="20"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-      <c r="R154" s="17"/>
     </row>
     <row r="155" spans="1:18">
       <c r="B155" s="16">
@@ -8687,22 +8915,21 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="2"/>
-      <c r="J155" s="147"/>
-      <c r="K155" s="128"/>
-      <c r="L155" s="128"/>
-      <c r="M155" s="128"/>
-      <c r="N155" s="129"/>
+      <c r="J155" s="166"/>
+      <c r="K155" s="154"/>
+      <c r="L155" s="154"/>
+      <c r="M155" s="154"/>
+      <c r="N155" s="155"/>
       <c r="O155" s="21"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-      <c r="R155" s="17"/>
     </row>
     <row r="156" spans="1:18">
       <c r="B156" s="16">
         <v>5</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -8710,11 +8937,11 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="2"/>
-      <c r="J156" s="147"/>
-      <c r="K156" s="128"/>
-      <c r="L156" s="128"/>
-      <c r="M156" s="128"/>
-      <c r="N156" s="129"/>
+      <c r="J156" s="166"/>
+      <c r="K156" s="154"/>
+      <c r="L156" s="154"/>
+      <c r="M156" s="154"/>
+      <c r="N156" s="155"/>
       <c r="O156" s="21"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
@@ -8725,7 +8952,7 @@
         <v>6</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -8733,11 +8960,11 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="2"/>
-      <c r="J157" s="147"/>
-      <c r="K157" s="128"/>
-      <c r="L157" s="128"/>
-      <c r="M157" s="128"/>
-      <c r="N157" s="129"/>
+      <c r="J157" s="166"/>
+      <c r="K157" s="154"/>
+      <c r="L157" s="154"/>
+      <c r="M157" s="154"/>
+      <c r="N157" s="155"/>
       <c r="O157" s="21"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
@@ -8753,14 +8980,14 @@
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
-      <c r="G158" s="61"/>
+      <c r="G158" s="60"/>
       <c r="H158" s="6"/>
       <c r="I158" s="14"/>
-      <c r="J158" s="148"/>
-      <c r="K158" s="131"/>
-      <c r="L158" s="131"/>
-      <c r="M158" s="131"/>
-      <c r="N158" s="132"/>
+      <c r="J158" s="167"/>
+      <c r="K158" s="157"/>
+      <c r="L158" s="157"/>
+      <c r="M158" s="157"/>
+      <c r="N158" s="158"/>
       <c r="O158" s="21"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
@@ -8775,11 +9002,11 @@
       <c r="G159" s="23"/>
       <c r="H159" s="23"/>
       <c r="I159" s="23"/>
-      <c r="J159" s="60"/>
-      <c r="K159" s="60"/>
-      <c r="L159" s="60"/>
-      <c r="M159" s="60"/>
-      <c r="N159" s="60"/>
+      <c r="J159" s="59"/>
+      <c r="K159" s="59"/>
+      <c r="L159" s="59"/>
+      <c r="M159" s="59"/>
+      <c r="N159" s="59"/>
       <c r="O159" s="18"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
@@ -8788,17 +9015,17 @@
     <row r="160" spans="1:18" ht="16.5" thickBot="1">
       <c r="A160" s="18"/>
       <c r="B160" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C160" s="141" t="s">
-        <v>152</v>
-      </c>
-      <c r="D160" s="142"/>
-      <c r="E160" s="142"/>
-      <c r="F160" s="142"/>
-      <c r="G160" s="142"/>
-      <c r="H160" s="142"/>
-      <c r="I160" s="143"/>
+        <v>146</v>
+      </c>
+      <c r="C160" s="147" t="s">
+        <v>151</v>
+      </c>
+      <c r="D160" s="148"/>
+      <c r="E160" s="148"/>
+      <c r="F160" s="148"/>
+      <c r="G160" s="148"/>
+      <c r="H160" s="148"/>
+      <c r="I160" s="149"/>
       <c r="J160" s="11" t="s">
         <v>10</v>
       </c>
@@ -8817,25 +9044,25 @@
     </row>
     <row r="161" spans="1:18">
       <c r="A161" s="18"/>
-      <c r="B161" s="138" t="s">
+      <c r="B161" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="139"/>
-      <c r="D161" s="139"/>
-      <c r="E161" s="139"/>
-      <c r="F161" s="140"/>
-      <c r="G161" s="134" t="s">
+      <c r="C161" s="160"/>
+      <c r="D161" s="160"/>
+      <c r="E161" s="160"/>
+      <c r="F161" s="161"/>
+      <c r="G161" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H161" s="135"/>
-      <c r="I161" s="137"/>
-      <c r="J161" s="134" t="s">
+      <c r="H161" s="151"/>
+      <c r="I161" s="162"/>
+      <c r="J161" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K161" s="135"/>
-      <c r="L161" s="135"/>
-      <c r="M161" s="135"/>
-      <c r="N161" s="136"/>
+      <c r="K161" s="151"/>
+      <c r="L161" s="151"/>
+      <c r="M161" s="151"/>
+      <c r="N161" s="152"/>
       <c r="O161" s="21"/>
       <c r="P161" s="23"/>
       <c r="Q161" s="23"/>
@@ -8857,13 +9084,13 @@
       </c>
       <c r="H162" s="4"/>
       <c r="I162" s="5"/>
-      <c r="J162" s="144" t="s">
-        <v>151</v>
-      </c>
-      <c r="K162" s="145"/>
-      <c r="L162" s="145"/>
-      <c r="M162" s="145"/>
-      <c r="N162" s="146"/>
+      <c r="J162" s="163" t="s">
+        <v>150</v>
+      </c>
+      <c r="K162" s="164"/>
+      <c r="L162" s="164"/>
+      <c r="M162" s="164"/>
+      <c r="N162" s="165"/>
       <c r="O162" s="21"/>
       <c r="P162" s="23"/>
       <c r="Q162" s="23"/>
@@ -8884,11 +9111,11 @@
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="2"/>
-      <c r="J163" s="147"/>
-      <c r="K163" s="128"/>
-      <c r="L163" s="128"/>
-      <c r="M163" s="128"/>
-      <c r="N163" s="129"/>
+      <c r="J163" s="166"/>
+      <c r="K163" s="154"/>
+      <c r="L163" s="154"/>
+      <c r="M163" s="154"/>
+      <c r="N163" s="155"/>
       <c r="O163" s="21"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
@@ -8907,11 +9134,11 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="2"/>
-      <c r="J164" s="147"/>
-      <c r="K164" s="128"/>
-      <c r="L164" s="128"/>
-      <c r="M164" s="128"/>
-      <c r="N164" s="129"/>
+      <c r="J164" s="166"/>
+      <c r="K164" s="154"/>
+      <c r="L164" s="154"/>
+      <c r="M164" s="154"/>
+      <c r="N164" s="155"/>
       <c r="O164" s="20"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
@@ -8930,11 +9157,11 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="2"/>
-      <c r="J165" s="147"/>
-      <c r="K165" s="128"/>
-      <c r="L165" s="128"/>
-      <c r="M165" s="128"/>
-      <c r="N165" s="129"/>
+      <c r="J165" s="166"/>
+      <c r="K165" s="154"/>
+      <c r="L165" s="154"/>
+      <c r="M165" s="154"/>
+      <c r="N165" s="155"/>
       <c r="O165" s="21"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
@@ -8945,7 +9172,7 @@
         <v>5</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -8953,11 +9180,11 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="2"/>
-      <c r="J166" s="147"/>
-      <c r="K166" s="128"/>
-      <c r="L166" s="128"/>
-      <c r="M166" s="128"/>
-      <c r="N166" s="129"/>
+      <c r="J166" s="166"/>
+      <c r="K166" s="154"/>
+      <c r="L166" s="154"/>
+      <c r="M166" s="154"/>
+      <c r="N166" s="155"/>
       <c r="O166" s="21"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
@@ -8968,7 +9195,7 @@
         <v>6</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -8976,11 +9203,11 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="2"/>
-      <c r="J167" s="147"/>
-      <c r="K167" s="128"/>
-      <c r="L167" s="128"/>
-      <c r="M167" s="128"/>
-      <c r="N167" s="129"/>
+      <c r="J167" s="166"/>
+      <c r="K167" s="154"/>
+      <c r="L167" s="154"/>
+      <c r="M167" s="154"/>
+      <c r="N167" s="155"/>
       <c r="O167" s="21"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
@@ -8996,14 +9223,14 @@
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
-      <c r="G168" s="61"/>
+      <c r="G168" s="60"/>
       <c r="H168" s="6"/>
       <c r="I168" s="14"/>
-      <c r="J168" s="148"/>
-      <c r="K168" s="131"/>
-      <c r="L168" s="131"/>
-      <c r="M168" s="131"/>
-      <c r="N168" s="132"/>
+      <c r="J168" s="167"/>
+      <c r="K168" s="157"/>
+      <c r="L168" s="157"/>
+      <c r="M168" s="157"/>
+      <c r="N168" s="158"/>
       <c r="O168" s="21"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
@@ -9018,11 +9245,11 @@
       <c r="G169" s="23"/>
       <c r="H169" s="23"/>
       <c r="I169" s="23"/>
-      <c r="J169" s="60"/>
-      <c r="K169" s="60"/>
-      <c r="L169" s="60"/>
-      <c r="M169" s="60"/>
-      <c r="N169" s="60"/>
+      <c r="J169" s="59"/>
+      <c r="K169" s="59"/>
+      <c r="L169" s="59"/>
+      <c r="M169" s="59"/>
+      <c r="N169" s="59"/>
       <c r="O169" s="18"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
@@ -9031,17 +9258,17 @@
     <row r="170" spans="1:18" ht="16.5" thickBot="1">
       <c r="A170" s="18"/>
       <c r="B170" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C170" s="141" t="s">
-        <v>156</v>
-      </c>
-      <c r="D170" s="142"/>
-      <c r="E170" s="142"/>
-      <c r="F170" s="142"/>
-      <c r="G170" s="142"/>
-      <c r="H170" s="142"/>
-      <c r="I170" s="143"/>
+        <v>152</v>
+      </c>
+      <c r="C170" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="D170" s="148"/>
+      <c r="E170" s="148"/>
+      <c r="F170" s="148"/>
+      <c r="G170" s="148"/>
+      <c r="H170" s="148"/>
+      <c r="I170" s="149"/>
       <c r="J170" s="11" t="s">
         <v>10</v>
       </c>
@@ -9056,33 +9283,31 @@
       <c r="O170" s="21"/>
       <c r="P170" s="23"/>
       <c r="Q170" s="23"/>
-      <c r="R170" s="24"/>
     </row>
     <row r="171" spans="1:18">
       <c r="A171" s="18"/>
-      <c r="B171" s="138" t="s">
+      <c r="B171" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C171" s="139"/>
-      <c r="D171" s="139"/>
-      <c r="E171" s="139"/>
-      <c r="F171" s="140"/>
-      <c r="G171" s="134" t="s">
+      <c r="C171" s="160"/>
+      <c r="D171" s="160"/>
+      <c r="E171" s="160"/>
+      <c r="F171" s="161"/>
+      <c r="G171" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H171" s="135"/>
-      <c r="I171" s="137"/>
-      <c r="J171" s="134" t="s">
+      <c r="H171" s="151"/>
+      <c r="I171" s="162"/>
+      <c r="J171" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K171" s="135"/>
-      <c r="L171" s="135"/>
-      <c r="M171" s="135"/>
-      <c r="N171" s="136"/>
+      <c r="K171" s="151"/>
+      <c r="L171" s="151"/>
+      <c r="M171" s="151"/>
+      <c r="N171" s="152"/>
       <c r="O171" s="21"/>
       <c r="P171" s="23"/>
       <c r="Q171" s="23"/>
-      <c r="R171" s="24"/>
     </row>
     <row r="172" spans="1:18">
       <c r="A172" s="18"/>
@@ -9100,17 +9325,16 @@
       </c>
       <c r="H172" s="4"/>
       <c r="I172" s="5"/>
-      <c r="J172" s="144" t="s">
-        <v>155</v>
-      </c>
-      <c r="K172" s="145"/>
-      <c r="L172" s="145"/>
-      <c r="M172" s="145"/>
-      <c r="N172" s="146"/>
+      <c r="J172" s="163" t="s">
+        <v>154</v>
+      </c>
+      <c r="K172" s="164"/>
+      <c r="L172" s="164"/>
+      <c r="M172" s="164"/>
+      <c r="N172" s="165"/>
       <c r="O172" s="21"/>
       <c r="P172" s="23"/>
       <c r="Q172" s="23"/>
-      <c r="R172" s="24"/>
     </row>
     <row r="173" spans="1:18">
       <c r="B173" s="16">
@@ -9127,22 +9351,21 @@
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="2"/>
-      <c r="J173" s="147"/>
-      <c r="K173" s="128"/>
-      <c r="L173" s="128"/>
-      <c r="M173" s="128"/>
-      <c r="N173" s="129"/>
+      <c r="J173" s="166"/>
+      <c r="K173" s="154"/>
+      <c r="L173" s="154"/>
+      <c r="M173" s="154"/>
+      <c r="N173" s="155"/>
       <c r="O173" s="21"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-      <c r="R173" s="17"/>
     </row>
     <row r="174" spans="1:18" ht="15.75" thickBot="1">
       <c r="B174" s="9">
         <v>3</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
@@ -9150,15 +9373,14 @@
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
       <c r="I174" s="14"/>
-      <c r="J174" s="148"/>
-      <c r="K174" s="131"/>
-      <c r="L174" s="131"/>
-      <c r="M174" s="131"/>
-      <c r="N174" s="132"/>
+      <c r="J174" s="167"/>
+      <c r="K174" s="157"/>
+      <c r="L174" s="157"/>
+      <c r="M174" s="157"/>
+      <c r="N174" s="158"/>
       <c r="O174" s="20"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
-      <c r="R174" s="17"/>
     </row>
     <row r="175" spans="1:18" ht="15.75" thickBot="1">
       <c r="A175" s="23"/>
@@ -9178,22 +9400,21 @@
       <c r="O175" s="20"/>
       <c r="P175" s="23"/>
       <c r="Q175" s="23"/>
-      <c r="R175" s="24"/>
     </row>
     <row r="176" spans="1:18" ht="16.5" thickBot="1">
       <c r="A176" s="23"/>
       <c r="B176" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C176" s="147" t="s">
         <v>192</v>
       </c>
-      <c r="C176" s="141" t="s">
-        <v>193</v>
-      </c>
-      <c r="D176" s="142"/>
-      <c r="E176" s="142"/>
-      <c r="F176" s="142"/>
-      <c r="G176" s="142"/>
-      <c r="H176" s="142"/>
-      <c r="I176" s="143"/>
+      <c r="D176" s="148"/>
+      <c r="E176" s="148"/>
+      <c r="F176" s="148"/>
+      <c r="G176" s="148"/>
+      <c r="H176" s="148"/>
+      <c r="I176" s="149"/>
       <c r="J176" s="11" t="s">
         <v>10</v>
       </c>
@@ -9208,33 +9429,31 @@
       <c r="O176" s="20"/>
       <c r="P176" s="23"/>
       <c r="Q176" s="23"/>
-      <c r="R176" s="24"/>
     </row>
     <row r="177" spans="1:18">
       <c r="A177" s="23"/>
-      <c r="B177" s="138" t="s">
+      <c r="B177" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="139"/>
-      <c r="D177" s="139"/>
-      <c r="E177" s="139"/>
-      <c r="F177" s="140"/>
-      <c r="G177" s="134" t="s">
+      <c r="C177" s="160"/>
+      <c r="D177" s="160"/>
+      <c r="E177" s="160"/>
+      <c r="F177" s="161"/>
+      <c r="G177" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H177" s="135"/>
-      <c r="I177" s="137"/>
-      <c r="J177" s="134" t="s">
+      <c r="H177" s="151"/>
+      <c r="I177" s="162"/>
+      <c r="J177" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K177" s="135"/>
-      <c r="L177" s="135"/>
-      <c r="M177" s="135"/>
-      <c r="N177" s="136"/>
+      <c r="K177" s="151"/>
+      <c r="L177" s="151"/>
+      <c r="M177" s="151"/>
+      <c r="N177" s="152"/>
       <c r="O177" s="20"/>
       <c r="P177" s="23"/>
       <c r="Q177" s="23"/>
-      <c r="R177" s="24"/>
     </row>
     <row r="178" spans="1:18">
       <c r="A178" s="23"/>
@@ -9252,17 +9471,16 @@
       </c>
       <c r="H178" s="4"/>
       <c r="I178" s="5"/>
-      <c r="J178" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="K178" s="145"/>
-      <c r="L178" s="145"/>
-      <c r="M178" s="145"/>
-      <c r="N178" s="146"/>
+      <c r="J178" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="K178" s="164"/>
+      <c r="L178" s="164"/>
+      <c r="M178" s="164"/>
+      <c r="N178" s="165"/>
       <c r="O178" s="20"/>
       <c r="P178" s="23"/>
       <c r="Q178" s="23"/>
-      <c r="R178" s="24"/>
     </row>
     <row r="179" spans="1:18">
       <c r="A179" s="23"/>
@@ -9280,15 +9498,14 @@
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="2"/>
-      <c r="J179" s="147"/>
-      <c r="K179" s="128"/>
-      <c r="L179" s="128"/>
-      <c r="M179" s="128"/>
-      <c r="N179" s="129"/>
+      <c r="J179" s="166"/>
+      <c r="K179" s="154"/>
+      <c r="L179" s="154"/>
+      <c r="M179" s="154"/>
+      <c r="N179" s="155"/>
       <c r="O179" s="20"/>
       <c r="P179" s="23"/>
       <c r="Q179" s="23"/>
-      <c r="R179" s="24"/>
     </row>
     <row r="180" spans="1:18" ht="15.75" thickBot="1">
       <c r="A180" s="18"/>
@@ -9296,7 +9513,7 @@
         <v>3</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
@@ -9304,15 +9521,14 @@
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
       <c r="I180" s="14"/>
-      <c r="J180" s="148"/>
-      <c r="K180" s="131"/>
-      <c r="L180" s="131"/>
-      <c r="M180" s="131"/>
-      <c r="N180" s="132"/>
+      <c r="J180" s="167"/>
+      <c r="K180" s="157"/>
+      <c r="L180" s="157"/>
+      <c r="M180" s="157"/>
+      <c r="N180" s="158"/>
       <c r="O180" s="21"/>
       <c r="P180" s="23"/>
       <c r="Q180" s="23"/>
-      <c r="R180" s="24"/>
     </row>
     <row r="181" spans="1:18" ht="15.75" thickBot="1">
       <c r="A181" s="18"/>
@@ -9332,22 +9548,21 @@
       <c r="O181" s="21"/>
       <c r="P181" s="23"/>
       <c r="Q181" s="23"/>
-      <c r="R181" s="24"/>
     </row>
     <row r="182" spans="1:18" ht="16.5" thickBot="1">
       <c r="A182" s="18"/>
       <c r="B182" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C182" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="C182" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="D182" s="142"/>
-      <c r="E182" s="142"/>
-      <c r="F182" s="142"/>
-      <c r="G182" s="142"/>
-      <c r="H182" s="142"/>
-      <c r="I182" s="143"/>
+      <c r="D182" s="148"/>
+      <c r="E182" s="148"/>
+      <c r="F182" s="148"/>
+      <c r="G182" s="148"/>
+      <c r="H182" s="148"/>
+      <c r="I182" s="149"/>
       <c r="J182" s="11" t="s">
         <v>10</v>
       </c>
@@ -9366,25 +9581,25 @@
     </row>
     <row r="183" spans="1:18">
       <c r="A183" s="18"/>
-      <c r="B183" s="138" t="s">
+      <c r="B183" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C183" s="139"/>
-      <c r="D183" s="139"/>
-      <c r="E183" s="139"/>
-      <c r="F183" s="140"/>
-      <c r="G183" s="134" t="s">
+      <c r="C183" s="160"/>
+      <c r="D183" s="160"/>
+      <c r="E183" s="160"/>
+      <c r="F183" s="161"/>
+      <c r="G183" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H183" s="135"/>
-      <c r="I183" s="137"/>
-      <c r="J183" s="134" t="s">
+      <c r="H183" s="151"/>
+      <c r="I183" s="162"/>
+      <c r="J183" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K183" s="135"/>
-      <c r="L183" s="135"/>
-      <c r="M183" s="135"/>
-      <c r="N183" s="136"/>
+      <c r="K183" s="151"/>
+      <c r="L183" s="151"/>
+      <c r="M183" s="151"/>
+      <c r="N183" s="152"/>
       <c r="O183" s="21"/>
       <c r="P183" s="23"/>
       <c r="Q183" s="23"/>
@@ -9406,13 +9621,13 @@
       </c>
       <c r="H184" s="4"/>
       <c r="I184" s="5"/>
-      <c r="J184" s="144" t="s">
-        <v>159</v>
-      </c>
-      <c r="K184" s="145"/>
-      <c r="L184" s="145"/>
-      <c r="M184" s="145"/>
-      <c r="N184" s="146"/>
+      <c r="J184" s="163" t="s">
+        <v>158</v>
+      </c>
+      <c r="K184" s="164"/>
+      <c r="L184" s="164"/>
+      <c r="M184" s="164"/>
+      <c r="N184" s="165"/>
       <c r="O184" s="21"/>
       <c r="P184" s="23"/>
       <c r="Q184" s="23"/>
@@ -9434,11 +9649,11 @@
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="2"/>
-      <c r="J185" s="147"/>
-      <c r="K185" s="128"/>
-      <c r="L185" s="128"/>
-      <c r="M185" s="128"/>
-      <c r="N185" s="129"/>
+      <c r="J185" s="166"/>
+      <c r="K185" s="154"/>
+      <c r="L185" s="154"/>
+      <c r="M185" s="154"/>
+      <c r="N185" s="155"/>
       <c r="O185" s="21"/>
       <c r="P185" s="23"/>
       <c r="Q185" s="23"/>
@@ -9450,7 +9665,7 @@
         <v>3</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
@@ -9458,11 +9673,11 @@
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
       <c r="I186" s="14"/>
-      <c r="J186" s="148"/>
-      <c r="K186" s="131"/>
-      <c r="L186" s="131"/>
-      <c r="M186" s="131"/>
-      <c r="N186" s="132"/>
+      <c r="J186" s="167"/>
+      <c r="K186" s="157"/>
+      <c r="L186" s="157"/>
+      <c r="M186" s="157"/>
+      <c r="N186" s="158"/>
       <c r="O186" s="21"/>
       <c r="P186" s="23"/>
       <c r="Q186" s="23"/>
@@ -9489,19 +9704,19 @@
       <c r="R187" s="24"/>
     </row>
     <row r="188" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A188" s="68"/>
+      <c r="A188" s="67"/>
       <c r="B188" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C188" s="147" t="s">
         <v>221</v>
       </c>
-      <c r="C188" s="141" t="s">
-        <v>222</v>
-      </c>
-      <c r="D188" s="142"/>
-      <c r="E188" s="142"/>
-      <c r="F188" s="142"/>
-      <c r="G188" s="142"/>
-      <c r="H188" s="142"/>
-      <c r="I188" s="143"/>
+      <c r="D188" s="148"/>
+      <c r="E188" s="148"/>
+      <c r="F188" s="148"/>
+      <c r="G188" s="148"/>
+      <c r="H188" s="148"/>
+      <c r="I188" s="149"/>
       <c r="J188" s="11" t="s">
         <v>10</v>
       </c>
@@ -9519,33 +9734,33 @@
       <c r="R188" s="24"/>
     </row>
     <row r="189" spans="1:18">
-      <c r="A189" s="68"/>
-      <c r="B189" s="138" t="s">
+      <c r="A189" s="67"/>
+      <c r="B189" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C189" s="139"/>
-      <c r="D189" s="139"/>
-      <c r="E189" s="139"/>
-      <c r="F189" s="140"/>
-      <c r="G189" s="134" t="s">
+      <c r="C189" s="160"/>
+      <c r="D189" s="160"/>
+      <c r="E189" s="160"/>
+      <c r="F189" s="161"/>
+      <c r="G189" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H189" s="135"/>
-      <c r="I189" s="137"/>
-      <c r="J189" s="134" t="s">
+      <c r="H189" s="151"/>
+      <c r="I189" s="162"/>
+      <c r="J189" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K189" s="135"/>
-      <c r="L189" s="135"/>
-      <c r="M189" s="135"/>
-      <c r="N189" s="136"/>
+      <c r="K189" s="151"/>
+      <c r="L189" s="151"/>
+      <c r="M189" s="151"/>
+      <c r="N189" s="152"/>
       <c r="O189" s="21"/>
       <c r="P189" s="23"/>
       <c r="Q189" s="23"/>
       <c r="R189" s="24"/>
     </row>
     <row r="190" spans="1:18">
-      <c r="A190" s="68"/>
+      <c r="A190" s="67"/>
       <c r="B190" s="8">
         <v>1</v>
       </c>
@@ -9560,20 +9775,20 @@
       </c>
       <c r="H190" s="4"/>
       <c r="I190" s="5"/>
-      <c r="J190" s="144" t="s">
-        <v>222</v>
-      </c>
-      <c r="K190" s="145"/>
-      <c r="L190" s="145"/>
-      <c r="M190" s="145"/>
-      <c r="N190" s="146"/>
+      <c r="J190" s="163" t="s">
+        <v>221</v>
+      </c>
+      <c r="K190" s="164"/>
+      <c r="L190" s="164"/>
+      <c r="M190" s="164"/>
+      <c r="N190" s="165"/>
       <c r="O190" s="21"/>
       <c r="P190" s="23"/>
       <c r="Q190" s="23"/>
       <c r="R190" s="24"/>
     </row>
     <row r="191" spans="1:18">
-      <c r="A191" s="68"/>
+      <c r="A191" s="67"/>
       <c r="B191" s="16">
         <v>2</v>
       </c>
@@ -9588,23 +9803,23 @@
       </c>
       <c r="H191" s="1"/>
       <c r="I191" s="2"/>
-      <c r="J191" s="147"/>
-      <c r="K191" s="128"/>
-      <c r="L191" s="128"/>
-      <c r="M191" s="128"/>
-      <c r="N191" s="129"/>
+      <c r="J191" s="166"/>
+      <c r="K191" s="154"/>
+      <c r="L191" s="154"/>
+      <c r="M191" s="154"/>
+      <c r="N191" s="155"/>
       <c r="O191" s="21"/>
       <c r="P191" s="23"/>
       <c r="Q191" s="23"/>
       <c r="R191" s="24"/>
     </row>
     <row r="192" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A192" s="68"/>
+      <c r="A192" s="67"/>
       <c r="B192" s="9">
         <v>3</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
@@ -9612,11 +9827,11 @@
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
       <c r="I192" s="14"/>
-      <c r="J192" s="148"/>
-      <c r="K192" s="131"/>
-      <c r="L192" s="131"/>
-      <c r="M192" s="131"/>
-      <c r="N192" s="132"/>
+      <c r="J192" s="167"/>
+      <c r="K192" s="157"/>
+      <c r="L192" s="157"/>
+      <c r="M192" s="157"/>
+      <c r="N192" s="158"/>
       <c r="O192" s="21"/>
       <c r="P192" s="23"/>
       <c r="Q192" s="23"/>
@@ -9645,17 +9860,17 @@
     <row r="194" spans="1:18" ht="16.5" thickBot="1">
       <c r="A194" s="18"/>
       <c r="B194" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C194" s="141" t="s">
-        <v>165</v>
-      </c>
-      <c r="D194" s="142"/>
-      <c r="E194" s="142"/>
-      <c r="F194" s="142"/>
-      <c r="G194" s="142"/>
-      <c r="H194" s="142"/>
-      <c r="I194" s="143"/>
+        <v>162</v>
+      </c>
+      <c r="C194" s="147" t="s">
+        <v>164</v>
+      </c>
+      <c r="D194" s="148"/>
+      <c r="E194" s="148"/>
+      <c r="F194" s="148"/>
+      <c r="G194" s="148"/>
+      <c r="H194" s="148"/>
+      <c r="I194" s="149"/>
       <c r="J194" s="11" t="s">
         <v>10</v>
       </c>
@@ -9674,25 +9889,25 @@
     </row>
     <row r="195" spans="1:18">
       <c r="A195" s="18"/>
-      <c r="B195" s="138" t="s">
+      <c r="B195" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C195" s="139"/>
-      <c r="D195" s="139"/>
-      <c r="E195" s="139"/>
-      <c r="F195" s="140"/>
-      <c r="G195" s="134" t="s">
+      <c r="C195" s="160"/>
+      <c r="D195" s="160"/>
+      <c r="E195" s="160"/>
+      <c r="F195" s="161"/>
+      <c r="G195" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H195" s="135"/>
-      <c r="I195" s="137"/>
-      <c r="J195" s="134" t="s">
+      <c r="H195" s="151"/>
+      <c r="I195" s="162"/>
+      <c r="J195" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K195" s="135"/>
-      <c r="L195" s="135"/>
-      <c r="M195" s="135"/>
-      <c r="N195" s="136"/>
+      <c r="K195" s="151"/>
+      <c r="L195" s="151"/>
+      <c r="M195" s="151"/>
+      <c r="N195" s="152"/>
       <c r="O195" s="21"/>
       <c r="P195" s="23"/>
       <c r="Q195" s="23"/>
@@ -9714,13 +9929,13 @@
       </c>
       <c r="H196" s="4"/>
       <c r="I196" s="5"/>
-      <c r="J196" s="144" t="s">
-        <v>166</v>
-      </c>
-      <c r="K196" s="145"/>
-      <c r="L196" s="145"/>
-      <c r="M196" s="145"/>
-      <c r="N196" s="146"/>
+      <c r="J196" s="163" t="s">
+        <v>165</v>
+      </c>
+      <c r="K196" s="164"/>
+      <c r="L196" s="164"/>
+      <c r="M196" s="164"/>
+      <c r="N196" s="165"/>
       <c r="O196" s="21"/>
       <c r="P196" s="23"/>
       <c r="Q196" s="23"/>
@@ -9742,11 +9957,11 @@
       </c>
       <c r="H197" s="1"/>
       <c r="I197" s="2"/>
-      <c r="J197" s="147"/>
-      <c r="K197" s="128"/>
-      <c r="L197" s="128"/>
-      <c r="M197" s="128"/>
-      <c r="N197" s="129"/>
+      <c r="J197" s="166"/>
+      <c r="K197" s="154"/>
+      <c r="L197" s="154"/>
+      <c r="M197" s="154"/>
+      <c r="N197" s="155"/>
       <c r="O197" s="21"/>
       <c r="P197" s="23"/>
       <c r="Q197" s="23"/>
@@ -9762,11 +9977,11 @@
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
       <c r="I198" s="14"/>
-      <c r="J198" s="148"/>
-      <c r="K198" s="131"/>
-      <c r="L198" s="131"/>
-      <c r="M198" s="131"/>
-      <c r="N198" s="132"/>
+      <c r="J198" s="167"/>
+      <c r="K198" s="157"/>
+      <c r="L198" s="157"/>
+      <c r="M198" s="157"/>
+      <c r="N198" s="158"/>
       <c r="O198" s="21"/>
       <c r="P198" s="23"/>
       <c r="Q198" s="23"/>
@@ -9795,17 +10010,17 @@
     <row r="200" spans="1:18" ht="16.5" thickBot="1">
       <c r="A200" s="18"/>
       <c r="B200" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C200" s="141" t="s">
-        <v>223</v>
-      </c>
-      <c r="D200" s="142"/>
-      <c r="E200" s="142"/>
-      <c r="F200" s="142"/>
-      <c r="G200" s="142"/>
-      <c r="H200" s="142"/>
-      <c r="I200" s="143"/>
+        <v>163</v>
+      </c>
+      <c r="C200" s="147" t="s">
+        <v>222</v>
+      </c>
+      <c r="D200" s="148"/>
+      <c r="E200" s="148"/>
+      <c r="F200" s="148"/>
+      <c r="G200" s="148"/>
+      <c r="H200" s="148"/>
+      <c r="I200" s="149"/>
       <c r="J200" s="11" t="s">
         <v>10</v>
       </c>
@@ -9820,33 +10035,31 @@
       <c r="O200" s="21"/>
       <c r="P200" s="23"/>
       <c r="Q200" s="23"/>
-      <c r="R200" s="24"/>
     </row>
     <row r="201" spans="1:18">
       <c r="A201" s="18"/>
-      <c r="B201" s="138" t="s">
+      <c r="B201" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="139"/>
-      <c r="D201" s="139"/>
-      <c r="E201" s="139"/>
-      <c r="F201" s="140"/>
-      <c r="G201" s="134" t="s">
+      <c r="C201" s="160"/>
+      <c r="D201" s="160"/>
+      <c r="E201" s="160"/>
+      <c r="F201" s="161"/>
+      <c r="G201" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H201" s="135"/>
-      <c r="I201" s="137"/>
-      <c r="J201" s="134" t="s">
+      <c r="H201" s="151"/>
+      <c r="I201" s="162"/>
+      <c r="J201" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K201" s="135"/>
-      <c r="L201" s="135"/>
-      <c r="M201" s="135"/>
-      <c r="N201" s="136"/>
+      <c r="K201" s="151"/>
+      <c r="L201" s="151"/>
+      <c r="M201" s="151"/>
+      <c r="N201" s="152"/>
       <c r="O201" s="21"/>
       <c r="P201" s="23"/>
       <c r="Q201" s="23"/>
-      <c r="R201" s="24"/>
     </row>
     <row r="202" spans="1:18">
       <c r="A202" s="18"/>
@@ -9864,17 +10077,16 @@
       </c>
       <c r="H202" s="4"/>
       <c r="I202" s="5"/>
-      <c r="J202" s="144" t="s">
-        <v>167</v>
-      </c>
-      <c r="K202" s="145"/>
-      <c r="L202" s="145"/>
-      <c r="M202" s="145"/>
-      <c r="N202" s="146"/>
+      <c r="J202" s="163" t="s">
+        <v>166</v>
+      </c>
+      <c r="K202" s="164"/>
+      <c r="L202" s="164"/>
+      <c r="M202" s="164"/>
+      <c r="N202" s="165"/>
       <c r="O202" s="21"/>
       <c r="P202" s="23"/>
       <c r="Q202" s="23"/>
-      <c r="R202" s="24"/>
     </row>
     <row r="203" spans="1:18">
       <c r="B203" s="16">
@@ -9891,15 +10103,14 @@
       </c>
       <c r="H203" s="1"/>
       <c r="I203" s="2"/>
-      <c r="J203" s="147"/>
-      <c r="K203" s="128"/>
-      <c r="L203" s="128"/>
-      <c r="M203" s="128"/>
-      <c r="N203" s="129"/>
+      <c r="J203" s="166"/>
+      <c r="K203" s="154"/>
+      <c r="L203" s="154"/>
+      <c r="M203" s="154"/>
+      <c r="N203" s="155"/>
       <c r="O203" s="21"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
-      <c r="R203" s="17"/>
     </row>
     <row r="204" spans="1:18" ht="15.75" thickBot="1">
       <c r="B204" s="9"/>
@@ -9910,36 +10121,34 @@
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
       <c r="I204" s="14"/>
-      <c r="J204" s="148"/>
-      <c r="K204" s="131"/>
-      <c r="L204" s="131"/>
-      <c r="M204" s="131"/>
-      <c r="N204" s="132"/>
+      <c r="J204" s="167"/>
+      <c r="K204" s="157"/>
+      <c r="L204" s="157"/>
+      <c r="M204" s="157"/>
+      <c r="N204" s="158"/>
       <c r="O204" s="20"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
-      <c r="R204" s="17"/>
     </row>
     <row r="205" spans="1:18" ht="15.75" thickBot="1">
       <c r="O205" s="18"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
-      <c r="R205" s="17"/>
     </row>
     <row r="206" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A206" s="68"/>
+      <c r="A206" s="67"/>
       <c r="B206" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C206" s="141" t="s">
-        <v>168</v>
-      </c>
-      <c r="D206" s="142"/>
-      <c r="E206" s="142"/>
-      <c r="F206" s="142"/>
-      <c r="G206" s="142"/>
-      <c r="H206" s="142"/>
-      <c r="I206" s="143"/>
+        <v>225</v>
+      </c>
+      <c r="C206" s="147" t="s">
+        <v>167</v>
+      </c>
+      <c r="D206" s="148"/>
+      <c r="E206" s="148"/>
+      <c r="F206" s="148"/>
+      <c r="G206" s="148"/>
+      <c r="H206" s="148"/>
+      <c r="I206" s="149"/>
       <c r="J206" s="11" t="s">
         <v>10</v>
       </c>
@@ -9954,36 +10163,35 @@
       <c r="O206" s="20"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
-      <c r="R206" s="1"/>
     </row>
     <row r="207" spans="1:18">
-      <c r="A207" s="68"/>
-      <c r="B207" s="138" t="s">
+      <c r="A207" s="67"/>
+      <c r="B207" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C207" s="139"/>
-      <c r="D207" s="139"/>
-      <c r="E207" s="139"/>
-      <c r="F207" s="140"/>
-      <c r="G207" s="134" t="s">
+      <c r="C207" s="160"/>
+      <c r="D207" s="160"/>
+      <c r="E207" s="160"/>
+      <c r="F207" s="161"/>
+      <c r="G207" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H207" s="135"/>
-      <c r="I207" s="137"/>
-      <c r="J207" s="134" t="s">
+      <c r="H207" s="151"/>
+      <c r="I207" s="162"/>
+      <c r="J207" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K207" s="135"/>
-      <c r="L207" s="135"/>
-      <c r="M207" s="135"/>
-      <c r="N207" s="136"/>
+      <c r="K207" s="151"/>
+      <c r="L207" s="151"/>
+      <c r="M207" s="151"/>
+      <c r="N207" s="152"/>
       <c r="O207" s="21"/>
       <c r="P207" s="18"/>
       <c r="Q207" s="18"/>
       <c r="R207" s="18"/>
     </row>
     <row r="208" spans="1:18">
-      <c r="A208" s="68"/>
+      <c r="A208" s="67"/>
       <c r="B208" s="8">
         <v>1</v>
       </c>
@@ -9998,20 +10206,20 @@
       </c>
       <c r="H208" s="4"/>
       <c r="I208" s="5"/>
-      <c r="J208" s="144" t="s">
-        <v>223</v>
-      </c>
-      <c r="K208" s="145"/>
-      <c r="L208" s="145"/>
-      <c r="M208" s="145"/>
-      <c r="N208" s="146"/>
+      <c r="J208" s="163" t="s">
+        <v>222</v>
+      </c>
+      <c r="K208" s="164"/>
+      <c r="L208" s="164"/>
+      <c r="M208" s="164"/>
+      <c r="N208" s="165"/>
       <c r="O208" s="21"/>
       <c r="P208" s="18"/>
       <c r="Q208" s="18"/>
       <c r="R208" s="18"/>
     </row>
     <row r="209" spans="1:18">
-      <c r="A209" s="68"/>
+      <c r="A209" s="67"/>
       <c r="B209" s="16">
         <v>2</v>
       </c>
@@ -10026,18 +10234,18 @@
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="2"/>
-      <c r="J209" s="147"/>
-      <c r="K209" s="128"/>
-      <c r="L209" s="128"/>
-      <c r="M209" s="128"/>
-      <c r="N209" s="129"/>
+      <c r="J209" s="166"/>
+      <c r="K209" s="154"/>
+      <c r="L209" s="154"/>
+      <c r="M209" s="154"/>
+      <c r="N209" s="155"/>
       <c r="O209" s="21"/>
       <c r="P209" s="18"/>
       <c r="Q209" s="18"/>
       <c r="R209" s="18"/>
     </row>
     <row r="210" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A210" s="68"/>
+      <c r="A210" s="67"/>
       <c r="B210" s="9"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
@@ -10046,11 +10254,11 @@
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
       <c r="I210" s="14"/>
-      <c r="J210" s="148"/>
-      <c r="K210" s="131"/>
-      <c r="L210" s="131"/>
-      <c r="M210" s="131"/>
-      <c r="N210" s="132"/>
+      <c r="J210" s="167"/>
+      <c r="K210" s="157"/>
+      <c r="L210" s="157"/>
+      <c r="M210" s="157"/>
+      <c r="N210" s="158"/>
       <c r="O210" s="21"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
@@ -10063,19 +10271,19 @@
       <c r="R211" s="17"/>
     </row>
     <row r="212" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A212" s="68"/>
+      <c r="A212" s="67"/>
       <c r="B212" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C212" s="141" t="s">
-        <v>169</v>
-      </c>
-      <c r="D212" s="142"/>
-      <c r="E212" s="142"/>
-      <c r="F212" s="142"/>
-      <c r="G212" s="142"/>
-      <c r="H212" s="142"/>
-      <c r="I212" s="143"/>
+        <v>227</v>
+      </c>
+      <c r="C212" s="147" t="s">
+        <v>168</v>
+      </c>
+      <c r="D212" s="148"/>
+      <c r="E212" s="148"/>
+      <c r="F212" s="148"/>
+      <c r="G212" s="148"/>
+      <c r="H212" s="148"/>
+      <c r="I212" s="149"/>
       <c r="J212" s="11" t="s">
         <v>10</v>
       </c>
@@ -10093,33 +10301,33 @@
       <c r="R212" s="17"/>
     </row>
     <row r="213" spans="1:18">
-      <c r="A213" s="68"/>
-      <c r="B213" s="138" t="s">
+      <c r="A213" s="67"/>
+      <c r="B213" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C213" s="139"/>
-      <c r="D213" s="139"/>
-      <c r="E213" s="139"/>
-      <c r="F213" s="140"/>
-      <c r="G213" s="134" t="s">
+      <c r="C213" s="160"/>
+      <c r="D213" s="160"/>
+      <c r="E213" s="160"/>
+      <c r="F213" s="161"/>
+      <c r="G213" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H213" s="135"/>
-      <c r="I213" s="137"/>
-      <c r="J213" s="134" t="s">
+      <c r="H213" s="151"/>
+      <c r="I213" s="162"/>
+      <c r="J213" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K213" s="135"/>
-      <c r="L213" s="135"/>
-      <c r="M213" s="135"/>
-      <c r="N213" s="136"/>
+      <c r="K213" s="151"/>
+      <c r="L213" s="151"/>
+      <c r="M213" s="151"/>
+      <c r="N213" s="152"/>
       <c r="O213" s="20"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
       <c r="R213" s="17"/>
     </row>
     <row r="214" spans="1:18">
-      <c r="A214" s="68"/>
+      <c r="A214" s="67"/>
       <c r="B214" s="8">
         <v>1</v>
       </c>
@@ -10134,20 +10342,20 @@
       </c>
       <c r="H214" s="4"/>
       <c r="I214" s="5"/>
-      <c r="J214" s="145" t="s">
-        <v>227</v>
-      </c>
-      <c r="K214" s="145"/>
-      <c r="L214" s="145"/>
-      <c r="M214" s="145"/>
-      <c r="N214" s="146"/>
+      <c r="J214" s="164" t="s">
+        <v>226</v>
+      </c>
+      <c r="K214" s="164"/>
+      <c r="L214" s="164"/>
+      <c r="M214" s="164"/>
+      <c r="N214" s="165"/>
       <c r="O214" s="20"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
       <c r="R214" s="17"/>
     </row>
     <row r="215" spans="1:18">
-      <c r="A215" s="68"/>
+      <c r="A215" s="67"/>
       <c r="B215" s="16">
         <v>3</v>
       </c>
@@ -10162,18 +10370,18 @@
       </c>
       <c r="H215" s="1"/>
       <c r="I215" s="2"/>
-      <c r="J215" s="128"/>
-      <c r="K215" s="128"/>
-      <c r="L215" s="128"/>
-      <c r="M215" s="128"/>
-      <c r="N215" s="129"/>
+      <c r="J215" s="154"/>
+      <c r="K215" s="154"/>
+      <c r="L215" s="154"/>
+      <c r="M215" s="154"/>
+      <c r="N215" s="155"/>
       <c r="O215" s="20"/>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
       <c r="R215" s="17"/>
     </row>
     <row r="216" spans="1:18">
-      <c r="A216" s="68"/>
+      <c r="A216" s="67"/>
       <c r="B216" s="16">
         <v>4</v>
       </c>
@@ -10186,23 +10394,23 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="2"/>
-      <c r="J216" s="128"/>
-      <c r="K216" s="128"/>
-      <c r="L216" s="128"/>
-      <c r="M216" s="128"/>
-      <c r="N216" s="129"/>
+      <c r="J216" s="154"/>
+      <c r="K216" s="154"/>
+      <c r="L216" s="154"/>
+      <c r="M216" s="154"/>
+      <c r="N216" s="155"/>
       <c r="O216" s="21"/>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
       <c r="R216" s="17"/>
     </row>
     <row r="217" spans="1:18">
-      <c r="A217" s="68"/>
+      <c r="A217" s="67"/>
       <c r="B217" s="16">
         <v>5</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -10214,19 +10422,19 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
-      <c r="N217" s="64"/>
+      <c r="N217" s="63"/>
       <c r="O217" s="21"/>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
       <c r="R217" s="17"/>
     </row>
     <row r="218" spans="1:18">
-      <c r="A218" s="68"/>
+      <c r="A218" s="67"/>
       <c r="B218" s="16">
         <v>6</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -10238,19 +10446,19 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
-      <c r="N218" s="64"/>
+      <c r="N218" s="63"/>
       <c r="O218" s="21"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
       <c r="R218" s="17"/>
     </row>
     <row r="219" spans="1:18">
-      <c r="A219" s="68"/>
+      <c r="A219" s="67"/>
       <c r="B219" s="16">
         <v>7</v>
       </c>
       <c r="C219" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -10262,19 +10470,19 @@
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
-      <c r="N219" s="64"/>
+      <c r="N219" s="63"/>
       <c r="O219" s="21"/>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
       <c r="R219" s="17"/>
     </row>
     <row r="220" spans="1:18">
-      <c r="A220" s="68"/>
+      <c r="A220" s="67"/>
       <c r="B220" s="16">
         <v>8</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -10286,19 +10494,19 @@
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
-      <c r="N220" s="64"/>
+      <c r="N220" s="63"/>
       <c r="O220" s="21"/>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
       <c r="R220" s="17"/>
     </row>
     <row r="221" spans="1:18">
-      <c r="A221" s="68"/>
+      <c r="A221" s="67"/>
       <c r="B221" s="16">
         <v>9</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -10310,19 +10518,19 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
-      <c r="N221" s="64"/>
+      <c r="N221" s="63"/>
       <c r="O221" s="21"/>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
       <c r="R221" s="17"/>
     </row>
     <row r="222" spans="1:18">
-      <c r="A222" s="68"/>
+      <c r="A222" s="67"/>
       <c r="B222" s="16">
         <v>10</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -10334,31 +10542,31 @@
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
-      <c r="N222" s="64"/>
+      <c r="N222" s="63"/>
       <c r="O222" s="21"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
       <c r="R222" s="17"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A223" s="68"/>
+      <c r="A223" s="67"/>
       <c r="B223" s="9">
         <v>11</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
-      <c r="G223" s="61"/>
+      <c r="G223" s="60"/>
       <c r="H223" s="6"/>
       <c r="I223" s="14"/>
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
-      <c r="N223" s="65"/>
+      <c r="N223" s="64"/>
       <c r="O223" s="21"/>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
@@ -10372,17 +10580,17 @@
     </row>
     <row r="225" spans="1:18" ht="16.5" thickBot="1">
       <c r="B225" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C225" s="141" t="s">
-        <v>196</v>
-      </c>
-      <c r="D225" s="142"/>
-      <c r="E225" s="142"/>
-      <c r="F225" s="142"/>
-      <c r="G225" s="142"/>
-      <c r="H225" s="142"/>
-      <c r="I225" s="143"/>
+        <v>200</v>
+      </c>
+      <c r="C225" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="D225" s="148"/>
+      <c r="E225" s="148"/>
+      <c r="F225" s="148"/>
+      <c r="G225" s="148"/>
+      <c r="H225" s="148"/>
+      <c r="I225" s="149"/>
       <c r="J225" s="11" t="s">
         <v>10</v>
       </c>
@@ -10400,25 +10608,25 @@
       <c r="R225" s="17"/>
     </row>
     <row r="226" spans="1:18">
-      <c r="B226" s="138" t="s">
+      <c r="B226" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C226" s="139"/>
-      <c r="D226" s="139"/>
-      <c r="E226" s="139"/>
-      <c r="F226" s="140"/>
-      <c r="G226" s="134" t="s">
+      <c r="C226" s="160"/>
+      <c r="D226" s="160"/>
+      <c r="E226" s="160"/>
+      <c r="F226" s="161"/>
+      <c r="G226" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H226" s="135"/>
-      <c r="I226" s="137"/>
-      <c r="J226" s="134" t="s">
+      <c r="H226" s="151"/>
+      <c r="I226" s="162"/>
+      <c r="J226" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K226" s="135"/>
-      <c r="L226" s="135"/>
-      <c r="M226" s="135"/>
-      <c r="N226" s="136"/>
+      <c r="K226" s="151"/>
+      <c r="L226" s="151"/>
+      <c r="M226" s="151"/>
+      <c r="N226" s="152"/>
       <c r="O226" s="20"/>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
@@ -10439,13 +10647,13 @@
       </c>
       <c r="H227" s="4"/>
       <c r="I227" s="5"/>
-      <c r="J227" s="145" t="s">
-        <v>194</v>
-      </c>
-      <c r="K227" s="145"/>
-      <c r="L227" s="145"/>
-      <c r="M227" s="145"/>
-      <c r="N227" s="146"/>
+      <c r="J227" s="164" t="s">
+        <v>193</v>
+      </c>
+      <c r="K227" s="164"/>
+      <c r="L227" s="164"/>
+      <c r="M227" s="164"/>
+      <c r="N227" s="165"/>
       <c r="O227" s="20"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
@@ -10466,11 +10674,11 @@
       </c>
       <c r="H228" s="1"/>
       <c r="I228" s="2"/>
-      <c r="J228" s="128"/>
-      <c r="K228" s="128"/>
-      <c r="L228" s="128"/>
-      <c r="M228" s="128"/>
-      <c r="N228" s="129"/>
+      <c r="J228" s="154"/>
+      <c r="K228" s="154"/>
+      <c r="L228" s="154"/>
+      <c r="M228" s="154"/>
+      <c r="N228" s="155"/>
       <c r="O228" s="20"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
@@ -10493,7 +10701,7 @@
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
-      <c r="N229" s="64"/>
+      <c r="N229" s="63"/>
       <c r="O229" s="21"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
@@ -10504,7 +10712,7 @@
         <v>5</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -10516,7 +10724,7 @@
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
-      <c r="N230" s="64"/>
+      <c r="N230" s="63"/>
       <c r="O230" s="21"/>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
@@ -10527,7 +10735,7 @@
         <v>6</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -10539,7 +10747,7 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
-      <c r="N231" s="64"/>
+      <c r="N231" s="63"/>
       <c r="O231" s="21"/>
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
@@ -10550,7 +10758,7 @@
         <v>7</v>
       </c>
       <c r="C232" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -10562,7 +10770,7 @@
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
-      <c r="N232" s="64"/>
+      <c r="N232" s="63"/>
       <c r="O232" s="21"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
@@ -10573,7 +10781,7 @@
         <v>8</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -10585,7 +10793,7 @@
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
-      <c r="N233" s="64"/>
+      <c r="N233" s="63"/>
       <c r="O233" s="21"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
@@ -10596,7 +10804,7 @@
         <v>9</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -10608,7 +10816,7 @@
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
-      <c r="N234" s="64"/>
+      <c r="N234" s="63"/>
       <c r="O234" s="21"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
@@ -10619,13 +10827,13 @@
         <v>10</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="2"/>
@@ -10633,7 +10841,7 @@
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
-      <c r="N235" s="64"/>
+      <c r="N235" s="63"/>
       <c r="O235" s="21"/>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
@@ -10644,7 +10852,7 @@
         <v>11</v>
       </c>
       <c r="C236" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -10656,7 +10864,7 @@
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
-      <c r="N236" s="64"/>
+      <c r="N236" s="63"/>
       <c r="O236" s="21"/>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
@@ -10667,19 +10875,19 @@
         <v>12</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
-      <c r="G237" s="61"/>
+      <c r="G237" s="60"/>
       <c r="H237" s="6"/>
       <c r="I237" s="14"/>
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
-      <c r="N237" s="65"/>
+      <c r="N237" s="64"/>
       <c r="O237" s="21"/>
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
@@ -10694,17 +10902,17 @@
     <row r="239" spans="1:18" ht="16.5" thickBot="1">
       <c r="A239" s="23"/>
       <c r="B239" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C239" s="141" t="s">
-        <v>182</v>
-      </c>
-      <c r="D239" s="142"/>
-      <c r="E239" s="142"/>
-      <c r="F239" s="142"/>
-      <c r="G239" s="142"/>
-      <c r="H239" s="142"/>
-      <c r="I239" s="143"/>
+        <v>228</v>
+      </c>
+      <c r="C239" s="147" t="s">
+        <v>181</v>
+      </c>
+      <c r="D239" s="148"/>
+      <c r="E239" s="148"/>
+      <c r="F239" s="148"/>
+      <c r="G239" s="148"/>
+      <c r="H239" s="148"/>
+      <c r="I239" s="149"/>
       <c r="J239" s="11" t="s">
         <v>10</v>
       </c>
@@ -10723,25 +10931,25 @@
     </row>
     <row r="240" spans="1:18">
       <c r="A240" s="23"/>
-      <c r="B240" s="138" t="s">
+      <c r="B240" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C240" s="139"/>
-      <c r="D240" s="139"/>
-      <c r="E240" s="139"/>
-      <c r="F240" s="140"/>
-      <c r="G240" s="134" t="s">
+      <c r="C240" s="160"/>
+      <c r="D240" s="160"/>
+      <c r="E240" s="160"/>
+      <c r="F240" s="161"/>
+      <c r="G240" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H240" s="135"/>
-      <c r="I240" s="137"/>
-      <c r="J240" s="134" t="s">
+      <c r="H240" s="151"/>
+      <c r="I240" s="162"/>
+      <c r="J240" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K240" s="135"/>
-      <c r="L240" s="135"/>
-      <c r="M240" s="135"/>
-      <c r="N240" s="136"/>
+      <c r="K240" s="151"/>
+      <c r="L240" s="151"/>
+      <c r="M240" s="151"/>
+      <c r="N240" s="152"/>
       <c r="O240" s="20"/>
       <c r="P240" s="23"/>
       <c r="Q240" s="23"/>
@@ -10763,13 +10971,13 @@
       </c>
       <c r="H241" s="4"/>
       <c r="I241" s="5"/>
-      <c r="J241" s="145" t="s">
-        <v>183</v>
-      </c>
-      <c r="K241" s="145"/>
-      <c r="L241" s="145"/>
-      <c r="M241" s="145"/>
-      <c r="N241" s="146"/>
+      <c r="J241" s="164" t="s">
+        <v>182</v>
+      </c>
+      <c r="K241" s="164"/>
+      <c r="L241" s="164"/>
+      <c r="M241" s="164"/>
+      <c r="N241" s="165"/>
       <c r="O241" s="20"/>
       <c r="P241" s="23"/>
       <c r="Q241" s="23"/>
@@ -10790,11 +10998,11 @@
       </c>
       <c r="H242" s="1"/>
       <c r="I242" s="2"/>
-      <c r="J242" s="128"/>
-      <c r="K242" s="128"/>
-      <c r="L242" s="128"/>
-      <c r="M242" s="128"/>
-      <c r="N242" s="129"/>
+      <c r="J242" s="154"/>
+      <c r="K242" s="154"/>
+      <c r="L242" s="154"/>
+      <c r="M242" s="154"/>
+      <c r="N242" s="155"/>
       <c r="O242" s="20"/>
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
@@ -10817,7 +11025,7 @@
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
-      <c r="N243" s="64"/>
+      <c r="N243" s="63"/>
       <c r="O243" s="20"/>
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
@@ -10828,7 +11036,7 @@
         <v>5</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -10840,7 +11048,7 @@
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
-      <c r="N244" s="64"/>
+      <c r="N244" s="63"/>
       <c r="O244" s="18"/>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
@@ -10851,7 +11059,7 @@
         <v>6</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -10863,7 +11071,7 @@
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
-      <c r="N245" s="64"/>
+      <c r="N245" s="63"/>
       <c r="O245" s="20"/>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
@@ -10873,7 +11081,7 @@
         <v>7</v>
       </c>
       <c r="C246" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -10885,7 +11093,7 @@
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
-      <c r="N246" s="64"/>
+      <c r="N246" s="63"/>
       <c r="O246" s="18"/>
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
@@ -10896,7 +11104,7 @@
         <v>8</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -10908,7 +11116,7 @@
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
-      <c r="N247" s="64"/>
+      <c r="N247" s="63"/>
       <c r="O247" s="19"/>
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
@@ -10919,7 +11127,7 @@
         <v>9</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -10931,7 +11139,7 @@
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
-      <c r="N248" s="64"/>
+      <c r="N248" s="63"/>
       <c r="O248" s="19"/>
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
@@ -10942,7 +11150,7 @@
         <v>10</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -10954,7 +11162,7 @@
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
-      <c r="N249" s="64"/>
+      <c r="N249" s="63"/>
       <c r="O249" s="19"/>
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
@@ -10965,7 +11173,7 @@
         <v>11</v>
       </c>
       <c r="C250" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -10977,7 +11185,7 @@
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
-      <c r="N250" s="64"/>
+      <c r="N250" s="63"/>
       <c r="O250" s="20"/>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
@@ -10988,19 +11196,19 @@
         <v>12</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
-      <c r="G251" s="61"/>
+      <c r="G251" s="60"/>
       <c r="H251" s="6"/>
       <c r="I251" s="14"/>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
-      <c r="N251" s="65"/>
+      <c r="N251" s="64"/>
       <c r="O251" s="18"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
@@ -11015,11 +11223,11 @@
       <c r="G252" s="23"/>
       <c r="H252" s="23"/>
       <c r="I252" s="23"/>
-      <c r="J252" s="66"/>
-      <c r="K252" s="66"/>
-      <c r="L252" s="66"/>
-      <c r="M252" s="66"/>
-      <c r="N252" s="66"/>
+      <c r="J252" s="65"/>
+      <c r="K252" s="65"/>
+      <c r="L252" s="65"/>
+      <c r="M252" s="65"/>
+      <c r="N252" s="65"/>
       <c r="O252" s="19"/>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
@@ -11034,15 +11242,14 @@
       <c r="G253" s="23"/>
       <c r="H253" s="23"/>
       <c r="I253" s="23"/>
-      <c r="J253" s="66"/>
-      <c r="K253" s="66"/>
-      <c r="L253" s="66"/>
-      <c r="M253" s="66"/>
-      <c r="N253" s="66"/>
+      <c r="J253" s="65"/>
+      <c r="K253" s="65"/>
+      <c r="L253" s="65"/>
+      <c r="M253" s="65"/>
+      <c r="N253" s="65"/>
       <c r="O253" s="19"/>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
-      <c r="R253" s="17"/>
     </row>
     <row r="254" spans="1:18" ht="15.75">
       <c r="B254" s="23"/>
@@ -11053,34 +11260,32 @@
       <c r="G254" s="27"/>
       <c r="H254" s="23"/>
       <c r="I254" s="23"/>
-      <c r="J254" s="66"/>
-      <c r="K254" s="66"/>
-      <c r="L254" s="66"/>
-      <c r="M254" s="66"/>
-      <c r="N254" s="66"/>
+      <c r="J254" s="65"/>
+      <c r="K254" s="65"/>
+      <c r="L254" s="65"/>
+      <c r="M254" s="65"/>
+      <c r="N254" s="65"/>
       <c r="O254" s="19"/>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
-      <c r="R254" s="17"/>
     </row>
     <row r="255" spans="1:18">
       <c r="B255" s="23"/>
-      <c r="C255" s="59"/>
-      <c r="D255" s="59"/>
-      <c r="E255" s="59"/>
-      <c r="F255" s="59"/>
+      <c r="C255" s="58"/>
+      <c r="D255" s="58"/>
+      <c r="E255" s="58"/>
+      <c r="F255" s="58"/>
       <c r="G255" s="27"/>
       <c r="H255" s="23"/>
       <c r="I255" s="23"/>
-      <c r="J255" s="60"/>
-      <c r="K255" s="60"/>
-      <c r="L255" s="60"/>
-      <c r="M255" s="60"/>
-      <c r="N255" s="60"/>
+      <c r="J255" s="59"/>
+      <c r="K255" s="59"/>
+      <c r="L255" s="59"/>
+      <c r="M255" s="59"/>
+      <c r="N255" s="59"/>
       <c r="O255" s="20"/>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
-      <c r="R255" s="17"/>
     </row>
     <row r="256" spans="1:18" ht="15.75">
       <c r="B256" s="33"/>
@@ -11129,11 +11334,11 @@
       <c r="G258" s="23"/>
       <c r="H258" s="23"/>
       <c r="I258" s="23"/>
-      <c r="J258" s="66"/>
-      <c r="K258" s="66"/>
-      <c r="L258" s="66"/>
-      <c r="M258" s="66"/>
-      <c r="N258" s="66"/>
+      <c r="J258" s="65"/>
+      <c r="K258" s="65"/>
+      <c r="L258" s="65"/>
+      <c r="M258" s="65"/>
+      <c r="N258" s="65"/>
       <c r="O258" s="19"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
@@ -11148,11 +11353,11 @@
       <c r="G259" s="23"/>
       <c r="H259" s="23"/>
       <c r="I259" s="23"/>
-      <c r="J259" s="66"/>
-      <c r="K259" s="66"/>
-      <c r="L259" s="66"/>
-      <c r="M259" s="66"/>
-      <c r="N259" s="66"/>
+      <c r="J259" s="65"/>
+      <c r="K259" s="65"/>
+      <c r="L259" s="65"/>
+      <c r="M259" s="65"/>
+      <c r="N259" s="65"/>
       <c r="O259" s="19"/>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
@@ -11167,11 +11372,11 @@
       <c r="G260" s="27"/>
       <c r="H260" s="23"/>
       <c r="I260" s="23"/>
-      <c r="J260" s="66"/>
-      <c r="K260" s="66"/>
-      <c r="L260" s="66"/>
-      <c r="M260" s="66"/>
-      <c r="N260" s="66"/>
+      <c r="J260" s="65"/>
+      <c r="K260" s="65"/>
+      <c r="L260" s="65"/>
+      <c r="M260" s="65"/>
+      <c r="N260" s="65"/>
       <c r="O260" s="19"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
@@ -11179,18 +11384,18 @@
     </row>
     <row r="261" spans="2:18" ht="15.75" thickBot="1">
       <c r="B261" s="23"/>
-      <c r="C261" s="59"/>
-      <c r="D261" s="59"/>
-      <c r="E261" s="59"/>
-      <c r="F261" s="59"/>
+      <c r="C261" s="58"/>
+      <c r="D261" s="58"/>
+      <c r="E261" s="58"/>
+      <c r="F261" s="58"/>
       <c r="G261" s="27"/>
       <c r="H261" s="23"/>
       <c r="I261" s="23"/>
-      <c r="J261" s="60"/>
-      <c r="K261" s="60"/>
-      <c r="L261" s="60"/>
-      <c r="M261" s="60"/>
-      <c r="N261" s="60"/>
+      <c r="J261" s="59"/>
+      <c r="K261" s="59"/>
+      <c r="L261" s="59"/>
+      <c r="M261" s="59"/>
+      <c r="N261" s="59"/>
       <c r="O261" s="20"/>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
@@ -11200,15 +11405,15 @@
       <c r="B262" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C262" s="141" t="s">
+      <c r="C262" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="D262" s="142"/>
-      <c r="E262" s="142"/>
-      <c r="F262" s="142"/>
-      <c r="G262" s="142"/>
-      <c r="H262" s="142"/>
-      <c r="I262" s="143"/>
+      <c r="D262" s="148"/>
+      <c r="E262" s="148"/>
+      <c r="F262" s="148"/>
+      <c r="G262" s="148"/>
+      <c r="H262" s="148"/>
+      <c r="I262" s="149"/>
       <c r="J262" s="11" t="s">
         <v>10</v>
       </c>
@@ -11226,25 +11431,25 @@
       <c r="R262" s="17"/>
     </row>
     <row r="263" spans="2:18">
-      <c r="B263" s="138" t="s">
+      <c r="B263" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C263" s="139"/>
-      <c r="D263" s="139"/>
-      <c r="E263" s="139"/>
-      <c r="F263" s="140"/>
-      <c r="G263" s="134" t="s">
+      <c r="C263" s="160"/>
+      <c r="D263" s="160"/>
+      <c r="E263" s="160"/>
+      <c r="F263" s="161"/>
+      <c r="G263" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H263" s="135"/>
-      <c r="I263" s="137"/>
-      <c r="J263" s="134" t="s">
+      <c r="H263" s="151"/>
+      <c r="I263" s="162"/>
+      <c r="J263" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K263" s="135"/>
-      <c r="L263" s="135"/>
-      <c r="M263" s="135"/>
-      <c r="N263" s="136"/>
+      <c r="K263" s="151"/>
+      <c r="L263" s="151"/>
+      <c r="M263" s="151"/>
+      <c r="N263" s="152"/>
       <c r="O263" s="19"/>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
@@ -11265,13 +11470,13 @@
       </c>
       <c r="H264" s="4"/>
       <c r="I264" s="5"/>
-      <c r="J264" s="149" t="s">
+      <c r="J264" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="K264" s="150"/>
-      <c r="L264" s="150"/>
-      <c r="M264" s="150"/>
-      <c r="N264" s="151"/>
+      <c r="K264" s="169"/>
+      <c r="L264" s="169"/>
+      <c r="M264" s="169"/>
+      <c r="N264" s="170"/>
       <c r="O264" s="19"/>
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
@@ -11290,11 +11495,11 @@
       <c r="G265" s="15"/>
       <c r="H265" s="1"/>
       <c r="I265" s="2"/>
-      <c r="J265" s="152"/>
-      <c r="K265" s="153"/>
-      <c r="L265" s="153"/>
-      <c r="M265" s="153"/>
-      <c r="N265" s="154"/>
+      <c r="J265" s="171"/>
+      <c r="K265" s="172"/>
+      <c r="L265" s="172"/>
+      <c r="M265" s="172"/>
+      <c r="N265" s="173"/>
       <c r="O265" s="19"/>
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
@@ -11315,11 +11520,11 @@
       </c>
       <c r="H266" s="6"/>
       <c r="I266" s="14"/>
-      <c r="J266" s="155"/>
-      <c r="K266" s="156"/>
-      <c r="L266" s="156"/>
-      <c r="M266" s="156"/>
-      <c r="N266" s="157"/>
+      <c r="J266" s="174"/>
+      <c r="K266" s="175"/>
+      <c r="L266" s="175"/>
+      <c r="M266" s="175"/>
+      <c r="N266" s="176"/>
       <c r="O266" s="19"/>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
@@ -11327,18 +11532,18 @@
     </row>
     <row r="267" spans="2:18" ht="15.75" thickBot="1">
       <c r="B267" s="23"/>
-      <c r="C267" s="59"/>
-      <c r="D267" s="59"/>
-      <c r="E267" s="59"/>
-      <c r="F267" s="59"/>
+      <c r="C267" s="58"/>
+      <c r="D267" s="58"/>
+      <c r="E267" s="58"/>
+      <c r="F267" s="58"/>
       <c r="G267" s="27"/>
       <c r="H267" s="23"/>
       <c r="I267" s="23"/>
-      <c r="J267" s="60"/>
-      <c r="K267" s="60"/>
-      <c r="L267" s="60"/>
-      <c r="M267" s="60"/>
-      <c r="N267" s="60"/>
+      <c r="J267" s="59"/>
+      <c r="K267" s="59"/>
+      <c r="L267" s="59"/>
+      <c r="M267" s="59"/>
+      <c r="N267" s="59"/>
       <c r="O267" s="20"/>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
@@ -11348,15 +11553,15 @@
       <c r="B268" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C268" s="141" t="s">
+      <c r="C268" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="D268" s="142"/>
-      <c r="E268" s="142"/>
-      <c r="F268" s="142"/>
-      <c r="G268" s="142"/>
-      <c r="H268" s="142"/>
-      <c r="I268" s="143"/>
+      <c r="D268" s="148"/>
+      <c r="E268" s="148"/>
+      <c r="F268" s="148"/>
+      <c r="G268" s="148"/>
+      <c r="H268" s="148"/>
+      <c r="I268" s="149"/>
       <c r="J268" s="11" t="s">
         <v>10</v>
       </c>
@@ -11374,25 +11579,25 @@
       <c r="R268" s="17"/>
     </row>
     <row r="269" spans="2:18">
-      <c r="B269" s="138" t="s">
+      <c r="B269" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C269" s="139"/>
-      <c r="D269" s="139"/>
-      <c r="E269" s="139"/>
-      <c r="F269" s="140"/>
-      <c r="G269" s="134" t="s">
+      <c r="C269" s="160"/>
+      <c r="D269" s="160"/>
+      <c r="E269" s="160"/>
+      <c r="F269" s="161"/>
+      <c r="G269" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H269" s="135"/>
-      <c r="I269" s="137"/>
-      <c r="J269" s="134" t="s">
+      <c r="H269" s="151"/>
+      <c r="I269" s="162"/>
+      <c r="J269" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K269" s="135"/>
-      <c r="L269" s="135"/>
-      <c r="M269" s="135"/>
-      <c r="N269" s="136"/>
+      <c r="K269" s="151"/>
+      <c r="L269" s="151"/>
+      <c r="M269" s="151"/>
+      <c r="N269" s="152"/>
       <c r="O269" s="19"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
@@ -11413,13 +11618,13 @@
       </c>
       <c r="H270" s="4"/>
       <c r="I270" s="5"/>
-      <c r="J270" s="118" t="s">
+      <c r="J270" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="K270" s="119"/>
-      <c r="L270" s="119"/>
-      <c r="M270" s="119"/>
-      <c r="N270" s="120"/>
+      <c r="K270" s="178"/>
+      <c r="L270" s="178"/>
+      <c r="M270" s="178"/>
+      <c r="N270" s="179"/>
       <c r="O270" s="19"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
@@ -11438,11 +11643,11 @@
       <c r="G271" s="15"/>
       <c r="H271" s="1"/>
       <c r="I271" s="2"/>
-      <c r="J271" s="121"/>
-      <c r="K271" s="122"/>
-      <c r="L271" s="122"/>
-      <c r="M271" s="122"/>
-      <c r="N271" s="123"/>
+      <c r="J271" s="180"/>
+      <c r="K271" s="181"/>
+      <c r="L271" s="181"/>
+      <c r="M271" s="181"/>
+      <c r="N271" s="182"/>
       <c r="O271" s="19"/>
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
@@ -11461,11 +11666,11 @@
       <c r="G272" s="15"/>
       <c r="H272" s="1"/>
       <c r="I272" s="2"/>
-      <c r="J272" s="121"/>
-      <c r="K272" s="122"/>
-      <c r="L272" s="122"/>
-      <c r="M272" s="122"/>
-      <c r="N272" s="123"/>
+      <c r="J272" s="180"/>
+      <c r="K272" s="181"/>
+      <c r="L272" s="181"/>
+      <c r="M272" s="181"/>
+      <c r="N272" s="182"/>
       <c r="O272" s="19"/>
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
@@ -11486,11 +11691,11 @@
       </c>
       <c r="H273" s="6"/>
       <c r="I273" s="14"/>
-      <c r="J273" s="124"/>
-      <c r="K273" s="125"/>
-      <c r="L273" s="125"/>
-      <c r="M273" s="125"/>
-      <c r="N273" s="126"/>
+      <c r="J273" s="183"/>
+      <c r="K273" s="184"/>
+      <c r="L273" s="184"/>
+      <c r="M273" s="184"/>
+      <c r="N273" s="185"/>
       <c r="O273" s="19"/>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
@@ -11498,18 +11703,18 @@
     </row>
     <row r="274" spans="2:18">
       <c r="B274" s="23"/>
-      <c r="C274" s="59"/>
-      <c r="D274" s="59"/>
-      <c r="E274" s="59"/>
-      <c r="F274" s="59"/>
+      <c r="C274" s="58"/>
+      <c r="D274" s="58"/>
+      <c r="E274" s="58"/>
+      <c r="F274" s="58"/>
       <c r="G274" s="27"/>
       <c r="H274" s="23"/>
       <c r="I274" s="23"/>
-      <c r="J274" s="60"/>
-      <c r="K274" s="60"/>
-      <c r="L274" s="60"/>
-      <c r="M274" s="60"/>
-      <c r="N274" s="60"/>
+      <c r="J274" s="59"/>
+      <c r="K274" s="59"/>
+      <c r="L274" s="59"/>
+      <c r="M274" s="59"/>
+      <c r="N274" s="59"/>
       <c r="O274" s="20"/>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
@@ -11553,6 +11758,159 @@
     </row>
   </sheetData>
   <mergeCells count="177">
+    <mergeCell ref="J270:N273"/>
+    <mergeCell ref="J23:N24"/>
+    <mergeCell ref="J53:N54"/>
+    <mergeCell ref="B72:N72"/>
+    <mergeCell ref="J118:N122"/>
+    <mergeCell ref="J117:N117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="C116:I116"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="J207:N207"/>
+    <mergeCell ref="J208:N210"/>
+    <mergeCell ref="C200:I200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="J201:N201"/>
+    <mergeCell ref="J202:N204"/>
+    <mergeCell ref="C206:I206"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="J226:N226"/>
+    <mergeCell ref="C212:I212"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="G171:I171"/>
+    <mergeCell ref="J171:N171"/>
+    <mergeCell ref="G161:I161"/>
+    <mergeCell ref="G183:I183"/>
+    <mergeCell ref="J183:N183"/>
+    <mergeCell ref="J184:N186"/>
+    <mergeCell ref="C268:I268"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="J178:N180"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="G195:I195"/>
+    <mergeCell ref="J195:N195"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="G189:I189"/>
+    <mergeCell ref="J189:N189"/>
+    <mergeCell ref="J190:N192"/>
+    <mergeCell ref="C194:I194"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C188:I188"/>
+    <mergeCell ref="G213:I213"/>
+    <mergeCell ref="J196:N198"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="G269:I269"/>
+    <mergeCell ref="J269:N269"/>
+    <mergeCell ref="J264:N266"/>
+    <mergeCell ref="J213:N213"/>
+    <mergeCell ref="J214:N216"/>
+    <mergeCell ref="J227:N228"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="G263:I263"/>
+    <mergeCell ref="J263:N263"/>
+    <mergeCell ref="C262:I262"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="C239:I239"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="G240:I240"/>
+    <mergeCell ref="J240:N240"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="J241:N242"/>
+    <mergeCell ref="C150:I150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="J151:N151"/>
+    <mergeCell ref="J152:N158"/>
+    <mergeCell ref="C160:I160"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="J162:N168"/>
+    <mergeCell ref="C170:I170"/>
+    <mergeCell ref="J105:N106"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="J177:N177"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="J142:N142"/>
+    <mergeCell ref="J134:N139"/>
+    <mergeCell ref="C109:I109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="J111:N114"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="J133:N133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="C124:I124"/>
+    <mergeCell ref="C176:I176"/>
+    <mergeCell ref="J172:N174"/>
+    <mergeCell ref="J126:N130"/>
+    <mergeCell ref="J125:N125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="J143:N148"/>
+    <mergeCell ref="C141:I141"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="J95:N96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="J100:N101"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J58:N59"/>
+    <mergeCell ref="J68:N69"/>
+    <mergeCell ref="J90:N91"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="C103:I103"/>
+    <mergeCell ref="C88:I88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J48:N49"/>
+    <mergeCell ref="J43:N44"/>
+    <mergeCell ref="J33:N34"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="J38:N39"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="J63:N64"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:N52"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G37:I37"/>
     <mergeCell ref="B10:N10"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C16:I16"/>
@@ -11577,159 +11935,6 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:N17"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:N52"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J48:N49"/>
-    <mergeCell ref="J43:N44"/>
-    <mergeCell ref="J33:N34"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="J38:N39"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="C61:I61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="C66:I66"/>
-    <mergeCell ref="J63:N64"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="J58:N59"/>
-    <mergeCell ref="J68:N69"/>
-    <mergeCell ref="J90:N91"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="C103:I103"/>
-    <mergeCell ref="C88:I88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="J104:N104"/>
-    <mergeCell ref="J95:N96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="J100:N101"/>
-    <mergeCell ref="J105:N106"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="J177:N177"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="J142:N142"/>
-    <mergeCell ref="J134:N139"/>
-    <mergeCell ref="C109:I109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="J111:N114"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="J133:N133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="C124:I124"/>
-    <mergeCell ref="C176:I176"/>
-    <mergeCell ref="J172:N174"/>
-    <mergeCell ref="J126:N130"/>
-    <mergeCell ref="J125:N125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="J143:N148"/>
-    <mergeCell ref="C141:I141"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="G207:I207"/>
-    <mergeCell ref="J178:N180"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="G195:I195"/>
-    <mergeCell ref="J195:N195"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="G189:I189"/>
-    <mergeCell ref="J189:N189"/>
-    <mergeCell ref="J190:N192"/>
-    <mergeCell ref="C194:I194"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C188:I188"/>
-    <mergeCell ref="J196:N198"/>
-    <mergeCell ref="C150:I150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="J151:N151"/>
-    <mergeCell ref="J152:N158"/>
-    <mergeCell ref="C160:I160"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="J162:N168"/>
-    <mergeCell ref="C170:I170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="G171:I171"/>
-    <mergeCell ref="J171:N171"/>
-    <mergeCell ref="G161:I161"/>
-    <mergeCell ref="G183:I183"/>
-    <mergeCell ref="J183:N183"/>
-    <mergeCell ref="J184:N186"/>
-    <mergeCell ref="C268:I268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="G269:I269"/>
-    <mergeCell ref="J269:N269"/>
-    <mergeCell ref="J264:N266"/>
-    <mergeCell ref="J213:N213"/>
-    <mergeCell ref="J214:N216"/>
-    <mergeCell ref="J227:N228"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="G263:I263"/>
-    <mergeCell ref="J263:N263"/>
-    <mergeCell ref="C262:I262"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="C239:I239"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="G240:I240"/>
-    <mergeCell ref="J240:N240"/>
-    <mergeCell ref="J241:N242"/>
-    <mergeCell ref="J270:N273"/>
-    <mergeCell ref="J23:N24"/>
-    <mergeCell ref="J53:N54"/>
-    <mergeCell ref="B72:N72"/>
-    <mergeCell ref="J118:N122"/>
-    <mergeCell ref="J117:N117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="C116:I116"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="J207:N207"/>
-    <mergeCell ref="J208:N210"/>
-    <mergeCell ref="C200:I200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="J201:N201"/>
-    <mergeCell ref="J202:N204"/>
-    <mergeCell ref="C206:I206"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="J226:N226"/>
-    <mergeCell ref="C212:I212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="G213:I213"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G34" r:id="rId1" display="Http://www.facebook.com"/>
@@ -11752,5 +11957,975 @@
     <hyperlink ref="G266" r:id="rId18" display="Http://www.facebook.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId19"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:AU37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="96" bestFit="1" customWidth="1"/>
+    <col min="17" max="24" width="6.85546875" style="96" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" style="96" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" style="96" bestFit="1" customWidth="1"/>
+    <col min="27" max="34" width="6.5703125" style="96" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.85546875" style="96" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" style="96" bestFit="1" customWidth="1"/>
+    <col min="37" max="45" width="6.85546875" style="96" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.5703125" style="96" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.85546875" style="96" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:47">
+      <c r="E2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P4" s="90" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="B5" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q5" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="R5" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="S5" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="T5" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="U5" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="V5" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="W5" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="X5" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y5" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z5" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA5" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB5" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC5" s="97" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD5" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE5" s="97" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF5" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG5" s="97" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH5" s="97" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI5" s="97" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ5" s="97" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK5" s="97" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL5" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM5" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN5" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO5" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP5" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ5" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="AR5" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="AS5" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT5" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU5" s="97" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="B6" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="P6" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47">
+      <c r="B7" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47">
+      <c r="B8" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="R8" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="B9" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="S9" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="B10" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="T10" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="B11" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="U11" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="B12" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="V12" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47">
+      <c r="B13" s="93" t="s">
+        <v>307</v>
+      </c>
+      <c r="W13" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47">
+      <c r="B14" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="X14" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47">
+      <c r="B15" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47">
+      <c r="B16" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z16" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="2:42">
+      <c r="B17" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA17" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="2:42">
+      <c r="B18" s="94" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB18" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="2:42">
+      <c r="B19" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC19" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42">
+      <c r="B20" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD20" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42">
+      <c r="B21" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE21" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42">
+      <c r="B22" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF22" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42">
+      <c r="B23" s="94" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG23" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="2:42">
+      <c r="B24" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH24" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42">
+      <c r="B25" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI25" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42">
+      <c r="B26" s="95" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ26" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42">
+      <c r="B27" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK27" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42">
+      <c r="B28" s="95" t="s">
+        <v>311</v>
+      </c>
+      <c r="AL28" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42">
+      <c r="B29" s="95" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM29" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="2:42">
+      <c r="AN30" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42">
+      <c r="AO31" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="2:42">
+      <c r="AP32" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="43:47">
+      <c r="AQ33" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="43:47">
+      <c r="AR34" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="43:47">
+      <c r="AS35" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="43:47">
+      <c r="AT36" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="43:47">
+      <c r="AU37" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25">
+      <c r="A1" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="114">
+        <v>42266</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+    </row>
+    <row r="2" spans="1:10" ht="27.75">
+      <c r="A2" s="113" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="112" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" thickBot="1">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" thickBot="1">
+      <c r="A4" s="98"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" s="99">
+        <v>1</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100" t="s">
+        <v>337</v>
+      </c>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="102">
+        <v>2</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="102">
+        <v>3</v>
+      </c>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" s="102">
+        <v>4</v>
+      </c>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" s="102">
+        <v>5</v>
+      </c>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="102">
+        <v>6</v>
+      </c>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+      <c r="C11" s="105">
+        <v>7</v>
+      </c>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="107"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>